--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_3_16.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_3_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>207806.3473079066</v>
+        <v>205823.5549423701</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2231299.384514938</v>
+        <v>2231299.384514939</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -659,22 +659,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="D2" t="n">
-        <v>69.06579040599263</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>45.58123541261003</v>
       </c>
       <c r="G2" t="n">
-        <v>15.16194852731947</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="H2" t="n">
-        <v>276.1565137023554</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -707,13 +707,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>205.8118405263978</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>222.4795457699687</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.3343897888113</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>276.1565137023554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,19 +735,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>137.2681884137393</v>
@@ -789,22 +789,22 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>199.8611009721718</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>178.0887262277592</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>9.144978794901858</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -829,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.9278262653587</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -838,10 +838,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>88.89425643449839</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>14.93225064571201</v>
+        <v>7.203367682519136</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>71.30468686766744</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>342.3232010881752</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -905,10 +905,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>312.7773972820247</v>
       </c>
       <c r="G5" t="n">
-        <v>342.3232010881752</v>
+        <v>342.3232010881746</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -944,19 +944,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>73.16503360509175</v>
+        <v>200.5940126631359</v>
       </c>
       <c r="T5" t="n">
         <v>221.4771961716613</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.3160715779912</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>342.3232010881752</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -975,25 +975,25 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>127.4464814718215</v>
       </c>
       <c r="G6" t="n">
-        <v>137.1456745780486</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>110.3247013745373</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>82.58494735351326</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,28 +1020,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>22.55860658462465</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>199.3672842397169</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9283661214247</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1054,10 +1054,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>18.9781565509536</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1078,7 +1078,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>2.999043647335011</v>
+        <v>2.999043647335128</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1114,10 +1114,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>96.07233892177749</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>315.8263535402513</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1148,7 +1148,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>208.0914806539085</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1178,10 +1178,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1190,10 +1190,10 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1288,28 +1288,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>72.62557831284279</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>30.54110646053108</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,7 +1339,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>373.9843579081605</v>
+        <v>373.9843579081603</v>
       </c>
       <c r="C11" t="n">
-        <v>356.5234080156874</v>
+        <v>356.5234080156873</v>
       </c>
       <c r="D11" t="n">
-        <v>345.9335578653628</v>
+        <v>345.9335578653627</v>
       </c>
       <c r="E11" t="n">
-        <v>373.1808863169417</v>
+        <v>373.1808863169415</v>
       </c>
       <c r="F11" t="n">
-        <v>398.1265619863913</v>
+        <v>398.1265619863912</v>
       </c>
       <c r="G11" t="n">
-        <v>403.3191916435958</v>
+        <v>403.3191916435957</v>
       </c>
       <c r="H11" t="n">
-        <v>297.6044797127183</v>
+        <v>297.6044797127181</v>
       </c>
       <c r="I11" t="n">
-        <v>77.04522607954922</v>
+        <v>77.0452260795491</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>126.5743953575826</v>
+        <v>126.5743953575825</v>
       </c>
       <c r="T11" t="n">
-        <v>200.1892588950622</v>
+        <v>200.189258895062</v>
       </c>
       <c r="U11" t="n">
-        <v>242.3374441832188</v>
+        <v>242.3374441832187</v>
       </c>
       <c r="V11" t="n">
-        <v>319.0027747148148</v>
+        <v>319.0027747148147</v>
       </c>
       <c r="W11" t="n">
-        <v>340.4914849620929</v>
+        <v>340.4914849620927</v>
       </c>
       <c r="X11" t="n">
-        <v>360.9816169231489</v>
+        <v>360.9816169231487</v>
       </c>
       <c r="Y11" t="n">
-        <v>377.4884549007335</v>
+        <v>377.4884549007334</v>
       </c>
     </row>
     <row r="12">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>171.082496426617</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>139.8659892628922</v>
+        <v>139.8659892628921</v>
       </c>
       <c r="E13" t="n">
-        <v>137.6844788912491</v>
+        <v>137.6844788912489</v>
       </c>
       <c r="F13" t="n">
-        <v>136.6715642676111</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.579745367226</v>
       </c>
       <c r="I13" t="n">
-        <v>103.0748186594361</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,25 +1576,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.9855626775207</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>178.4668166480296</v>
       </c>
       <c r="U13" t="n">
-        <v>277.4904171141469</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>128.4924660654348</v>
+        <v>243.3881595685077</v>
       </c>
       <c r="W13" t="n">
-        <v>277.7735145812709</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>209.8351695967747</v>
+        <v>209.8351695967745</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>373.9843579081605</v>
+        <v>373.9843579081604</v>
       </c>
       <c r="C14" t="n">
         <v>356.5234080156874</v>
@@ -1613,7 +1613,7 @@
         <v>345.9335578653628</v>
       </c>
       <c r="E14" t="n">
-        <v>373.1808863169417</v>
+        <v>373.1808863169416</v>
       </c>
       <c r="F14" t="n">
         <v>398.1265619863913</v>
@@ -1622,10 +1622,10 @@
         <v>403.3191916435958</v>
       </c>
       <c r="H14" t="n">
-        <v>297.6044797127183</v>
+        <v>297.6044797127182</v>
       </c>
       <c r="I14" t="n">
-        <v>77.04522607954918</v>
+        <v>77.0452260795492</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>126.5743953575843</v>
+        <v>126.5743953575826</v>
       </c>
       <c r="T14" t="n">
-        <v>200.1892588950622</v>
+        <v>200.1892588950621</v>
       </c>
       <c r="U14" t="n">
         <v>242.3374441832188</v>
       </c>
       <c r="V14" t="n">
-        <v>319.0027747148148</v>
+        <v>319.0027747148147</v>
       </c>
       <c r="W14" t="n">
-        <v>340.4914849620929</v>
+        <v>340.4914849620928</v>
       </c>
       <c r="X14" t="n">
         <v>360.9816169231489</v>
       </c>
       <c r="Y14" t="n">
-        <v>377.4884549007335</v>
+        <v>377.4884549007334</v>
       </c>
     </row>
     <row r="15">
@@ -1701,10 +1701,10 @@
         <v>135.6131413809336</v>
       </c>
       <c r="H15" t="n">
-        <v>95.52365707608402</v>
+        <v>95.52365707608404</v>
       </c>
       <c r="I15" t="n">
-        <v>29.82009824231535</v>
+        <v>29.82009824231538</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1768,19 +1768,19 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>139.8659892628922</v>
       </c>
       <c r="E16" t="n">
-        <v>137.6844788912491</v>
+        <v>137.684478891249</v>
       </c>
       <c r="F16" t="n">
-        <v>136.6715642676111</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.5797453672262</v>
+        <v>140.5797453672261</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1822,13 +1822,13 @@
         <v>277.4904171141469</v>
       </c>
       <c r="V16" t="n">
-        <v>243.3881595685079</v>
+        <v>243.3881595685078</v>
       </c>
       <c r="W16" t="n">
-        <v>277.7735145812709</v>
+        <v>254.9194566010773</v>
       </c>
       <c r="X16" t="n">
-        <v>197.3005386488043</v>
+        <v>216.960171633717</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>373.9843579081605</v>
+        <v>373.9843579081604</v>
       </c>
       <c r="C17" t="n">
         <v>356.5234080156874</v>
@@ -1850,7 +1850,7 @@
         <v>345.9335578653628</v>
       </c>
       <c r="E17" t="n">
-        <v>373.1808863169417</v>
+        <v>373.1808863169416</v>
       </c>
       <c r="F17" t="n">
         <v>398.1265619863913</v>
@@ -1859,10 +1859,10 @@
         <v>403.3191916435958</v>
       </c>
       <c r="H17" t="n">
-        <v>297.6044797127183</v>
+        <v>297.6044797127182</v>
       </c>
       <c r="I17" t="n">
-        <v>77.04522607954917</v>
+        <v>77.04522607954912</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1895,22 +1895,22 @@
         <v>126.5743953575826</v>
       </c>
       <c r="T17" t="n">
-        <v>200.1892588950622</v>
+        <v>200.1892588950621</v>
       </c>
       <c r="U17" t="n">
         <v>242.3374441832188</v>
       </c>
       <c r="V17" t="n">
-        <v>319.0027747148148</v>
+        <v>319.0027747148171</v>
       </c>
       <c r="W17" t="n">
-        <v>340.4914849620929</v>
+        <v>340.4914849620928</v>
       </c>
       <c r="X17" t="n">
         <v>360.9816169231489</v>
       </c>
       <c r="Y17" t="n">
-        <v>377.4884549007335</v>
+        <v>377.4884549007334</v>
       </c>
     </row>
     <row r="18">
@@ -2002,25 +2002,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>158.4973373433077</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>139.8659892628922</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>137.6844788912491</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>114.4051450066925</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.5797453672262</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>103.0748186594361</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2053,22 +2053,22 @@
         <v>189.9855626775208</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>205.2905928636538</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>277.4904171141469</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>243.3881595685078</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>277.7735145812708</v>
       </c>
       <c r="X19" t="n">
         <v>216.960171633717</v>
       </c>
       <c r="Y19" t="n">
-        <v>209.8351695967747</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2081,25 +2081,25 @@
         <v>373.9843579081605</v>
       </c>
       <c r="C20" t="n">
-        <v>356.5234080156874</v>
+        <v>356.5234080156875</v>
       </c>
       <c r="D20" t="n">
-        <v>345.9335578653628</v>
+        <v>345.9335578653629</v>
       </c>
       <c r="E20" t="n">
         <v>373.1808863169417</v>
       </c>
       <c r="F20" t="n">
-        <v>398.1265619863913</v>
+        <v>398.1265619863914</v>
       </c>
       <c r="G20" t="n">
-        <v>403.3191916435958</v>
+        <v>403.3191916435959</v>
       </c>
       <c r="H20" t="n">
         <v>297.6044797127183</v>
       </c>
       <c r="I20" t="n">
-        <v>77.04522607954918</v>
+        <v>77.04522607954924</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,22 +2129,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>126.5743953575826</v>
+        <v>126.5743953575827</v>
       </c>
       <c r="T20" t="n">
-        <v>200.1892588950637</v>
+        <v>200.1892588950622</v>
       </c>
       <c r="U20" t="n">
-        <v>242.3374441832188</v>
+        <v>242.3374441832189</v>
       </c>
       <c r="V20" t="n">
         <v>319.0027747148148</v>
       </c>
       <c r="W20" t="n">
-        <v>340.4914849620929</v>
+        <v>340.491484962093</v>
       </c>
       <c r="X20" t="n">
-        <v>360.9816169231489</v>
+        <v>360.981616923149</v>
       </c>
       <c r="Y20" t="n">
         <v>377.4884549007335</v>
@@ -2175,10 +2175,10 @@
         <v>135.6131413809336</v>
       </c>
       <c r="H21" t="n">
-        <v>95.52365707608402</v>
+        <v>95.52365707608404</v>
       </c>
       <c r="I21" t="n">
-        <v>29.82009824231535</v>
+        <v>29.82009824231536</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,19 +2236,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>171.0824964266172</v>
+        <v>113.0031554016702</v>
       </c>
       <c r="C22" t="n">
         <v>158.4973373433077</v>
       </c>
       <c r="D22" t="n">
-        <v>139.1954648763348</v>
+        <v>139.8659892628923</v>
       </c>
       <c r="E22" t="n">
         <v>137.6844788912491</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>136.6715642676112</v>
       </c>
       <c r="G22" t="n">
         <v>157.7908066743674</v>
@@ -2257,7 +2257,7 @@
         <v>140.5797453672262</v>
       </c>
       <c r="I22" t="n">
-        <v>103.0748186594361</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,10 +2287,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>189.9855626775208</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>212.9977075227571</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2302,10 +2302,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>216.9601716337171</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>209.8351695967747</v>
       </c>
     </row>
     <row r="23">
@@ -2315,28 +2315,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>365.2348741528404</v>
+        <v>365.2348741528403</v>
       </c>
       <c r="C23" t="n">
-        <v>347.7739242603674</v>
+        <v>347.7739242603673</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>337.1840741100427</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>398.1265619863925</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>412.068675398916</v>
+        <v>394.5697078882757</v>
       </c>
       <c r="H23" t="n">
         <v>306.3539634680384</v>
       </c>
       <c r="I23" t="n">
-        <v>68.2957423242291</v>
+        <v>77.04522607955104</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>117.8249116022625</v>
+        <v>135.3238791129027</v>
       </c>
       <c r="T23" t="n">
         <v>208.9387426503823</v>
       </c>
       <c r="U23" t="n">
-        <v>233.5879604278988</v>
+        <v>251.086927938539</v>
       </c>
       <c r="V23" t="n">
-        <v>310.2532909594947</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>331.7420012067727</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>352.2321331678287</v>
       </c>
       <c r="Y23" t="n">
-        <v>368.7389711454134</v>
+        <v>368.7389711454133</v>
       </c>
     </row>
     <row r="24">
@@ -2412,10 +2412,10 @@
         <v>135.6131413809336</v>
       </c>
       <c r="H24" t="n">
-        <v>95.52365707608402</v>
+        <v>95.52365707608404</v>
       </c>
       <c r="I24" t="n">
-        <v>29.82009824231535</v>
+        <v>29.82009824231536</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2479,19 +2479,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>131.1165055075722</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>128.934995135929</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>127.922080512291</v>
       </c>
       <c r="G25" t="n">
-        <v>16.39157025021379</v>
+        <v>34.8764768995344</v>
       </c>
       <c r="H25" t="n">
-        <v>131.8302616119061</v>
+        <v>131.830261611906</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,25 +2521,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>94.56617439650663</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>204.248223767437</v>
+        <v>204.2482237674369</v>
       </c>
       <c r="U25" t="n">
-        <v>268.7409333588269</v>
+        <v>268.7409333588267</v>
       </c>
       <c r="V25" t="n">
-        <v>234.6386758131878</v>
+        <v>234.6386758131877</v>
       </c>
       <c r="W25" t="n">
-        <v>269.0240308259508</v>
+        <v>269.0240308259507</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>208.2106878783969</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2552,28 +2552,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>373.9843579081605</v>
+        <v>373.9843579081606</v>
       </c>
       <c r="C26" t="n">
-        <v>356.5234080156875</v>
+        <v>356.5234080156876</v>
       </c>
       <c r="D26" t="n">
-        <v>345.9335578653629</v>
+        <v>345.933557865363</v>
       </c>
       <c r="E26" t="n">
-        <v>373.1808863169417</v>
+        <v>373.1808863169418</v>
       </c>
       <c r="F26" t="n">
         <v>398.1265619863914</v>
       </c>
       <c r="G26" t="n">
-        <v>403.3191916435959</v>
+        <v>403.319191643596</v>
       </c>
       <c r="H26" t="n">
-        <v>297.6044797127183</v>
+        <v>297.6044797127184</v>
       </c>
       <c r="I26" t="n">
-        <v>77.04522607954924</v>
+        <v>77.04522607954927</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2612,7 +2612,7 @@
         <v>242.3374441832189</v>
       </c>
       <c r="V26" t="n">
-        <v>319.0027747148148</v>
+        <v>319.0027747148149</v>
       </c>
       <c r="W26" t="n">
         <v>340.491484962093</v>
@@ -2621,7 +2621,7 @@
         <v>360.981616923149</v>
       </c>
       <c r="Y26" t="n">
-        <v>377.4884549007335</v>
+        <v>377.4884549007336</v>
       </c>
     </row>
     <row r="27">
@@ -2722,16 +2722,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>136.6715642676112</v>
       </c>
       <c r="G28" t="n">
-        <v>6.025118089331804</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>103.0748186594362</v>
+        <v>45.60688375080408</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>103.3156581518268</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>189.9855626775209</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>212.9977075227571</v>
       </c>
       <c r="U28" t="n">
         <v>277.490417114147</v>
       </c>
       <c r="V28" t="n">
-        <v>243.3881595685079</v>
+        <v>243.388159568508</v>
       </c>
       <c r="W28" t="n">
-        <v>277.7735145812709</v>
+        <v>277.773514581271</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>216.9601716337171</v>
       </c>
       <c r="Y28" t="n">
-        <v>209.8351695967747</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2792,25 +2792,25 @@
         <v>373.9843579081605</v>
       </c>
       <c r="C29" t="n">
-        <v>356.5234080156875</v>
+        <v>356.5234080156874</v>
       </c>
       <c r="D29" t="n">
-        <v>345.9335578653629</v>
+        <v>345.9335578653628</v>
       </c>
       <c r="E29" t="n">
         <v>373.1808863169417</v>
       </c>
       <c r="F29" t="n">
-        <v>398.1265619863914</v>
+        <v>398.1265619863913</v>
       </c>
       <c r="G29" t="n">
-        <v>403.3191916435959</v>
+        <v>403.3191916435958</v>
       </c>
       <c r="H29" t="n">
         <v>297.6044797127183</v>
       </c>
       <c r="I29" t="n">
-        <v>77.04522607955043</v>
+        <v>77.04522607954918</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,22 +2840,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>126.5743953575827</v>
+        <v>126.5743953575826</v>
       </c>
       <c r="T29" t="n">
         <v>200.1892588950622</v>
       </c>
       <c r="U29" t="n">
-        <v>242.3374441832189</v>
+        <v>242.3374441832188</v>
       </c>
       <c r="V29" t="n">
         <v>319.0027747148148</v>
       </c>
       <c r="W29" t="n">
-        <v>340.491484962093</v>
+        <v>340.4914849620929</v>
       </c>
       <c r="X29" t="n">
-        <v>360.981616923149</v>
+        <v>360.9816169231506</v>
       </c>
       <c r="Y29" t="n">
         <v>377.4884549007335</v>
@@ -2998,13 +2998,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>182.2784480184157</v>
+        <v>189.9855626775208</v>
       </c>
       <c r="T31" t="n">
-        <v>212.9977075227571</v>
+        <v>205.2905928636529</v>
       </c>
       <c r="U31" t="n">
-        <v>277.490417114147</v>
+        <v>277.4904171141469</v>
       </c>
       <c r="V31" t="n">
         <v>243.3881595685079</v>
@@ -3013,7 +3013,7 @@
         <v>277.7735145812709</v>
       </c>
       <c r="X31" t="n">
-        <v>216.9601716337171</v>
+        <v>216.960171633717</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>74.32674340045895</v>
+        <v>135.3238791129027</v>
       </c>
       <c r="T32" t="n">
         <v>208.9387426503823</v>
       </c>
       <c r="U32" t="n">
-        <v>251.086927938539</v>
+        <v>190.0897922260942</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3263,10 +3263,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>312.4887210461251</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>295.0277711536521</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3275,7 +3275,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>345.8789100292666</v>
       </c>
       <c r="G35" t="n">
         <v>412.068675398916</v>
@@ -3323,7 +3323,7 @@
         <v>251.086927938539</v>
       </c>
       <c r="V35" t="n">
-        <v>266.7551227576894</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3424,25 +3424,25 @@
         <v>109.5868595645818</v>
       </c>
       <c r="C37" t="n">
-        <v>97.00170048127238</v>
+        <v>97.00170048127234</v>
       </c>
       <c r="D37" t="n">
-        <v>78.3703524008569</v>
+        <v>78.37035240085686</v>
       </c>
       <c r="E37" t="n">
-        <v>76.18884202921372</v>
+        <v>76.18884202921367</v>
       </c>
       <c r="F37" t="n">
-        <v>75.17592740557579</v>
+        <v>75.17592740557575</v>
       </c>
       <c r="G37" t="n">
-        <v>96.29516981233208</v>
+        <v>96.29516981233203</v>
       </c>
       <c r="H37" t="n">
-        <v>79.08410850519083</v>
+        <v>79.08410850519078</v>
       </c>
       <c r="I37" t="n">
-        <v>41.57918179740079</v>
+        <v>41.57918179740075</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.82002128979137</v>
+        <v>41.82002128979133</v>
       </c>
       <c r="S37" t="n">
         <v>128.4899258154855</v>
@@ -3478,19 +3478,19 @@
         <v>151.5020706607217</v>
       </c>
       <c r="U37" t="n">
-        <v>215.9947802521116</v>
+        <v>215.9947802521115</v>
       </c>
       <c r="V37" t="n">
-        <v>181.8925227064726</v>
+        <v>181.8925227064725</v>
       </c>
       <c r="W37" t="n">
-        <v>216.2778777192356</v>
+        <v>216.2778777192355</v>
       </c>
       <c r="X37" t="n">
         <v>155.4645347716817</v>
       </c>
       <c r="Y37" t="n">
-        <v>148.3395327347394</v>
+        <v>148.3395327347393</v>
       </c>
     </row>
     <row r="38">
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>321.7367059510351</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3518,10 +3518,10 @@
         <v>412.068675398916</v>
       </c>
       <c r="H38" t="n">
-        <v>236.1088428506829</v>
+        <v>306.3539634680384</v>
       </c>
       <c r="I38" t="n">
-        <v>85.79470983486928</v>
+        <v>24.79757412242361</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>135.3238791129027</v>
+        <v>65.07875849554728</v>
       </c>
       <c r="T38" t="n">
         <v>208.9387426503823</v>
@@ -3600,7 +3600,7 @@
         <v>95.52365707608402</v>
       </c>
       <c r="I39" t="n">
-        <v>29.82009824231534</v>
+        <v>29.82009824231535</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.82002128979136</v>
+        <v>41.82002128979137</v>
       </c>
       <c r="S40" t="n">
         <v>128.4899258154855</v>
@@ -3737,10 +3737,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>312.4887210461251</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>304.2757560585619</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3758,7 +3758,7 @@
         <v>306.3539634680384</v>
       </c>
       <c r="I41" t="n">
-        <v>85.79470983486929</v>
+        <v>15.54958921751383</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3794,7 +3794,7 @@
         <v>208.9387426503823</v>
       </c>
       <c r="U41" t="n">
-        <v>251.086927938539</v>
+        <v>190.0897922260933</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3898,25 +3898,25 @@
         <v>109.5868595645818</v>
       </c>
       <c r="C43" t="n">
-        <v>97.00170048127235</v>
+        <v>97.00170048127237</v>
       </c>
       <c r="D43" t="n">
-        <v>78.37035240085687</v>
+        <v>78.37035240085689</v>
       </c>
       <c r="E43" t="n">
-        <v>76.18884202921369</v>
+        <v>76.1888420292137</v>
       </c>
       <c r="F43" t="n">
-        <v>75.17592740557576</v>
+        <v>75.17592740557578</v>
       </c>
       <c r="G43" t="n">
-        <v>96.29516981233205</v>
+        <v>96.29516981233206</v>
       </c>
       <c r="H43" t="n">
-        <v>79.0841085051908</v>
+        <v>79.08410850519081</v>
       </c>
       <c r="I43" t="n">
-        <v>41.57918179740076</v>
+        <v>41.57918179740078</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.82002128979134</v>
+        <v>41.82002128979136</v>
       </c>
       <c r="S43" t="n">
         <v>128.4899258154855</v>
@@ -3952,7 +3952,7 @@
         <v>151.5020706607217</v>
       </c>
       <c r="U43" t="n">
-        <v>215.9947802521115</v>
+        <v>215.9947802521116</v>
       </c>
       <c r="V43" t="n">
         <v>181.8925227064725</v>
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>321.7367059510351</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -3983,7 +3983,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>311.6852494549063</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -3995,7 +3995,7 @@
         <v>306.3539634680384</v>
       </c>
       <c r="I44" t="n">
-        <v>85.79470983486929</v>
+        <v>15.5495892175138</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>135.3238791129027</v>
+        <v>74.32674340045716</v>
       </c>
       <c r="T44" t="n">
         <v>208.9387426503823</v>
@@ -4135,25 +4135,25 @@
         <v>109.5868595645818</v>
       </c>
       <c r="C46" t="n">
-        <v>97.00170048127237</v>
+        <v>97.00170048127235</v>
       </c>
       <c r="D46" t="n">
-        <v>78.37035240085689</v>
+        <v>78.37035240085687</v>
       </c>
       <c r="E46" t="n">
-        <v>76.1888420292137</v>
+        <v>76.18884202921369</v>
       </c>
       <c r="F46" t="n">
-        <v>75.17592740557578</v>
+        <v>75.17592740557576</v>
       </c>
       <c r="G46" t="n">
-        <v>96.29516981233206</v>
+        <v>96.29516981233205</v>
       </c>
       <c r="H46" t="n">
-        <v>79.08410850519081</v>
+        <v>79.0841085051908</v>
       </c>
       <c r="I46" t="n">
-        <v>41.57918179740078</v>
+        <v>41.57918179740076</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.82002128979136</v>
+        <v>41.82002128979134</v>
       </c>
       <c r="S46" t="n">
         <v>128.4899258154855</v>
@@ -4189,7 +4189,7 @@
         <v>151.5020706607217</v>
       </c>
       <c r="U46" t="n">
-        <v>215.9947802521116</v>
+        <v>215.9947802521115</v>
       </c>
       <c r="V46" t="n">
         <v>181.8925227064725</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>393.0625194571773</v>
+        <v>626.0261199015631</v>
       </c>
       <c r="C2" t="n">
-        <v>393.0625194571773</v>
+        <v>347.0801464648404</v>
       </c>
       <c r="D2" t="n">
-        <v>323.2990948046595</v>
+        <v>347.0801464648404</v>
       </c>
       <c r="E2" t="n">
-        <v>323.2990948046595</v>
+        <v>347.0801464648404</v>
       </c>
       <c r="F2" t="n">
-        <v>316.353594055456</v>
+        <v>301.0384945329111</v>
       </c>
       <c r="G2" t="n">
-        <v>301.0384945329111</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="H2" t="n">
         <v>22.09252109618843</v>
@@ -4328,22 +4328,22 @@
         <v>22.09252109618843</v>
       </c>
       <c r="J2" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618842</v>
       </c>
       <c r="K2" t="n">
-        <v>142.8373253438682</v>
+        <v>142.8373253438683</v>
       </c>
       <c r="L2" t="n">
         <v>344.9085595412868</v>
       </c>
       <c r="M2" t="n">
-        <v>586.3582880173955</v>
+        <v>586.3582880173956</v>
       </c>
       <c r="N2" t="n">
         <v>817.0829279823541</v>
       </c>
       <c r="O2" t="n">
-        <v>989.7620250901064</v>
+        <v>989.7620250901062</v>
       </c>
       <c r="P2" t="n">
         <v>1099.465256491931</v>
@@ -4355,25 +4355,25 @@
         <v>1104.626054809422</v>
       </c>
       <c r="S2" t="n">
-        <v>896.7353068029593</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="T2" t="n">
-        <v>672.0084928939</v>
+        <v>879.8992409003624</v>
       </c>
       <c r="U2" t="n">
-        <v>672.0084928939</v>
+        <v>626.0261199015631</v>
       </c>
       <c r="V2" t="n">
-        <v>672.0084928939</v>
+        <v>626.0261199015631</v>
       </c>
       <c r="W2" t="n">
-        <v>672.0084928939</v>
+        <v>626.0261199015631</v>
       </c>
       <c r="X2" t="n">
-        <v>672.0084928939</v>
+        <v>626.0261199015631</v>
       </c>
       <c r="Y2" t="n">
-        <v>393.0625194571773</v>
+        <v>626.0261199015631</v>
       </c>
     </row>
     <row r="3">
@@ -4383,16 +4383,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>309.6816665288935</v>
+        <v>481.7348441218843</v>
       </c>
       <c r="C3" t="n">
-        <v>309.6816665288935</v>
+        <v>307.2818148407573</v>
       </c>
       <c r="D3" t="n">
-        <v>160.7472568676422</v>
+        <v>307.2818148407573</v>
       </c>
       <c r="E3" t="n">
-        <v>160.7472568676422</v>
+        <v>307.2818148407573</v>
       </c>
       <c r="F3" t="n">
         <v>160.7472568676422</v>
@@ -4413,19 +4413,19 @@
         <v>22.09252109618843</v>
       </c>
       <c r="L3" t="n">
-        <v>94.45522409818579</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="M3" t="n">
-        <v>367.8501726635176</v>
+        <v>295.4874696615203</v>
       </c>
       <c r="N3" t="n">
-        <v>641.2451212288495</v>
+        <v>562.3310704112776</v>
       </c>
       <c r="O3" t="n">
-        <v>907.7419348121333</v>
+        <v>828.8278839945614</v>
       </c>
       <c r="P3" t="n">
-        <v>1104.626054809422</v>
+        <v>1025.71200399185</v>
       </c>
       <c r="Q3" t="n">
         <v>1104.626054809422</v>
@@ -4437,22 +4437,22 @@
         <v>1104.626054809422</v>
       </c>
       <c r="T3" t="n">
-        <v>902.746154837531</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="U3" t="n">
-        <v>902.746154837531</v>
+        <v>924.7384525591599</v>
       </c>
       <c r="V3" t="n">
-        <v>902.746154837531</v>
+        <v>689.5863443274171</v>
       </c>
       <c r="W3" t="n">
-        <v>893.5088025194483</v>
+        <v>689.5863443274171</v>
       </c>
       <c r="X3" t="n">
-        <v>685.6573023139155</v>
+        <v>481.7348441218843</v>
       </c>
       <c r="Y3" t="n">
-        <v>477.8970035489615</v>
+        <v>481.7348441218843</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>126.9677807731686</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="C4" t="n">
-        <v>126.9677807731686</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="D4" t="n">
-        <v>126.9677807731686</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="E4" t="n">
-        <v>126.9677807731686</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="F4" t="n">
-        <v>126.9677807731686</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="G4" t="n">
-        <v>126.9677807731686</v>
+        <v>29.36865006842999</v>
       </c>
       <c r="H4" t="n">
-        <v>126.9677807731686</v>
+        <v>29.36865006842999</v>
       </c>
       <c r="I4" t="n">
-        <v>126.9677807731686</v>
+        <v>29.36865006842999</v>
       </c>
       <c r="J4" t="n">
-        <v>37.1756025565036</v>
+        <v>29.36865006842999</v>
       </c>
       <c r="K4" t="n">
         <v>22.09252109618843</v>
@@ -4525,13 +4525,13 @@
         <v>198.9927170031358</v>
       </c>
       <c r="W4" t="n">
-        <v>126.9677807731686</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="X4" t="n">
-        <v>126.9677807731686</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="Y4" t="n">
-        <v>126.9677807731686</v>
+        <v>198.9927170031358</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>380.1123680364345</v>
+        <v>689.1036322185685</v>
       </c>
       <c r="C5" t="n">
-        <v>380.1123680364345</v>
+        <v>689.1036322185685</v>
       </c>
       <c r="D5" t="n">
-        <v>380.1123680364345</v>
+        <v>689.1036322185685</v>
       </c>
       <c r="E5" t="n">
-        <v>380.1123680364345</v>
+        <v>689.1036322185685</v>
       </c>
       <c r="F5" t="n">
-        <v>373.166867287231</v>
+        <v>373.1668672872303</v>
       </c>
       <c r="G5" t="n">
-        <v>27.38585608705402</v>
+        <v>27.38585608705397</v>
       </c>
       <c r="H5" t="n">
-        <v>27.38585608705402</v>
+        <v>27.38585608705397</v>
       </c>
       <c r="I5" t="n">
-        <v>27.38585608705402</v>
+        <v>27.38585608705397</v>
       </c>
       <c r="J5" t="n">
-        <v>46.62570475116524</v>
+        <v>46.62570475116513</v>
       </c>
       <c r="K5" t="n">
-        <v>196.2060547300925</v>
+        <v>196.2060547300921</v>
       </c>
       <c r="L5" t="n">
-        <v>434.0503332204963</v>
+        <v>434.0503332204955</v>
       </c>
       <c r="M5" t="n">
-        <v>715.3044662002607</v>
+        <v>715.3044662002595</v>
       </c>
       <c r="N5" t="n">
-        <v>986.4775875479677</v>
+        <v>986.4775875479661</v>
       </c>
       <c r="O5" t="n">
-        <v>1197.351038641555</v>
+        <v>1197.351038641553</v>
       </c>
       <c r="P5" t="n">
-        <v>1339.652267512681</v>
+        <v>1339.652267512678</v>
       </c>
       <c r="Q5" t="n">
-        <v>1369.292804352701</v>
+        <v>1369.292804352698</v>
       </c>
       <c r="R5" t="n">
-        <v>1369.292804352701</v>
+        <v>1369.292804352698</v>
       </c>
       <c r="S5" t="n">
-        <v>1295.388730004123</v>
+        <v>1166.67258954145</v>
       </c>
       <c r="T5" t="n">
-        <v>1071.674390436789</v>
+        <v>942.9582499741152</v>
       </c>
       <c r="U5" t="n">
-        <v>1071.674390436789</v>
+        <v>689.1036322185685</v>
       </c>
       <c r="V5" t="n">
-        <v>1071.674390436789</v>
+        <v>689.1036322185685</v>
       </c>
       <c r="W5" t="n">
-        <v>725.8933792366115</v>
+        <v>689.1036322185685</v>
       </c>
       <c r="X5" t="n">
-        <v>725.8933792366115</v>
+        <v>689.1036322185685</v>
       </c>
       <c r="Y5" t="n">
-        <v>725.8933792366115</v>
+        <v>689.1036322185685</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>681.7626588020023</v>
+        <v>464.2915404222674</v>
       </c>
       <c r="C6" t="n">
-        <v>507.3096295208753</v>
+        <v>464.2915404222674</v>
       </c>
       <c r="D6" t="n">
-        <v>507.3096295208753</v>
+        <v>315.3571307610161</v>
       </c>
       <c r="E6" t="n">
-        <v>507.3096295208753</v>
+        <v>156.1196757555606</v>
       </c>
       <c r="F6" t="n">
-        <v>360.7750715477603</v>
+        <v>27.38585608705397</v>
       </c>
       <c r="G6" t="n">
-        <v>222.2440871254889</v>
+        <v>27.38585608705397</v>
       </c>
       <c r="H6" t="n">
-        <v>110.8049948279765</v>
+        <v>27.38585608705397</v>
       </c>
       <c r="I6" t="n">
-        <v>27.38585608705402</v>
+        <v>27.38585608705397</v>
       </c>
       <c r="J6" t="n">
-        <v>45.15159846223709</v>
+        <v>27.38585608705397</v>
       </c>
       <c r="K6" t="n">
-        <v>202.1369249820476</v>
+        <v>184.3711826068643</v>
       </c>
       <c r="L6" t="n">
-        <v>474.6274659673259</v>
+        <v>456.8617235921423</v>
       </c>
       <c r="M6" t="n">
-        <v>813.5274350446193</v>
+        <v>795.7616926694351</v>
       </c>
       <c r="N6" t="n">
-        <v>813.5274350446193</v>
+        <v>1073.938324259484</v>
       </c>
       <c r="O6" t="n">
-        <v>1108.881915137834</v>
+        <v>1369.292804352698</v>
       </c>
       <c r="P6" t="n">
-        <v>1274.896357714069</v>
+        <v>1369.292804352698</v>
       </c>
       <c r="Q6" t="n">
-        <v>1369.292804352701</v>
+        <v>1369.292804352698</v>
       </c>
       <c r="R6" t="n">
-        <v>1346.5063330551</v>
+        <v>1369.292804352698</v>
       </c>
       <c r="S6" t="n">
-        <v>1346.5063330551</v>
+        <v>1369.292804352698</v>
       </c>
       <c r="T6" t="n">
-        <v>1145.125237863467</v>
+        <v>1369.292804352698</v>
       </c>
       <c r="U6" t="n">
-        <v>916.914767033745</v>
+        <v>1369.292804352698</v>
       </c>
       <c r="V6" t="n">
-        <v>681.7626588020023</v>
+        <v>1134.140696120956</v>
       </c>
       <c r="W6" t="n">
-        <v>681.7626588020023</v>
+        <v>879.9033393927541</v>
       </c>
       <c r="X6" t="n">
-        <v>681.7626588020023</v>
+        <v>672.0518391872213</v>
       </c>
       <c r="Y6" t="n">
-        <v>681.7626588020023</v>
+        <v>464.2915404222674</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>49.58504820653746</v>
+        <v>180.5318325168999</v>
       </c>
       <c r="C7" t="n">
-        <v>30.41519310456413</v>
+        <v>180.5318325168999</v>
       </c>
       <c r="D7" t="n">
-        <v>30.41519310456413</v>
+        <v>30.4151931045642</v>
       </c>
       <c r="E7" t="n">
-        <v>30.41519310456413</v>
+        <v>30.4151931045642</v>
       </c>
       <c r="F7" t="n">
-        <v>30.41519310456413</v>
+        <v>30.4151931045642</v>
       </c>
       <c r="G7" t="n">
-        <v>30.41519310456413</v>
+        <v>30.4151931045642</v>
       </c>
       <c r="H7" t="n">
-        <v>30.41519310456413</v>
+        <v>30.4151931045642</v>
       </c>
       <c r="I7" t="n">
-        <v>30.41519310456413</v>
+        <v>30.4151931045642</v>
       </c>
       <c r="J7" t="n">
-        <v>30.41519310456413</v>
+        <v>30.4151931045642</v>
       </c>
       <c r="K7" t="n">
-        <v>27.38585608705402</v>
+        <v>27.38585608705397</v>
       </c>
       <c r="L7" t="n">
-        <v>79.11292478935633</v>
+        <v>79.11292478935613</v>
       </c>
       <c r="M7" t="n">
-        <v>144.0409891602384</v>
+        <v>144.040989160238</v>
       </c>
       <c r="N7" t="n">
-        <v>212.8598257035934</v>
+        <v>212.8598257035929</v>
       </c>
       <c r="O7" t="n">
-        <v>260.4088643883567</v>
+        <v>260.408864388356</v>
       </c>
       <c r="P7" t="n">
-        <v>277.5745991045548</v>
+        <v>277.574599104554</v>
       </c>
       <c r="Q7" t="n">
-        <v>277.5745991045548</v>
+        <v>277.574599104554</v>
       </c>
       <c r="R7" t="n">
-        <v>277.5745991045548</v>
+        <v>277.574599104554</v>
       </c>
       <c r="S7" t="n">
-        <v>277.5745991045548</v>
+        <v>277.574599104554</v>
       </c>
       <c r="T7" t="n">
-        <v>277.5745991045548</v>
+        <v>277.574599104554</v>
       </c>
       <c r="U7" t="n">
-        <v>277.5745991045548</v>
+        <v>277.574599104554</v>
       </c>
       <c r="V7" t="n">
-        <v>277.5745991045548</v>
+        <v>277.574599104554</v>
       </c>
       <c r="W7" t="n">
-        <v>277.5745991045548</v>
+        <v>180.5318325168999</v>
       </c>
       <c r="X7" t="n">
-        <v>49.58504820653746</v>
+        <v>180.5318325168999</v>
       </c>
       <c r="Y7" t="n">
-        <v>49.58504820653746</v>
+        <v>180.5318325168999</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1837.140060718708</v>
+        <v>2323.103882821189</v>
       </c>
       <c r="C8" t="n">
-        <v>1837.140060718708</v>
+        <v>1954.141365880777</v>
       </c>
       <c r="D8" t="n">
-        <v>1478.874362111957</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="E8" t="n">
-        <v>1093.086109513713</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F8" t="n">
-        <v>682.1002047241054</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G8" t="n">
-        <v>264.1363966222923</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
         <v>53.94298182036445</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V8" t="n">
-        <v>2189.908715988822</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W8" t="n">
-        <v>1837.140060718708</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X8" t="n">
-        <v>1837.140060718708</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="Y8" t="n">
-        <v>1837.140060718708</v>
+        <v>2642.120401548716</v>
       </c>
     </row>
     <row r="9">
@@ -4857,55 +4857,55 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
         <v>2488.762748073963</v>
@@ -4920,10 +4920,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>190.2718927217162</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="C10" t="n">
-        <v>190.2718927217162</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D10" t="n">
-        <v>190.2718927217162</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E10" t="n">
-        <v>190.2718927217162</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F10" t="n">
-        <v>190.2718927217162</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
         <v>53.94298182036445</v>
@@ -4987,25 +4987,25 @@
         <v>698.7120650600561</v>
       </c>
       <c r="S10" t="n">
-        <v>484.4236418782189</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T10" t="n">
-        <v>484.4236418782189</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U10" t="n">
-        <v>484.4236418782189</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V10" t="n">
-        <v>484.4236418782189</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W10" t="n">
-        <v>484.4236418782189</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X10" t="n">
-        <v>484.4236418782189</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="Y10" t="n">
-        <v>263.6310627346887</v>
+        <v>698.7120650600561</v>
       </c>
     </row>
     <row r="11">
@@ -5015,28 +5015,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2369.155130258857</v>
+        <v>2369.155130258858</v>
       </c>
       <c r="C11" t="n">
         <v>2009.030475697557</v>
       </c>
       <c r="D11" t="n">
-        <v>1659.602639469917</v>
+        <v>1659.602639469918</v>
       </c>
       <c r="E11" t="n">
-        <v>1282.652249250784</v>
+        <v>1282.652249250785</v>
       </c>
       <c r="F11" t="n">
-        <v>880.5042068402879</v>
+        <v>880.5042068402893</v>
       </c>
       <c r="G11" t="n">
-        <v>473.1110839679688</v>
+        <v>473.1110839679699</v>
       </c>
       <c r="H11" t="n">
-        <v>172.5004983995665</v>
+        <v>172.5004983995677</v>
       </c>
       <c r="I11" t="n">
-        <v>94.6770377131532</v>
+        <v>94.67703771315318</v>
       </c>
       <c r="J11" t="n">
         <v>354.589350993173</v>
@@ -5060,7 +5060,7 @@
         <v>4345.243064678602</v>
       </c>
       <c r="Q11" t="n">
-        <v>4681.10217455553</v>
+        <v>4681.102174555529</v>
       </c>
       <c r="R11" t="n">
         <v>4733.851885657659</v>
@@ -5072,19 +5072,19 @@
         <v>4403.787588432766</v>
       </c>
       <c r="U11" t="n">
-        <v>4159.002291277999</v>
+        <v>4159.002291278</v>
       </c>
       <c r="V11" t="n">
-        <v>3836.777266313539</v>
+        <v>3836.77726631354</v>
       </c>
       <c r="W11" t="n">
-        <v>3492.846473422536</v>
+        <v>3492.846473422537</v>
       </c>
       <c r="X11" t="n">
-        <v>3128.218577540568</v>
+        <v>3128.218577540569</v>
       </c>
       <c r="Y11" t="n">
-        <v>2746.917107943867</v>
+        <v>2746.917107943868</v>
       </c>
     </row>
     <row r="12">
@@ -5115,7 +5115,7 @@
         <v>124.7983490690273</v>
       </c>
       <c r="I12" t="n">
-        <v>94.67703771315321</v>
+        <v>94.67703771315318</v>
       </c>
       <c r="J12" t="n">
         <v>130.9555262551239</v>
@@ -5133,10 +5133,10 @@
         <v>1743.708151556089</v>
       </c>
       <c r="O12" t="n">
-        <v>2350.270632106791</v>
+        <v>2010.121282321749</v>
       </c>
       <c r="P12" t="n">
-        <v>2544.757590699454</v>
+        <v>2519.88638186795</v>
       </c>
       <c r="Q12" t="n">
         <v>2624.847775581121</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>617.1991095123337</v>
+        <v>517.0307887448371</v>
       </c>
       <c r="C13" t="n">
-        <v>617.1991095123337</v>
+        <v>517.0307887448371</v>
       </c>
       <c r="D13" t="n">
-        <v>475.9203324791092</v>
+        <v>375.7520117116127</v>
       </c>
       <c r="E13" t="n">
-        <v>336.8451012758273</v>
+        <v>236.676780508331</v>
       </c>
       <c r="F13" t="n">
-        <v>198.7930161570281</v>
+        <v>236.676780508331</v>
       </c>
       <c r="G13" t="n">
-        <v>198.7930161570281</v>
+        <v>236.676780508331</v>
       </c>
       <c r="H13" t="n">
-        <v>198.7930161570281</v>
+        <v>94.67703771315318</v>
       </c>
       <c r="I13" t="n">
-        <v>94.67703771315321</v>
+        <v>94.67703771315318</v>
       </c>
       <c r="J13" t="n">
-        <v>112.4515085068987</v>
+        <v>112.4515085068988</v>
       </c>
       <c r="K13" t="n">
-        <v>265.9249411043082</v>
+        <v>265.9249411043083</v>
       </c>
       <c r="L13" t="n">
-        <v>515.42215569991</v>
+        <v>515.4221556999103</v>
       </c>
       <c r="M13" t="n">
-        <v>788.4002455991196</v>
+        <v>788.4002455991199</v>
       </c>
       <c r="N13" t="n">
         <v>1060.528105814378</v>
       </c>
       <c r="O13" t="n">
-        <v>1296.527174547859</v>
+        <v>1296.52717454786</v>
       </c>
       <c r="P13" t="n">
         <v>1476.194626713223</v>
       </c>
       <c r="Q13" t="n">
-        <v>1519.816854318018</v>
+        <v>1519.816854318019</v>
       </c>
       <c r="R13" t="n">
-        <v>1519.816854318018</v>
+        <v>1519.816854318019</v>
       </c>
       <c r="S13" t="n">
-        <v>1519.816854318018</v>
+        <v>1327.912245552846</v>
       </c>
       <c r="T13" t="n">
-        <v>1519.816854318018</v>
+        <v>1147.64273378716</v>
       </c>
       <c r="U13" t="n">
-        <v>1239.523503697667</v>
+        <v>1147.64273378716</v>
       </c>
       <c r="V13" t="n">
-        <v>1109.733133934602</v>
+        <v>901.7961079603842</v>
       </c>
       <c r="W13" t="n">
-        <v>829.1538262767526</v>
+        <v>901.7961079603842</v>
       </c>
       <c r="X13" t="n">
-        <v>829.1538262767526</v>
+        <v>901.7961079603842</v>
       </c>
       <c r="Y13" t="n">
-        <v>617.1991095123337</v>
+        <v>689.8413911959655</v>
       </c>
     </row>
     <row r="14">
@@ -5252,10 +5252,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2369.155130258857</v>
+        <v>2369.155130258856</v>
       </c>
       <c r="C14" t="n">
-        <v>2009.030475697557</v>
+        <v>2009.030475697556</v>
       </c>
       <c r="D14" t="n">
         <v>1659.602639469917</v>
@@ -5264,10 +5264,10 @@
         <v>1282.652249250784</v>
       </c>
       <c r="F14" t="n">
-        <v>880.5042068402879</v>
+        <v>880.5042068402878</v>
       </c>
       <c r="G14" t="n">
-        <v>473.1110839679689</v>
+        <v>473.1110839679688</v>
       </c>
       <c r="H14" t="n">
         <v>172.5004983995665</v>
@@ -5276,25 +5276,25 @@
         <v>94.67703771315321</v>
       </c>
       <c r="J14" t="n">
-        <v>354.5893509931727</v>
+        <v>354.5893509931726</v>
       </c>
       <c r="K14" t="n">
-        <v>864.8753375309394</v>
+        <v>864.8753375309391</v>
       </c>
       <c r="L14" t="n">
         <v>1550.20685394679</v>
       </c>
       <c r="M14" t="n">
-        <v>2329.376760678605</v>
+        <v>2329.376760678603</v>
       </c>
       <c r="N14" t="n">
-        <v>3106.522453552584</v>
+        <v>3106.522453552583</v>
       </c>
       <c r="O14" t="n">
-        <v>3795.171456245501</v>
+        <v>3795.171456245499</v>
       </c>
       <c r="P14" t="n">
-        <v>4345.243064678603</v>
+        <v>4345.243064678602</v>
       </c>
       <c r="Q14" t="n">
         <v>4681.10217455553</v>
@@ -5303,7 +5303,7 @@
         <v>4733.85188565766</v>
       </c>
       <c r="S14" t="n">
-        <v>4605.99896105404</v>
+        <v>4605.998961054042</v>
       </c>
       <c r="T14" t="n">
         <v>4403.787588432765</v>
@@ -5318,7 +5318,7 @@
         <v>3492.846473422536</v>
       </c>
       <c r="X14" t="n">
-        <v>3128.218577540568</v>
+        <v>3128.218577540567</v>
       </c>
       <c r="Y14" t="n">
         <v>2746.917107943867</v>
@@ -5346,7 +5346,7 @@
         <v>358.2698626619745</v>
       </c>
       <c r="G15" t="n">
-        <v>221.2868915701223</v>
+        <v>221.2868915701224</v>
       </c>
       <c r="H15" t="n">
         <v>124.7983490690273</v>
@@ -5355,25 +5355,25 @@
         <v>94.67703771315321</v>
       </c>
       <c r="J15" t="n">
-        <v>130.955526255124</v>
+        <v>130.9555262551239</v>
       </c>
       <c r="K15" t="n">
-        <v>271.1160662509153</v>
+        <v>532.9366508933679</v>
       </c>
       <c r="L15" t="n">
-        <v>873.0336921657927</v>
+        <v>1134.854276808245</v>
       </c>
       <c r="M15" t="n">
-        <v>1166.37437951599</v>
+        <v>1428.194964158442</v>
       </c>
       <c r="N15" t="n">
-        <v>1956.436517513755</v>
+        <v>1743.708151556089</v>
       </c>
       <c r="O15" t="n">
-        <v>2350.270632106791</v>
+        <v>2010.121282321749</v>
       </c>
       <c r="P15" t="n">
-        <v>2544.757590699454</v>
+        <v>2519.88638186795</v>
       </c>
       <c r="Q15" t="n">
         <v>2624.847775581121</v>
@@ -5410,16 +5410,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8040968304122</v>
+        <v>517.0307887448374</v>
       </c>
       <c r="C16" t="n">
-        <v>513.8040968304122</v>
+        <v>517.0307887448374</v>
       </c>
       <c r="D16" t="n">
-        <v>513.8040968304122</v>
+        <v>375.752011711613</v>
       </c>
       <c r="E16" t="n">
-        <v>374.7288656271303</v>
+        <v>236.6767805083311</v>
       </c>
       <c r="F16" t="n">
         <v>236.6767805083311</v>
@@ -5437,22 +5437,22 @@
         <v>112.4515085068986</v>
       </c>
       <c r="K16" t="n">
-        <v>265.9249411043082</v>
+        <v>265.9249411043081</v>
       </c>
       <c r="L16" t="n">
-        <v>515.4221556999101</v>
+        <v>515.4221556999099</v>
       </c>
       <c r="M16" t="n">
-        <v>788.4002455991198</v>
+        <v>788.4002455991194</v>
       </c>
       <c r="N16" t="n">
-        <v>1060.528105814378</v>
+        <v>1060.528105814377</v>
       </c>
       <c r="O16" t="n">
-        <v>1296.52717454786</v>
+        <v>1296.527174547859</v>
       </c>
       <c r="P16" t="n">
-        <v>1476.194626713223</v>
+        <v>1476.194626713222</v>
       </c>
       <c r="Q16" t="n">
         <v>1519.816854318018</v>
@@ -5473,13 +5473,13 @@
         <v>993.6768778708922</v>
       </c>
       <c r="W16" t="n">
-        <v>713.0975702130428</v>
+        <v>736.1824772637435</v>
       </c>
       <c r="X16" t="n">
-        <v>513.8040968304122</v>
+        <v>517.0307887448374</v>
       </c>
       <c r="Y16" t="n">
-        <v>513.8040968304122</v>
+        <v>517.0307887448374</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2369.155130258859</v>
+        <v>2369.155130258856</v>
       </c>
       <c r="C17" t="n">
-        <v>2009.030475697558</v>
+        <v>2009.030475697556</v>
       </c>
       <c r="D17" t="n">
-        <v>1659.602639469919</v>
+        <v>1659.602639469917</v>
       </c>
       <c r="E17" t="n">
-        <v>1282.652249250786</v>
+        <v>1282.652249250784</v>
       </c>
       <c r="F17" t="n">
-        <v>880.5042068402895</v>
+        <v>880.5042068402877</v>
       </c>
       <c r="G17" t="n">
         <v>473.1110839679687</v>
@@ -5516,13 +5516,13 @@
         <v>354.5893509931726</v>
       </c>
       <c r="K17" t="n">
-        <v>864.8753375309394</v>
+        <v>864.8753375309393</v>
       </c>
       <c r="L17" t="n">
         <v>1550.20685394679</v>
       </c>
       <c r="M17" t="n">
-        <v>2329.376760678605</v>
+        <v>2329.376760678604</v>
       </c>
       <c r="N17" t="n">
         <v>3106.522453552584</v>
@@ -5549,16 +5549,16 @@
         <v>4159.002291278</v>
       </c>
       <c r="V17" t="n">
-        <v>3836.777266313541</v>
+        <v>3836.777266313539</v>
       </c>
       <c r="W17" t="n">
-        <v>3492.846473422538</v>
+        <v>3492.846473422536</v>
       </c>
       <c r="X17" t="n">
-        <v>3128.21857754057</v>
+        <v>3128.218577540567</v>
       </c>
       <c r="Y17" t="n">
-        <v>2746.917107943869</v>
+        <v>2746.917107943867</v>
       </c>
     </row>
     <row r="18">
@@ -5592,22 +5592,22 @@
         <v>94.67703771315321</v>
       </c>
       <c r="J18" t="n">
-        <v>255.7856512421288</v>
+        <v>133.034980853089</v>
       </c>
       <c r="K18" t="n">
-        <v>483.1623045944464</v>
+        <v>535.0161054913331</v>
       </c>
       <c r="L18" t="n">
-        <v>1085.079930509324</v>
+        <v>769.8017895557859</v>
       </c>
       <c r="M18" t="n">
-        <v>1378.420617859521</v>
+        <v>1063.142476905983</v>
       </c>
       <c r="N18" t="n">
-        <v>1693.933805257168</v>
+        <v>1378.65566430363</v>
       </c>
       <c r="O18" t="n">
-        <v>2350.270632106791</v>
+        <v>2034.992491153253</v>
       </c>
       <c r="P18" t="n">
         <v>2544.757590699454</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>896.8058402695208</v>
+        <v>94.67703771315321</v>
       </c>
       <c r="C19" t="n">
-        <v>736.7075197207251</v>
+        <v>94.67703771315321</v>
       </c>
       <c r="D19" t="n">
-        <v>595.4287426875006</v>
+        <v>94.67703771315321</v>
       </c>
       <c r="E19" t="n">
-        <v>456.3535114842186</v>
+        <v>94.67703771315321</v>
       </c>
       <c r="F19" t="n">
-        <v>456.3535114842186</v>
+        <v>94.67703771315321</v>
       </c>
       <c r="G19" t="n">
-        <v>340.792758952206</v>
+        <v>94.67703771315321</v>
       </c>
       <c r="H19" t="n">
-        <v>198.7930161570281</v>
+        <v>94.67703771315321</v>
       </c>
       <c r="I19" t="n">
         <v>94.67703771315321</v>
@@ -5674,49 +5674,49 @@
         <v>112.4515085068987</v>
       </c>
       <c r="K19" t="n">
-        <v>265.9249411043082</v>
+        <v>265.9249411043083</v>
       </c>
       <c r="L19" t="n">
-        <v>515.4221556999101</v>
+        <v>515.4221556999103</v>
       </c>
       <c r="M19" t="n">
-        <v>788.4002455991198</v>
+        <v>788.4002455991199</v>
       </c>
       <c r="N19" t="n">
         <v>1060.528105814378</v>
       </c>
       <c r="O19" t="n">
-        <v>1296.527174547859</v>
+        <v>1296.52717454786</v>
       </c>
       <c r="P19" t="n">
         <v>1476.194626713223</v>
       </c>
       <c r="Q19" t="n">
-        <v>1519.816854318018</v>
+        <v>1519.816854318019</v>
       </c>
       <c r="R19" t="n">
-        <v>1519.816854318018</v>
+        <v>1519.816854318019</v>
       </c>
       <c r="S19" t="n">
         <v>1327.912245552846</v>
       </c>
       <c r="T19" t="n">
-        <v>1327.912245552846</v>
+        <v>1120.548010337034</v>
       </c>
       <c r="U19" t="n">
-        <v>1327.912245552846</v>
+        <v>840.2546597166843</v>
       </c>
       <c r="V19" t="n">
-        <v>1327.912245552846</v>
+        <v>594.4080338899087</v>
       </c>
       <c r="W19" t="n">
-        <v>1327.912245552846</v>
+        <v>313.8287262320593</v>
       </c>
       <c r="X19" t="n">
-        <v>1108.76055703394</v>
+        <v>94.67703771315321</v>
       </c>
       <c r="Y19" t="n">
-        <v>896.8058402695208</v>
+        <v>94.67703771315321</v>
       </c>
     </row>
     <row r="20">
@@ -5726,40 +5726,40 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2369.155130258857</v>
+        <v>2369.155130258858</v>
       </c>
       <c r="C20" t="n">
         <v>2009.030475697557</v>
       </c>
       <c r="D20" t="n">
-        <v>1659.602639469917</v>
+        <v>1659.602639469918</v>
       </c>
       <c r="E20" t="n">
-        <v>1282.652249250784</v>
+        <v>1282.652249250785</v>
       </c>
       <c r="F20" t="n">
-        <v>880.5042068402879</v>
+        <v>880.5042068402882</v>
       </c>
       <c r="G20" t="n">
-        <v>473.1110839679689</v>
+        <v>473.1110839679691</v>
       </c>
       <c r="H20" t="n">
-        <v>172.5004983995665</v>
+        <v>172.5004983995668</v>
       </c>
       <c r="I20" t="n">
         <v>94.67703771315321</v>
       </c>
       <c r="J20" t="n">
-        <v>354.5893509931727</v>
+        <v>354.5893509931725</v>
       </c>
       <c r="K20" t="n">
-        <v>864.8753375309394</v>
+        <v>864.8753375309389</v>
       </c>
       <c r="L20" t="n">
         <v>1550.20685394679</v>
       </c>
       <c r="M20" t="n">
-        <v>2329.376760678605</v>
+        <v>2329.376760678604</v>
       </c>
       <c r="N20" t="n">
         <v>3106.522453552584</v>
@@ -5777,25 +5777,25 @@
         <v>4733.85188565766</v>
       </c>
       <c r="S20" t="n">
-        <v>4605.998961054042</v>
+        <v>4605.998961054041</v>
       </c>
       <c r="T20" t="n">
-        <v>4403.787588432765</v>
+        <v>4403.787588432766</v>
       </c>
       <c r="U20" t="n">
-        <v>4159.002291277999</v>
+        <v>4159.002291278</v>
       </c>
       <c r="V20" t="n">
-        <v>3836.777266313539</v>
+        <v>3836.77726631354</v>
       </c>
       <c r="W20" t="n">
-        <v>3492.846473422536</v>
+        <v>3492.846473422537</v>
       </c>
       <c r="X20" t="n">
-        <v>3128.218577540568</v>
+        <v>3128.218577540569</v>
       </c>
       <c r="Y20" t="n">
-        <v>2746.917107943867</v>
+        <v>2746.917107943868</v>
       </c>
     </row>
     <row r="21">
@@ -5832,22 +5832,22 @@
         <v>130.955526255124</v>
       </c>
       <c r="K21" t="n">
-        <v>532.9366508933681</v>
+        <v>532.936650893368</v>
       </c>
       <c r="L21" t="n">
-        <v>769.8017895557859</v>
+        <v>1134.854276808245</v>
       </c>
       <c r="M21" t="n">
-        <v>1063.142476905983</v>
+        <v>1428.194964158442</v>
       </c>
       <c r="N21" t="n">
-        <v>1378.65566430363</v>
+        <v>1743.708151556089</v>
       </c>
       <c r="O21" t="n">
-        <v>2034.992491153253</v>
+        <v>2010.12128232175</v>
       </c>
       <c r="P21" t="n">
-        <v>2544.757590699454</v>
+        <v>2519.886381867951</v>
       </c>
       <c r="Q21" t="n">
         <v>2624.847775581121</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>939.9524435837809</v>
+        <v>974.5658476188644</v>
       </c>
       <c r="C22" t="n">
-        <v>779.8541230349853</v>
+        <v>814.4675270700686</v>
       </c>
       <c r="D22" t="n">
-        <v>639.2526433619198</v>
+        <v>673.1887500368441</v>
       </c>
       <c r="E22" t="n">
-        <v>500.1774121586377</v>
+        <v>534.1135188335621</v>
       </c>
       <c r="F22" t="n">
-        <v>500.1774121586377</v>
+        <v>396.0614337147629</v>
       </c>
       <c r="G22" t="n">
-        <v>340.7927589522059</v>
+        <v>236.6767805083312</v>
       </c>
       <c r="H22" t="n">
-        <v>198.7930161570281</v>
+        <v>94.67703771315321</v>
       </c>
       <c r="I22" t="n">
         <v>94.67703771315321</v>
@@ -5911,22 +5911,22 @@
         <v>112.4515085068986</v>
       </c>
       <c r="K22" t="n">
-        <v>265.9249411043082</v>
+        <v>265.9249411043081</v>
       </c>
       <c r="L22" t="n">
-        <v>515.4221556999101</v>
+        <v>515.4221556999099</v>
       </c>
       <c r="M22" t="n">
-        <v>788.4002455991198</v>
+        <v>788.4002455991193</v>
       </c>
       <c r="N22" t="n">
-        <v>1060.528105814378</v>
+        <v>1060.528105814377</v>
       </c>
       <c r="O22" t="n">
-        <v>1296.52717454786</v>
+        <v>1296.527174547859</v>
       </c>
       <c r="P22" t="n">
-        <v>1476.194626713223</v>
+        <v>1476.194626713222</v>
       </c>
       <c r="Q22" t="n">
         <v>1519.816854318018</v>
@@ -5935,25 +5935,25 @@
         <v>1519.816854318018</v>
       </c>
       <c r="S22" t="n">
-        <v>1327.912245552846</v>
+        <v>1519.816854318018</v>
       </c>
       <c r="T22" t="n">
-        <v>1112.763046034909</v>
+        <v>1519.816854318018</v>
       </c>
       <c r="U22" t="n">
-        <v>1112.763046034909</v>
+        <v>1519.816854318018</v>
       </c>
       <c r="V22" t="n">
-        <v>1112.763046034909</v>
+        <v>1519.816854318018</v>
       </c>
       <c r="W22" t="n">
-        <v>1112.763046034909</v>
+        <v>1519.816854318018</v>
       </c>
       <c r="X22" t="n">
-        <v>1112.763046034909</v>
+        <v>1300.665165799112</v>
       </c>
       <c r="Y22" t="n">
-        <v>1112.763046034909</v>
+        <v>1088.710449034693</v>
       </c>
     </row>
     <row r="23">
@@ -5963,25 +5963,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2386.830855017081</v>
+        <v>2369.155130258859</v>
       </c>
       <c r="C23" t="n">
-        <v>2035.544062834892</v>
+        <v>2017.868338076669</v>
       </c>
       <c r="D23" t="n">
-        <v>1677.278364228141</v>
+        <v>1677.278364228142</v>
       </c>
       <c r="E23" t="n">
         <v>1291.490111629897</v>
       </c>
       <c r="F23" t="n">
-        <v>889.3420692193993</v>
+        <v>880.5042068402897</v>
       </c>
       <c r="G23" t="n">
-        <v>473.1110839679689</v>
+        <v>481.948946347082</v>
       </c>
       <c r="H23" t="n">
-        <v>163.6626360204554</v>
+        <v>172.5004983995684</v>
       </c>
       <c r="I23" t="n">
         <v>94.67703771315321</v>
@@ -6014,25 +6014,25 @@
         <v>4733.85188565766</v>
       </c>
       <c r="S23" t="n">
-        <v>4614.836823433153</v>
+        <v>4597.16109867493</v>
       </c>
       <c r="T23" t="n">
-        <v>4403.787588432767</v>
+        <v>4386.111863674544</v>
       </c>
       <c r="U23" t="n">
-        <v>4167.840153657112</v>
+        <v>4132.488704140666</v>
       </c>
       <c r="V23" t="n">
-        <v>3854.452991071764</v>
+        <v>3801.425816797096</v>
       </c>
       <c r="W23" t="n">
-        <v>3501.684335801649</v>
+        <v>3466.332886285204</v>
       </c>
       <c r="X23" t="n">
-        <v>3128.21857754057</v>
+        <v>3110.542852782347</v>
       </c>
       <c r="Y23" t="n">
-        <v>2755.75497032298</v>
+        <v>2738.079245564758</v>
       </c>
     </row>
     <row r="24">
@@ -6066,25 +6066,25 @@
         <v>94.67703771315321</v>
       </c>
       <c r="J24" t="n">
-        <v>255.7856512421288</v>
+        <v>130.955526255124</v>
       </c>
       <c r="K24" t="n">
-        <v>657.7667758803728</v>
+        <v>532.936650893368</v>
       </c>
       <c r="L24" t="n">
-        <v>951.7489707812574</v>
+        <v>1134.854276808245</v>
       </c>
       <c r="M24" t="n">
-        <v>1245.089658131455</v>
+        <v>1428.194964158442</v>
       </c>
       <c r="N24" t="n">
-        <v>1560.602845529102</v>
+        <v>1743.708151556089</v>
       </c>
       <c r="O24" t="n">
-        <v>1827.015976294762</v>
+        <v>2010.12128232175</v>
       </c>
       <c r="P24" t="n">
-        <v>2336.781075840963</v>
+        <v>2519.886381867951</v>
       </c>
       <c r="Q24" t="n">
         <v>2624.847775581121</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>507.0743432743865</v>
+        <v>392.281905413892</v>
       </c>
       <c r="C25" t="n">
-        <v>507.0743432743865</v>
+        <v>392.281905413892</v>
       </c>
       <c r="D25" t="n">
-        <v>374.6334286202732</v>
+        <v>392.281905413892</v>
       </c>
       <c r="E25" t="n">
-        <v>244.3960597961026</v>
+        <v>392.281905413892</v>
       </c>
       <c r="F25" t="n">
-        <v>244.3960597961026</v>
+        <v>263.0676826742041</v>
       </c>
       <c r="G25" t="n">
-        <v>227.83891812922</v>
+        <v>227.8389181292199</v>
       </c>
       <c r="H25" t="n">
         <v>94.67703771315321</v>
@@ -6145,16 +6145,16 @@
         <v>94.67703771315321</v>
       </c>
       <c r="J25" t="n">
-        <v>121.1134974246655</v>
+        <v>121.1134974246656</v>
       </c>
       <c r="K25" t="n">
-        <v>283.2489189398419</v>
+        <v>283.248918939842</v>
       </c>
       <c r="L25" t="n">
-        <v>541.4081224532106</v>
+        <v>541.4081224532109</v>
       </c>
       <c r="M25" t="n">
-        <v>823.0482012701871</v>
+        <v>823.0482012701874</v>
       </c>
       <c r="N25" t="n">
         <v>1103.838050403212</v>
@@ -6166,31 +6166,31 @@
         <v>1536.828549137591</v>
       </c>
       <c r="Q25" t="n">
-        <v>1589.112765660153</v>
+        <v>1589.112765660154</v>
       </c>
       <c r="R25" t="n">
-        <v>1493.591377380853</v>
+        <v>1589.112765660154</v>
       </c>
       <c r="S25" t="n">
-        <v>1493.591377380853</v>
+        <v>1589.112765660154</v>
       </c>
       <c r="T25" t="n">
-        <v>1287.280040242028</v>
+        <v>1382.801428521328</v>
       </c>
       <c r="U25" t="n">
-        <v>1015.824552000789</v>
+        <v>1111.34594028009</v>
       </c>
       <c r="V25" t="n">
-        <v>778.8157885531247</v>
+        <v>874.337176832425</v>
       </c>
       <c r="W25" t="n">
-        <v>507.0743432743865</v>
+        <v>602.5957315536868</v>
       </c>
       <c r="X25" t="n">
-        <v>507.0743432743865</v>
+        <v>392.281905413892</v>
       </c>
       <c r="Y25" t="n">
-        <v>507.0743432743865</v>
+        <v>392.281905413892</v>
       </c>
     </row>
     <row r="26">
@@ -6200,49 +6200,49 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2369.155130258859</v>
+        <v>2369.155130258858</v>
       </c>
       <c r="C26" t="n">
-        <v>2009.030475697558</v>
+        <v>2009.030475697557</v>
       </c>
       <c r="D26" t="n">
-        <v>1659.602639469919</v>
+        <v>1659.602639469918</v>
       </c>
       <c r="E26" t="n">
-        <v>1282.652249250786</v>
+        <v>1282.652249250785</v>
       </c>
       <c r="F26" t="n">
-        <v>880.5042068402893</v>
+        <v>880.5042068402881</v>
       </c>
       <c r="G26" t="n">
-        <v>473.1110839679701</v>
+        <v>473.1110839679691</v>
       </c>
       <c r="H26" t="n">
-        <v>172.5004983995677</v>
+        <v>172.5004983995667</v>
       </c>
       <c r="I26" t="n">
         <v>94.67703771315323</v>
       </c>
       <c r="J26" t="n">
-        <v>354.5893509931734</v>
+        <v>354.589350993173</v>
       </c>
       <c r="K26" t="n">
-        <v>864.8753375309402</v>
+        <v>864.8753375309393</v>
       </c>
       <c r="L26" t="n">
-        <v>1550.206853946791</v>
+        <v>1550.20685394679</v>
       </c>
       <c r="M26" t="n">
-        <v>2329.376760678606</v>
+        <v>2329.376760678605</v>
       </c>
       <c r="N26" t="n">
-        <v>3106.522453552586</v>
+        <v>3106.522453552585</v>
       </c>
       <c r="O26" t="n">
-        <v>3795.171456245502</v>
+        <v>3795.171456245501</v>
       </c>
       <c r="P26" t="n">
-        <v>4345.243064678604</v>
+        <v>4345.243064678603</v>
       </c>
       <c r="Q26" t="n">
         <v>4681.102174555531</v>
@@ -6254,7 +6254,7 @@
         <v>4605.998961054042</v>
       </c>
       <c r="T26" t="n">
-        <v>4403.787588432767</v>
+        <v>4403.787588432768</v>
       </c>
       <c r="U26" t="n">
         <v>4159.002291278</v>
@@ -6269,7 +6269,7 @@
         <v>3128.218577540569</v>
       </c>
       <c r="Y26" t="n">
-        <v>2746.917107943869</v>
+        <v>2746.917107943868</v>
       </c>
     </row>
     <row r="27">
@@ -6303,25 +6303,25 @@
         <v>94.67703771315323</v>
       </c>
       <c r="J27" t="n">
-        <v>255.7856512421288</v>
+        <v>164.460438820424</v>
       </c>
       <c r="K27" t="n">
-        <v>657.7667758803728</v>
+        <v>304.6209788162153</v>
       </c>
       <c r="L27" t="n">
-        <v>892.5524599448257</v>
+        <v>539.4066628806681</v>
       </c>
       <c r="M27" t="n">
-        <v>1185.893147295023</v>
+        <v>1293.795363343365</v>
       </c>
       <c r="N27" t="n">
-        <v>1501.40633469267</v>
+        <v>2083.857501341131</v>
       </c>
       <c r="O27" t="n">
-        <v>1827.015976294762</v>
+        <v>2350.270632106791</v>
       </c>
       <c r="P27" t="n">
-        <v>2336.781075840963</v>
+        <v>2544.757590699454</v>
       </c>
       <c r="Q27" t="n">
         <v>2624.847775581121</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>204.8789940250399</v>
+        <v>278.7966821761992</v>
       </c>
       <c r="C28" t="n">
-        <v>204.8789940250399</v>
+        <v>278.7966821761992</v>
       </c>
       <c r="D28" t="n">
-        <v>204.8789940250399</v>
+        <v>278.7966821761992</v>
       </c>
       <c r="E28" t="n">
-        <v>204.8789940250399</v>
+        <v>278.7966821761992</v>
       </c>
       <c r="F28" t="n">
-        <v>204.8789940250399</v>
+        <v>140.7445970573998</v>
       </c>
       <c r="G28" t="n">
-        <v>198.7930161570281</v>
+        <v>140.7445970573998</v>
       </c>
       <c r="H28" t="n">
-        <v>198.7930161570281</v>
+        <v>140.7445970573998</v>
       </c>
       <c r="I28" t="n">
         <v>94.67703771315323</v>
@@ -6385,10 +6385,10 @@
         <v>112.4515085068986</v>
       </c>
       <c r="K28" t="n">
-        <v>265.924941104308</v>
+        <v>265.9249411043081</v>
       </c>
       <c r="L28" t="n">
-        <v>515.4221556999099</v>
+        <v>515.42215569991</v>
       </c>
       <c r="M28" t="n">
         <v>788.4002455991194</v>
@@ -6400,34 +6400,34 @@
         <v>1296.527174547859</v>
       </c>
       <c r="P28" t="n">
-        <v>1476.194626713223</v>
+        <v>1476.194626713222</v>
       </c>
       <c r="Q28" t="n">
         <v>1519.816854318018</v>
       </c>
       <c r="R28" t="n">
-        <v>1415.457603659607</v>
+        <v>1519.816854318018</v>
       </c>
       <c r="S28" t="n">
-        <v>1223.552994894435</v>
+        <v>1519.816854318018</v>
       </c>
       <c r="T28" t="n">
-        <v>1223.552994894435</v>
+        <v>1304.667654800081</v>
       </c>
       <c r="U28" t="n">
-        <v>943.2596442740839</v>
+        <v>1024.374304179731</v>
       </c>
       <c r="V28" t="n">
-        <v>697.4130184473082</v>
+        <v>778.5276783529548</v>
       </c>
       <c r="W28" t="n">
-        <v>416.8337107894588</v>
+        <v>497.9483706951054</v>
       </c>
       <c r="X28" t="n">
-        <v>416.8337107894588</v>
+        <v>278.7966821761992</v>
       </c>
       <c r="Y28" t="n">
-        <v>204.8789940250399</v>
+        <v>278.7966821761992</v>
       </c>
     </row>
     <row r="29">
@@ -6437,34 +6437,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2369.155130258859</v>
+        <v>2369.155130258857</v>
       </c>
       <c r="C29" t="n">
-        <v>2009.030475697558</v>
+        <v>2009.030475697557</v>
       </c>
       <c r="D29" t="n">
-        <v>1659.602639469919</v>
+        <v>1659.602639469917</v>
       </c>
       <c r="E29" t="n">
-        <v>1282.652249250786</v>
+        <v>1282.652249250784</v>
       </c>
       <c r="F29" t="n">
-        <v>880.5042068402893</v>
+        <v>880.5042068402879</v>
       </c>
       <c r="G29" t="n">
-        <v>473.1110839679702</v>
+        <v>473.1110839679689</v>
       </c>
       <c r="H29" t="n">
-        <v>172.5004983995678</v>
+        <v>172.5004983995665</v>
       </c>
       <c r="I29" t="n">
         <v>94.67703771315321</v>
       </c>
       <c r="J29" t="n">
-        <v>354.5893509931726</v>
+        <v>354.5893509931727</v>
       </c>
       <c r="K29" t="n">
-        <v>864.8753375309393</v>
+        <v>864.8753375309394</v>
       </c>
       <c r="L29" t="n">
         <v>1550.20685394679</v>
@@ -6503,10 +6503,10 @@
         <v>3492.846473422538</v>
       </c>
       <c r="X29" t="n">
-        <v>3128.21857754057</v>
+        <v>3128.218577540568</v>
       </c>
       <c r="Y29" t="n">
-        <v>2746.917107943869</v>
+        <v>2746.917107943867</v>
       </c>
     </row>
     <row r="30">
@@ -6540,25 +6540,25 @@
         <v>94.67703771315321</v>
       </c>
       <c r="J30" t="n">
-        <v>255.7856512421288</v>
+        <v>130.955526255124</v>
       </c>
       <c r="K30" t="n">
-        <v>657.7667758803728</v>
+        <v>532.9366508933681</v>
       </c>
       <c r="L30" t="n">
-        <v>892.5524599448257</v>
+        <v>1134.854276808245</v>
       </c>
       <c r="M30" t="n">
-        <v>1185.893147295023</v>
+        <v>1428.194964158443</v>
       </c>
       <c r="N30" t="n">
-        <v>1501.40633469267</v>
+        <v>1743.70815155609</v>
       </c>
       <c r="O30" t="n">
-        <v>1827.015976294762</v>
+        <v>2010.12128232175</v>
       </c>
       <c r="P30" t="n">
-        <v>2336.781075840963</v>
+        <v>2519.886381867951</v>
       </c>
       <c r="Q30" t="n">
         <v>2624.847775581121</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>94.67703771315321</v>
+        <v>94.67703771315323</v>
       </c>
       <c r="C31" t="n">
-        <v>94.67703771315321</v>
+        <v>94.67703771315323</v>
       </c>
       <c r="D31" t="n">
-        <v>94.67703771315321</v>
+        <v>94.67703771315323</v>
       </c>
       <c r="E31" t="n">
-        <v>94.67703771315321</v>
+        <v>94.67703771315323</v>
       </c>
       <c r="F31" t="n">
-        <v>94.67703771315321</v>
+        <v>94.67703771315323</v>
       </c>
       <c r="G31" t="n">
-        <v>94.67703771315321</v>
+        <v>94.67703771315323</v>
       </c>
       <c r="H31" t="n">
-        <v>94.67703771315321</v>
+        <v>94.67703771315323</v>
       </c>
       <c r="I31" t="n">
-        <v>94.67703771315321</v>
+        <v>94.67703771315323</v>
       </c>
       <c r="J31" t="n">
-        <v>112.4515085068986</v>
+        <v>112.4515085068987</v>
       </c>
       <c r="K31" t="n">
-        <v>265.924941104308</v>
+        <v>265.9249411043082</v>
       </c>
       <c r="L31" t="n">
-        <v>515.4221556999099</v>
+        <v>515.4221556999101</v>
       </c>
       <c r="M31" t="n">
-        <v>788.4002455991194</v>
+        <v>788.4002455991197</v>
       </c>
       <c r="N31" t="n">
         <v>1060.528105814378</v>
       </c>
       <c r="O31" t="n">
-        <v>1296.527174547859</v>
+        <v>1296.52717454786</v>
       </c>
       <c r="P31" t="n">
         <v>1476.194626713223</v>
       </c>
       <c r="Q31" t="n">
-        <v>1519.816854318017</v>
+        <v>1519.816854318018</v>
       </c>
       <c r="R31" t="n">
-        <v>1519.816854318017</v>
+        <v>1519.816854318018</v>
       </c>
       <c r="S31" t="n">
-        <v>1335.697209854971</v>
+        <v>1327.912245552846</v>
       </c>
       <c r="T31" t="n">
         <v>1120.548010337035</v>
       </c>
       <c r="U31" t="n">
-        <v>840.2546597166846</v>
+        <v>840.2546597166844</v>
       </c>
       <c r="V31" t="n">
-        <v>594.4080338899089</v>
+        <v>594.4080338899088</v>
       </c>
       <c r="W31" t="n">
         <v>313.8287262320594</v>
       </c>
       <c r="X31" t="n">
-        <v>94.67703771315321</v>
+        <v>94.67703771315323</v>
       </c>
       <c r="Y31" t="n">
-        <v>94.67703771315321</v>
+        <v>94.67703771315323</v>
       </c>
     </row>
     <row r="32">
@@ -6695,10 +6695,10 @@
         <v>181.3383607786778</v>
       </c>
       <c r="I32" t="n">
-        <v>94.67703771315324</v>
+        <v>94.67703771315323</v>
       </c>
       <c r="J32" t="n">
-        <v>354.5893509931743</v>
+        <v>354.5893509931739</v>
       </c>
       <c r="K32" t="n">
         <v>864.8753375309411</v>
@@ -6719,16 +6719,16 @@
         <v>4345.243064678605</v>
       </c>
       <c r="Q32" t="n">
-        <v>4681.102174555532</v>
+        <v>4681.102174555531</v>
       </c>
       <c r="R32" t="n">
-        <v>4733.851885657662</v>
+        <v>4733.851885657661</v>
       </c>
       <c r="S32" t="n">
-        <v>4658.77436707134</v>
+        <v>4597.161098674931</v>
       </c>
       <c r="T32" t="n">
-        <v>4447.725132070954</v>
+        <v>4386.111863674545</v>
       </c>
       <c r="U32" t="n">
         <v>4194.101972537076</v>
@@ -6774,25 +6774,25 @@
         <v>124.7983490690273</v>
       </c>
       <c r="I33" t="n">
-        <v>94.67703771315324</v>
+        <v>94.67703771315323</v>
       </c>
       <c r="J33" t="n">
-        <v>255.7856512421288</v>
+        <v>130.955526255124</v>
       </c>
       <c r="K33" t="n">
-        <v>657.7667758803728</v>
+        <v>271.1160662509153</v>
       </c>
       <c r="L33" t="n">
-        <v>892.5524599448257</v>
+        <v>805.9790986222956</v>
       </c>
       <c r="M33" t="n">
-        <v>1185.893147295023</v>
+        <v>1560.367799084993</v>
       </c>
       <c r="N33" t="n">
-        <v>1501.40633469267</v>
+        <v>1875.88098648264</v>
       </c>
       <c r="O33" t="n">
-        <v>1827.015976294762</v>
+        <v>2142.2941172483</v>
       </c>
       <c r="P33" t="n">
         <v>2336.781075840963</v>
@@ -6847,22 +6847,22 @@
         <v>313.8269974251964</v>
       </c>
       <c r="G34" t="n">
-        <v>216.5591491299124</v>
+        <v>216.559149129912</v>
       </c>
       <c r="H34" t="n">
-        <v>136.6762112458813</v>
+        <v>136.6762112458809</v>
       </c>
       <c r="I34" t="n">
-        <v>94.67703771315324</v>
+        <v>94.67703771315323</v>
       </c>
       <c r="J34" t="n">
-        <v>173.3321890003136</v>
+        <v>173.3321890003135</v>
       </c>
       <c r="K34" t="n">
-        <v>387.6863020911381</v>
+        <v>387.686302091138</v>
       </c>
       <c r="L34" t="n">
-        <v>698.0641971801551</v>
+        <v>698.064197180155</v>
       </c>
       <c r="M34" t="n">
         <v>1031.92296757278</v>
@@ -6871,10 +6871,10 @@
         <v>1364.931508281453</v>
       </c>
       <c r="O34" t="n">
-        <v>1661.811257508349</v>
+        <v>1661.81125750835</v>
       </c>
       <c r="P34" t="n">
-        <v>1902.359390167127</v>
+        <v>1902.359390167128</v>
       </c>
       <c r="Q34" t="n">
         <v>2006.862298265338</v>
@@ -6911,16 +6911,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2431.020166912636</v>
+        <v>2298.452231225969</v>
       </c>
       <c r="C35" t="n">
-        <v>2062.057649972224</v>
+        <v>2000.444381575815</v>
       </c>
       <c r="D35" t="n">
-        <v>1703.791951365474</v>
+        <v>1642.178682969065</v>
       </c>
       <c r="E35" t="n">
-        <v>1318.003698767229</v>
+        <v>1256.39043037082</v>
       </c>
       <c r="F35" t="n">
         <v>907.0177939776216</v>
@@ -6932,55 +6932,55 @@
         <v>181.3383607786778</v>
       </c>
       <c r="I35" t="n">
-        <v>94.67703771315321</v>
+        <v>94.67703771315323</v>
       </c>
       <c r="J35" t="n">
-        <v>354.5893509931727</v>
+        <v>354.5893509931739</v>
       </c>
       <c r="K35" t="n">
-        <v>864.8753375309394</v>
+        <v>864.8753375309407</v>
       </c>
       <c r="L35" t="n">
-        <v>1550.20685394679</v>
+        <v>1550.206853946791</v>
       </c>
       <c r="M35" t="n">
         <v>2329.376760678605</v>
       </c>
       <c r="N35" t="n">
-        <v>3106.522453552584</v>
+        <v>3106.522453552585</v>
       </c>
       <c r="O35" t="n">
-        <v>3795.171456245501</v>
+        <v>3795.171456245502</v>
       </c>
       <c r="P35" t="n">
-        <v>4345.243064678603</v>
+        <v>4345.243064678604</v>
       </c>
       <c r="Q35" t="n">
-        <v>4681.10217455553</v>
+        <v>4681.102174555531</v>
       </c>
       <c r="R35" t="n">
-        <v>4733.85188565766</v>
+        <v>4733.851885657661</v>
       </c>
       <c r="S35" t="n">
-        <v>4597.16109867493</v>
+        <v>4597.161098674931</v>
       </c>
       <c r="T35" t="n">
-        <v>4386.111863674544</v>
+        <v>4386.111863674545</v>
       </c>
       <c r="U35" t="n">
-        <v>4132.488704140666</v>
+        <v>4132.488704140667</v>
       </c>
       <c r="V35" t="n">
-        <v>3863.039085193505</v>
+        <v>3801.425816797097</v>
       </c>
       <c r="W35" t="n">
-        <v>3510.270429923391</v>
+        <v>3448.657161526982</v>
       </c>
       <c r="X35" t="n">
-        <v>3136.804671662311</v>
+        <v>3075.191403265902</v>
       </c>
       <c r="Y35" t="n">
-        <v>2746.665339686499</v>
+        <v>2685.052071290091</v>
       </c>
     </row>
     <row r="36">
@@ -7011,28 +7011,28 @@
         <v>124.7983490690273</v>
       </c>
       <c r="I36" t="n">
-        <v>94.67703771315321</v>
+        <v>94.67703771315323</v>
       </c>
       <c r="J36" t="n">
-        <v>255.7856512421288</v>
+        <v>164.460438820424</v>
       </c>
       <c r="K36" t="n">
-        <v>657.7667758803728</v>
+        <v>304.6209788162153</v>
       </c>
       <c r="L36" t="n">
-        <v>951.7489707812574</v>
+        <v>539.4066628806681</v>
       </c>
       <c r="M36" t="n">
-        <v>1245.089658131455</v>
+        <v>1293.795363343365</v>
       </c>
       <c r="N36" t="n">
-        <v>1560.602845529102</v>
+        <v>2083.857501341131</v>
       </c>
       <c r="O36" t="n">
-        <v>1827.015976294762</v>
+        <v>2350.270632106791</v>
       </c>
       <c r="P36" t="n">
-        <v>2336.781075840963</v>
+        <v>2544.757590699454</v>
       </c>
       <c r="Q36" t="n">
         <v>2624.847775581121</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>643.8641916847108</v>
+        <v>643.864191684711</v>
       </c>
       <c r="C37" t="n">
-        <v>545.882676047062</v>
+        <v>545.8826760470622</v>
       </c>
       <c r="D37" t="n">
-        <v>466.7207039249843</v>
+        <v>466.7207039249846</v>
       </c>
       <c r="E37" t="n">
-        <v>389.7622776328492</v>
+        <v>389.7622776328496</v>
       </c>
       <c r="F37" t="n">
-        <v>313.8269974251969</v>
+        <v>313.8269974251973</v>
       </c>
       <c r="G37" t="n">
-        <v>216.559149129912</v>
+        <v>216.5591491299124</v>
       </c>
       <c r="H37" t="n">
         <v>136.6762112458813</v>
       </c>
       <c r="I37" t="n">
-        <v>94.67703771315321</v>
+        <v>94.67703771315323</v>
       </c>
       <c r="J37" t="n">
         <v>173.3321890003135</v>
       </c>
       <c r="K37" t="n">
-        <v>387.6863020911383</v>
+        <v>387.6863020911379</v>
       </c>
       <c r="L37" t="n">
-        <v>698.0641971801551</v>
+        <v>698.0641971801549</v>
       </c>
       <c r="M37" t="n">
         <v>1031.92296757278</v>
@@ -7117,28 +7117,28 @@
         <v>2006.862298265338</v>
       </c>
       <c r="R37" t="n">
-        <v>1964.619852518074</v>
+        <v>1964.619852518075</v>
       </c>
       <c r="S37" t="n">
-        <v>1834.832048664048</v>
+        <v>1834.832048664049</v>
       </c>
       <c r="T37" t="n">
         <v>1681.799654057259</v>
       </c>
       <c r="U37" t="n">
-        <v>1463.623108348055</v>
+        <v>1463.623108348056</v>
       </c>
       <c r="V37" t="n">
-        <v>1279.893287432426</v>
+        <v>1279.893287432427</v>
       </c>
       <c r="W37" t="n">
         <v>1061.430784685724</v>
       </c>
       <c r="X37" t="n">
-        <v>904.3959010779646</v>
+        <v>904.395901077965</v>
       </c>
       <c r="Y37" t="n">
-        <v>754.5579892246925</v>
+        <v>754.5579892246926</v>
       </c>
     </row>
     <row r="38">
@@ -7148,40 +7148,40 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2360.065499622378</v>
+        <v>2369.406898516226</v>
       </c>
       <c r="C38" t="n">
-        <v>1991.102982681966</v>
+        <v>2000.444381575814</v>
       </c>
       <c r="D38" t="n">
-        <v>1632.837284075215</v>
+        <v>1642.178682969064</v>
       </c>
       <c r="E38" t="n">
-        <v>1247.049031476971</v>
+        <v>1256.390430370819</v>
       </c>
       <c r="F38" t="n">
-        <v>836.0631266873636</v>
+        <v>845.4045255812118</v>
       </c>
       <c r="G38" t="n">
-        <v>419.8321414359332</v>
+        <v>429.1735403297815</v>
       </c>
       <c r="H38" t="n">
-        <v>181.3383607786777</v>
+        <v>119.725092382268</v>
       </c>
       <c r="I38" t="n">
         <v>94.67703771315321</v>
       </c>
       <c r="J38" t="n">
-        <v>354.5893509931719</v>
+        <v>354.589350993173</v>
       </c>
       <c r="K38" t="n">
-        <v>864.8753375309389</v>
+        <v>864.8753375309393</v>
       </c>
       <c r="L38" t="n">
         <v>1550.20685394679</v>
       </c>
       <c r="M38" t="n">
-        <v>2329.376760678604</v>
+        <v>2329.376760678605</v>
       </c>
       <c r="N38" t="n">
         <v>3106.522453552584</v>
@@ -7199,25 +7199,25 @@
         <v>4733.85188565766</v>
       </c>
       <c r="S38" t="n">
-        <v>4597.16109867493</v>
+        <v>4668.115765965188</v>
       </c>
       <c r="T38" t="n">
-        <v>4386.111863674544</v>
+        <v>4457.066530964802</v>
       </c>
       <c r="U38" t="n">
-        <v>4132.488704140666</v>
+        <v>4203.443371430924</v>
       </c>
       <c r="V38" t="n">
-        <v>3801.425816797096</v>
+        <v>3872.380484087354</v>
       </c>
       <c r="W38" t="n">
-        <v>3448.657161526981</v>
+        <v>3519.611828817239</v>
       </c>
       <c r="X38" t="n">
-        <v>3075.191403265901</v>
+        <v>3146.146070556159</v>
       </c>
       <c r="Y38" t="n">
-        <v>2685.05207129009</v>
+        <v>2756.006738580348</v>
       </c>
     </row>
     <row r="39">
@@ -7251,28 +7251,28 @@
         <v>94.67703771315321</v>
       </c>
       <c r="J39" t="n">
-        <v>255.7856512421288</v>
+        <v>155.8267350866266</v>
       </c>
       <c r="K39" t="n">
-        <v>657.7667758803728</v>
+        <v>557.8078597248707</v>
       </c>
       <c r="L39" t="n">
-        <v>944.5444916003802</v>
+        <v>1159.725485639748</v>
       </c>
       <c r="M39" t="n">
-        <v>1237.885178950577</v>
+        <v>1453.066172989945</v>
       </c>
       <c r="N39" t="n">
-        <v>1553.398366348224</v>
+        <v>1768.579360387592</v>
       </c>
       <c r="O39" t="n">
-        <v>1819.811497113885</v>
+        <v>2034.992491153253</v>
       </c>
       <c r="P39" t="n">
-        <v>2329.576596660086</v>
+        <v>2544.757590699454</v>
       </c>
       <c r="Q39" t="n">
-        <v>2617.643296400244</v>
+        <v>2624.847775581121</v>
       </c>
       <c r="R39" t="n">
         <v>2624.847775581121</v>
@@ -7306,16 +7306,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>643.8641916847113</v>
+        <v>643.864191684711</v>
       </c>
       <c r="C40" t="n">
-        <v>545.8826760470624</v>
+        <v>545.8826760470622</v>
       </c>
       <c r="D40" t="n">
-        <v>466.7207039249848</v>
+        <v>466.7207039249845</v>
       </c>
       <c r="E40" t="n">
-        <v>389.7622776328497</v>
+        <v>389.7622776328494</v>
       </c>
       <c r="F40" t="n">
         <v>313.8269974251974</v>
@@ -7330,13 +7330,13 @@
         <v>94.67703771315321</v>
       </c>
       <c r="J40" t="n">
-        <v>173.3321890003137</v>
+        <v>173.3321890003136</v>
       </c>
       <c r="K40" t="n">
         <v>387.6863020911381</v>
       </c>
       <c r="L40" t="n">
-        <v>698.0641971801551</v>
+        <v>698.064197180155</v>
       </c>
       <c r="M40" t="n">
         <v>1031.92296757278</v>
@@ -7357,7 +7357,7 @@
         <v>1964.619852518074</v>
       </c>
       <c r="S40" t="n">
-        <v>1834.832048664049</v>
+        <v>1834.832048664048</v>
       </c>
       <c r="T40" t="n">
         <v>1681.799654057259</v>
@@ -7372,10 +7372,10 @@
         <v>1061.430784685724</v>
       </c>
       <c r="X40" t="n">
-        <v>904.3959010779649</v>
+        <v>904.3959010779648</v>
       </c>
       <c r="Y40" t="n">
-        <v>754.557989224693</v>
+        <v>754.5579892246927</v>
       </c>
     </row>
     <row r="41">
@@ -7385,34 +7385,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2369.406898516226</v>
+        <v>2360.065499622378</v>
       </c>
       <c r="C41" t="n">
-        <v>2062.057649972224</v>
+        <v>1991.102982681966</v>
       </c>
       <c r="D41" t="n">
-        <v>1703.791951365474</v>
+        <v>1632.837284075215</v>
       </c>
       <c r="E41" t="n">
-        <v>1318.003698767229</v>
+        <v>1247.049031476971</v>
       </c>
       <c r="F41" t="n">
-        <v>907.0177939776216</v>
+        <v>836.0631266873636</v>
       </c>
       <c r="G41" t="n">
-        <v>490.7868087261913</v>
+        <v>419.8321414359333</v>
       </c>
       <c r="H41" t="n">
-        <v>181.3383607786778</v>
+        <v>110.3836934884197</v>
       </c>
       <c r="I41" t="n">
         <v>94.67703771315321</v>
       </c>
       <c r="J41" t="n">
-        <v>354.589350993173</v>
+        <v>354.5893509931726</v>
       </c>
       <c r="K41" t="n">
-        <v>864.8753375309393</v>
+        <v>864.8753375309394</v>
       </c>
       <c r="L41" t="n">
         <v>1550.20685394679</v>
@@ -7442,19 +7442,19 @@
         <v>4386.111863674544</v>
       </c>
       <c r="U41" t="n">
-        <v>4132.488704140666</v>
+        <v>4194.101972537076</v>
       </c>
       <c r="V41" t="n">
-        <v>3801.425816797096</v>
+        <v>3863.039085193505</v>
       </c>
       <c r="W41" t="n">
-        <v>3448.657161526981</v>
+        <v>3510.270429923391</v>
       </c>
       <c r="X41" t="n">
-        <v>3075.191403265901</v>
+        <v>3136.804671662311</v>
       </c>
       <c r="Y41" t="n">
-        <v>2685.05207129009</v>
+        <v>2746.665339686499</v>
       </c>
     </row>
     <row r="42">
@@ -7488,25 +7488,25 @@
         <v>94.67703771315321</v>
       </c>
       <c r="J42" t="n">
-        <v>255.7856512421288</v>
+        <v>130.955526255124</v>
       </c>
       <c r="K42" t="n">
-        <v>657.7667758803728</v>
+        <v>532.9366508933681</v>
       </c>
       <c r="L42" t="n">
-        <v>892.5524599448257</v>
+        <v>1134.854276808245</v>
       </c>
       <c r="M42" t="n">
-        <v>1185.893147295023</v>
+        <v>1428.194964158443</v>
       </c>
       <c r="N42" t="n">
-        <v>1560.602845529102</v>
+        <v>1743.70815155609</v>
       </c>
       <c r="O42" t="n">
-        <v>1827.015976294762</v>
+        <v>2010.12128232175</v>
       </c>
       <c r="P42" t="n">
-        <v>2336.781075840963</v>
+        <v>2519.886381867951</v>
       </c>
       <c r="Q42" t="n">
         <v>2624.847775581121</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>643.8641916847108</v>
+        <v>643.864191684711</v>
       </c>
       <c r="C43" t="n">
-        <v>545.882676047062</v>
+        <v>545.8826760470622</v>
       </c>
       <c r="D43" t="n">
-        <v>466.7207039249843</v>
+        <v>466.7207039249845</v>
       </c>
       <c r="E43" t="n">
-        <v>389.7622776328492</v>
+        <v>389.7622776328494</v>
       </c>
       <c r="F43" t="n">
-        <v>313.8269974251969</v>
+        <v>313.8269974251971</v>
       </c>
       <c r="G43" t="n">
-        <v>216.5591491299124</v>
+        <v>216.5591491299122</v>
       </c>
       <c r="H43" t="n">
         <v>136.6762112458813</v>
@@ -7567,52 +7567,52 @@
         <v>94.67703771315321</v>
       </c>
       <c r="J43" t="n">
-        <v>173.3321890003137</v>
+        <v>173.3321890003132</v>
       </c>
       <c r="K43" t="n">
-        <v>387.6863020911381</v>
+        <v>387.6863020911377</v>
       </c>
       <c r="L43" t="n">
-        <v>698.0641971801551</v>
+        <v>698.0641971801547</v>
       </c>
       <c r="M43" t="n">
-        <v>1031.92296757278</v>
+        <v>1031.922967572779</v>
       </c>
       <c r="N43" t="n">
-        <v>1364.931508281453</v>
+        <v>1364.931508281452</v>
       </c>
       <c r="O43" t="n">
         <v>1661.811257508349</v>
       </c>
       <c r="P43" t="n">
-        <v>1902.359390167128</v>
+        <v>1902.359390167127</v>
       </c>
       <c r="Q43" t="n">
         <v>2006.862298265338</v>
       </c>
       <c r="R43" t="n">
-        <v>1964.619852518074</v>
+        <v>1964.619852518073</v>
       </c>
       <c r="S43" t="n">
-        <v>1834.832048664049</v>
+        <v>1834.832048664048</v>
       </c>
       <c r="T43" t="n">
-        <v>1681.799654057259</v>
+        <v>1681.799654057258</v>
       </c>
       <c r="U43" t="n">
         <v>1463.623108348055</v>
       </c>
       <c r="V43" t="n">
-        <v>1279.893287432426</v>
+        <v>1279.893287432427</v>
       </c>
       <c r="W43" t="n">
         <v>1061.430784685724</v>
       </c>
       <c r="X43" t="n">
-        <v>904.3959010779645</v>
+        <v>904.3959010779648</v>
       </c>
       <c r="Y43" t="n">
-        <v>754.5579892246925</v>
+        <v>754.5579892246927</v>
       </c>
     </row>
     <row r="44">
@@ -7631,16 +7631,16 @@
         <v>1632.837284075215</v>
       </c>
       <c r="E44" t="n">
-        <v>1318.003698767229</v>
+        <v>1247.049031476971</v>
       </c>
       <c r="F44" t="n">
-        <v>907.0177939776216</v>
+        <v>836.0631266873636</v>
       </c>
       <c r="G44" t="n">
-        <v>490.7868087261913</v>
+        <v>419.8321414359332</v>
       </c>
       <c r="H44" t="n">
-        <v>181.3383607786778</v>
+        <v>110.3836934884197</v>
       </c>
       <c r="I44" t="n">
         <v>94.67703771315321</v>
@@ -7655,7 +7655,7 @@
         <v>1550.20685394679</v>
       </c>
       <c r="M44" t="n">
-        <v>2329.376760678605</v>
+        <v>2329.376760678604</v>
       </c>
       <c r="N44" t="n">
         <v>3106.522453552584</v>
@@ -7673,25 +7673,25 @@
         <v>4733.85188565766</v>
       </c>
       <c r="S44" t="n">
-        <v>4597.16109867493</v>
+        <v>4658.77436707134</v>
       </c>
       <c r="T44" t="n">
-        <v>4386.111863674544</v>
+        <v>4447.725132070954</v>
       </c>
       <c r="U44" t="n">
-        <v>4132.488704140666</v>
+        <v>4194.101972537076</v>
       </c>
       <c r="V44" t="n">
-        <v>3801.425816797096</v>
+        <v>3863.039085193505</v>
       </c>
       <c r="W44" t="n">
-        <v>3448.657161526981</v>
+        <v>3510.270429923391</v>
       </c>
       <c r="X44" t="n">
-        <v>3075.191403265901</v>
+        <v>3136.804671662311</v>
       </c>
       <c r="Y44" t="n">
-        <v>2685.05207129009</v>
+        <v>2746.665339686499</v>
       </c>
     </row>
     <row r="45">
@@ -7725,25 +7725,25 @@
         <v>94.67703771315321</v>
       </c>
       <c r="J45" t="n">
-        <v>255.7856512421288</v>
+        <v>130.955526255124</v>
       </c>
       <c r="K45" t="n">
-        <v>657.7667758803728</v>
+        <v>532.9366508933681</v>
       </c>
       <c r="L45" t="n">
-        <v>951.7489707812574</v>
+        <v>1134.854276808245</v>
       </c>
       <c r="M45" t="n">
-        <v>1245.089658131455</v>
+        <v>1428.194964158443</v>
       </c>
       <c r="N45" t="n">
-        <v>1560.602845529102</v>
+        <v>1743.70815155609</v>
       </c>
       <c r="O45" t="n">
-        <v>1827.015976294762</v>
+        <v>2010.12128232175</v>
       </c>
       <c r="P45" t="n">
-        <v>2336.781075840963</v>
+        <v>2519.886381867951</v>
       </c>
       <c r="Q45" t="n">
         <v>2624.847775581121</v>
@@ -7786,16 +7786,16 @@
         <v>545.8826760470622</v>
       </c>
       <c r="D46" t="n">
-        <v>466.7207039249845</v>
+        <v>466.7207039249846</v>
       </c>
       <c r="E46" t="n">
-        <v>389.7622776328494</v>
+        <v>389.7622776328495</v>
       </c>
       <c r="F46" t="n">
-        <v>313.8269974251971</v>
+        <v>313.8269974251972</v>
       </c>
       <c r="G46" t="n">
-        <v>216.5591491299122</v>
+        <v>216.5591491299123</v>
       </c>
       <c r="H46" t="n">
         <v>136.6762112458813</v>
@@ -7804,13 +7804,13 @@
         <v>94.67703771315321</v>
       </c>
       <c r="J46" t="n">
-        <v>173.3321890003136</v>
+        <v>173.3321890003137</v>
       </c>
       <c r="K46" t="n">
-        <v>387.686302091138</v>
+        <v>387.6863020911381</v>
       </c>
       <c r="L46" t="n">
-        <v>698.0641971801549</v>
+        <v>698.0641971801551</v>
       </c>
       <c r="M46" t="n">
         <v>1031.92296757278</v>
@@ -7822,7 +7822,7 @@
         <v>1661.81125750835</v>
       </c>
       <c r="P46" t="n">
-        <v>1902.359390167127</v>
+        <v>1902.359390167128</v>
       </c>
       <c r="Q46" t="n">
         <v>2006.862298265338</v>
@@ -7837,7 +7837,7 @@
         <v>1681.799654057259</v>
       </c>
       <c r="U46" t="n">
-        <v>1463.623108348055</v>
+        <v>1463.623108348056</v>
       </c>
       <c r="V46" t="n">
         <v>1279.893287432427</v>
@@ -7846,7 +7846,7 @@
         <v>1061.430784685724</v>
       </c>
       <c r="X46" t="n">
-        <v>904.3959010779647</v>
+        <v>904.395901077965</v>
       </c>
       <c r="Y46" t="n">
         <v>754.5579892246927</v>
@@ -8061,13 +8061,13 @@
         <v>125.6774978810002</v>
       </c>
       <c r="L3" t="n">
-        <v>195.2920992522434</v>
+        <v>122.1984598562865</v>
       </c>
       <c r="M3" t="n">
         <v>399.2039605324505</v>
       </c>
       <c r="N3" t="n">
-        <v>387.9064735273547</v>
+        <v>381.2889504813197</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3661252938572</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>108.1458410220422</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8301,19 +8301,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>434.3284361294562</v>
+        <v>434.3284361294559</v>
       </c>
       <c r="N6" t="n">
-        <v>79.88615305911929</v>
+        <v>360.8726496147244</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>263.8865070923678</v>
+        <v>96.1951509547573</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>114.7273416362211</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8544,13 +8544,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>274.4264991783518</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8781,13 +8781,13 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>343.5852018030724</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>25.12243316313518</v>
       </c>
       <c r="R12" t="n">
         <v>38.24441811346514</v>
@@ -9006,7 +9006,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9015,19 +9015,19 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>128.7080644720964</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>25.12243316313567</v>
       </c>
       <c r="R15" t="n">
-        <v>38.2444181134651</v>
+        <v>38.24441811346516</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9179,7 +9179,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>321.7987081714828</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
@@ -9240,13 +9240,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>2.100459189863599</v>
       </c>
       <c r="K18" t="n">
-        <v>88.09708419851142</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9258,7 +9258,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -9483,7 +9483,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>2.100459189863642</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9492,16 +9492,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>25.1224331631342</v>
       </c>
       <c r="R21" t="n">
-        <v>38.2444181134651</v>
+        <v>38.24441811346512</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9714,13 +9714,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>59.79445539033509</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9735,10 +9735,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>25.1224331631342</v>
       </c>
       <c r="R24" t="n">
-        <v>38.2444181134651</v>
+        <v>38.24441811346512</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9951,28 +9951,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>33.84334602555549</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>59.79445539033509</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>38.2444181134651</v>
@@ -10188,13 +10188,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10203,13 +10203,13 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>59.79445539033509</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>25.12243316313415</v>
       </c>
       <c r="R30" t="n">
         <v>38.2444181134651</v>
@@ -10425,25 +10425,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>303.1084326332601</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>59.79445539033509</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10662,28 +10662,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>33.84334602555549</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>59.79445539033509</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>38.2444181134651</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.096615172073</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10899,13 +10899,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>25.12243316313393</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>52.5172036924792</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10920,10 +10920,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>38.2444181134651</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298275</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,19 +11136,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>59.79445539033503</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -11157,7 +11157,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>25.12243316313415</v>
       </c>
       <c r="R42" t="n">
         <v>38.2444181134651</v>
@@ -11303,7 +11303,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928322</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11315,7 +11315,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599046</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11373,13 +11373,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>59.79445539033509</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11394,7 +11394,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>25.12243316313415</v>
       </c>
       <c r="R45" t="n">
         <v>38.2444181134651</v>
@@ -23413,10 +23413,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>171.0824964266172</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>158.4973373433077</v>
+        <v>158.4973373433076</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23425,16 +23425,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>136.671564267611</v>
       </c>
       <c r="G13" t="n">
-        <v>157.7908066743674</v>
+        <v>157.7908066743673</v>
       </c>
       <c r="H13" t="n">
-        <v>140.5797453672262</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>103.074818659436</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,25 +23461,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>103.3156581518267</v>
+        <v>103.3156581518266</v>
       </c>
       <c r="S13" t="n">
-        <v>189.9855626775208</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>212.9977075227571</v>
+        <v>34.53089087472726</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>277.4904171141468</v>
       </c>
       <c r="V13" t="n">
-        <v>114.8956935030731</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>277.7735145812708</v>
       </c>
       <c r="X13" t="n">
-        <v>216.960171633717</v>
+        <v>216.9601716337169</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23650,19 +23650,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>171.0824964266172</v>
+        <v>171.0824964266171</v>
       </c>
       <c r="C16" t="n">
         <v>158.4973373433077</v>
       </c>
       <c r="D16" t="n">
-        <v>139.8659892628922</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>136.6715642676111</v>
       </c>
       <c r="G16" t="n">
         <v>157.7908066743674</v>
@@ -23704,7 +23704,7 @@
         <v>189.9855626775208</v>
       </c>
       <c r="T16" t="n">
-        <v>212.9977075227571</v>
+        <v>212.997707522757</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23713,13 +23713,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>22.85405798019357</v>
       </c>
       <c r="X16" t="n">
-        <v>19.6596329849127</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>209.8351695967747</v>
+        <v>209.8351695967746</v>
       </c>
     </row>
     <row r="17">
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>171.0824964266172</v>
+        <v>171.0824964266171</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>158.4973373433077</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>139.8659892628922</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>137.684478891249</v>
       </c>
       <c r="F19" t="n">
         <v>136.6715642676111</v>
       </c>
       <c r="G19" t="n">
-        <v>43.38566166767492</v>
+        <v>157.7908066743674</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.5797453672261</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>103.0748186594361</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23941,22 +23941,22 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>212.9977075227571</v>
+        <v>7.70711465910322</v>
       </c>
       <c r="U19" t="n">
-        <v>277.4904171141469</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>243.3881595685079</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>277.7735145812709</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>209.8351695967746</v>
       </c>
     </row>
     <row r="20">
@@ -24124,19 +24124,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>58.079341024947</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0.6705243865574124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>136.6715642676111</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24145,7 +24145,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>103.0748186594362</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,13 +24175,13 @@
         <v>103.3156581518267</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.9855626775209</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>212.9977075227571</v>
       </c>
       <c r="U22" t="n">
-        <v>277.4904171141469</v>
+        <v>277.490417114147</v>
       </c>
       <c r="V22" t="n">
         <v>243.3881595685079</v>
@@ -24190,10 +24190,10 @@
         <v>277.7735145812709</v>
       </c>
       <c r="X22" t="n">
-        <v>216.960171633717</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>209.8351695967747</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,28 +24361,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>162.3330126712971</v>
+        <v>162.333012671297</v>
       </c>
       <c r="C25" t="n">
-        <v>149.7478535879876</v>
+        <v>149.7478535879875</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>131.1165055075721</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>128.9349951359289</v>
       </c>
       <c r="F25" t="n">
-        <v>127.922080512291</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>132.6497526688335</v>
+        <v>114.1648460195129</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>94.32533490411605</v>
+        <v>94.32533490411596</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>94.56617439650654</v>
       </c>
       <c r="S25" t="n">
-        <v>181.2360789222008</v>
+        <v>181.2360789222007</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24427,10 +24427,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>208.210687878397</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>201.0856858414546</v>
+        <v>201.0856858414545</v>
       </c>
     </row>
     <row r="26">
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>171.0824964266172</v>
+        <v>171.0824964266173</v>
       </c>
       <c r="C28" t="n">
         <v>158.4973373433078</v>
@@ -24610,16 +24610,16 @@
         <v>137.6844788912491</v>
       </c>
       <c r="F28" t="n">
-        <v>136.6715642676112</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>151.7656885850357</v>
+        <v>157.7908066743675</v>
       </c>
       <c r="H28" t="n">
-        <v>140.5797453672262</v>
+        <v>140.5797453672263</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>57.46793490863214</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>103.3156581518268</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.9855626775209</v>
       </c>
       <c r="T28" t="n">
-        <v>212.9977075227571</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24664,10 +24664,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>216.9601716337171</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>209.8351695967748</v>
       </c>
     </row>
     <row r="29">
@@ -24838,25 +24838,25 @@
         <v>171.0824964266172</v>
       </c>
       <c r="C31" t="n">
-        <v>158.4973373433078</v>
+        <v>158.4973373433077</v>
       </c>
       <c r="D31" t="n">
-        <v>139.8659892628923</v>
+        <v>139.8659892628922</v>
       </c>
       <c r="E31" t="n">
         <v>137.6844788912491</v>
       </c>
       <c r="F31" t="n">
-        <v>136.6715642676112</v>
+        <v>136.6715642676111</v>
       </c>
       <c r="G31" t="n">
-        <v>157.7908066743675</v>
+        <v>157.7908066743674</v>
       </c>
       <c r="H31" t="n">
         <v>140.5797453672262</v>
       </c>
       <c r="I31" t="n">
-        <v>103.0748186594362</v>
+        <v>103.0748186594361</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,13 +24883,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>103.3156581518268</v>
+        <v>103.3156581518267</v>
       </c>
       <c r="S31" t="n">
-        <v>7.70711465910523</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>7.707114659104121</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1082588.115402507</v>
+        <v>1082588.115402508</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1082588.115402508</v>
+        <v>1082588.115402507</v>
       </c>
     </row>
     <row r="8">
@@ -26311,37 +26311,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>328416.7079457133</v>
+        <v>328416.7079457134</v>
       </c>
       <c r="C2" t="n">
-        <v>328416.7079457135</v>
+        <v>328416.7079457132</v>
       </c>
       <c r="D2" t="n">
         <v>328416.7079457134</v>
       </c>
       <c r="E2" t="n">
-        <v>314342.0982244301</v>
+        <v>314342.0982244298</v>
       </c>
       <c r="F2" t="n">
         <v>314342.0982244298</v>
       </c>
       <c r="G2" t="n">
-        <v>314342.0982244299</v>
+        <v>314342.0982244298</v>
       </c>
       <c r="H2" t="n">
-        <v>314342.0982244298</v>
+        <v>314342.0982244293</v>
       </c>
       <c r="I2" t="n">
-        <v>316344.6072706421</v>
+        <v>316344.607270642</v>
       </c>
       <c r="J2" t="n">
         <v>314342.0982244295</v>
       </c>
       <c r="K2" t="n">
-        <v>314342.0982244292</v>
+        <v>314342.0982244298</v>
       </c>
       <c r="L2" t="n">
-        <v>328416.7079457134</v>
+        <v>328416.7079457132</v>
       </c>
       <c r="M2" t="n">
         <v>328416.7079457134</v>
@@ -26350,10 +26350,10 @@
         <v>328416.7079457132</v>
       </c>
       <c r="O2" t="n">
-        <v>328416.7079457134</v>
+        <v>328416.7079457129</v>
       </c>
       <c r="P2" t="n">
-        <v>328416.7079457133</v>
+        <v>328416.7079457131</v>
       </c>
     </row>
     <row r="3">
@@ -26366,40 +26366,40 @@
         <v>126293.3414468129</v>
       </c>
       <c r="C3" t="n">
-        <v>73242.75587182316</v>
+        <v>73242.75587182245</v>
       </c>
       <c r="D3" t="n">
-        <v>347850.4754879016</v>
+        <v>347850.4754879023</v>
       </c>
       <c r="E3" t="n">
-        <v>501863.8382769653</v>
+        <v>501863.8382769654</v>
       </c>
       <c r="F3" t="n">
-        <v>2.695895773285884e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>3.535601535986644e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>6999.587004256055</v>
+        <v>6999.587004256164</v>
       </c>
       <c r="J3" t="n">
         <v>72254.69487113913</v>
       </c>
       <c r="K3" t="n">
-        <v>17029.18799911361</v>
+        <v>17029.18799911345</v>
       </c>
       <c r="L3" t="n">
-        <v>133213.6283517443</v>
+        <v>133213.6283517444</v>
       </c>
       <c r="M3" t="n">
         <v>126888.6208088315</v>
       </c>
       <c r="N3" t="n">
-        <v>6999.587004256055</v>
+        <v>6999.587004256129</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26418,46 +26418,46 @@
         <v>291749.0011542653</v>
       </c>
       <c r="C4" t="n">
-        <v>270786.420835829</v>
+        <v>270786.4208358292</v>
       </c>
       <c r="D4" t="n">
         <v>165632.8677865244</v>
       </c>
       <c r="E4" t="n">
-        <v>31296.64760862434</v>
+        <v>31296.64760862447</v>
       </c>
       <c r="F4" t="n">
-        <v>31296.64760862426</v>
+        <v>31296.64760862439</v>
       </c>
       <c r="G4" t="n">
-        <v>31296.64760862433</v>
+        <v>31296.64760862428</v>
       </c>
       <c r="H4" t="n">
-        <v>31296.64760862426</v>
+        <v>31296.64760862429</v>
       </c>
       <c r="I4" t="n">
-        <v>34175.66379926088</v>
+        <v>34175.66379926091</v>
       </c>
       <c r="J4" t="n">
-        <v>31296.64760862428</v>
+        <v>31296.64760862424</v>
       </c>
       <c r="K4" t="n">
-        <v>31296.64760862422</v>
+        <v>31296.64760862425</v>
       </c>
       <c r="L4" t="n">
-        <v>51531.77680372185</v>
+        <v>51531.77680372189</v>
       </c>
       <c r="M4" t="n">
+        <v>51531.77680372189</v>
+      </c>
+      <c r="N4" t="n">
         <v>51531.77680372192</v>
-      </c>
-      <c r="N4" t="n">
-        <v>51531.77680372191</v>
       </c>
       <c r="O4" t="n">
         <v>51531.77680372194</v>
       </c>
       <c r="P4" t="n">
-        <v>51531.77680372192</v>
+        <v>51531.77680372193</v>
       </c>
     </row>
     <row r="5">
@@ -26470,7 +26470,7 @@
         <v>51181.37951678014</v>
       </c>
       <c r="C5" t="n">
-        <v>56446.00258139054</v>
+        <v>56446.00258139049</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
@@ -26479,28 +26479,28 @@
         <v>90227.61935254952</v>
       </c>
       <c r="F5" t="n">
-        <v>90227.61935254953</v>
+        <v>90227.61935254952</v>
       </c>
       <c r="G5" t="n">
         <v>90227.61935254953</v>
       </c>
       <c r="H5" t="n">
-        <v>90227.61935254953</v>
+        <v>90227.61935254952</v>
       </c>
       <c r="I5" t="n">
         <v>90963.17970237554</v>
       </c>
       <c r="J5" t="n">
-        <v>90227.61935254955</v>
+        <v>90227.61935254953</v>
       </c>
       <c r="K5" t="n">
-        <v>90227.61935254952</v>
+        <v>90227.61935254953</v>
       </c>
       <c r="L5" t="n">
-        <v>95397.49604790402</v>
+        <v>95397.49604790399</v>
       </c>
       <c r="M5" t="n">
-        <v>95397.49604790399</v>
+        <v>95397.496047904</v>
       </c>
       <c r="N5" t="n">
         <v>95397.49604790399</v>
@@ -26522,46 +26522,46 @@
         <v>-140807.014172145</v>
       </c>
       <c r="C6" t="n">
-        <v>-72058.47134332922</v>
+        <v>-72058.47134332891</v>
       </c>
       <c r="D6" t="n">
-        <v>-267925.7133921221</v>
+        <v>-267925.7133921228</v>
       </c>
       <c r="E6" t="n">
-        <v>-309046.0070137091</v>
+        <v>-309133.9733244677</v>
       </c>
       <c r="F6" t="n">
-        <v>192817.8312632557</v>
+        <v>192729.864952498</v>
       </c>
       <c r="G6" t="n">
-        <v>192817.831263256</v>
+        <v>192729.8649524976</v>
       </c>
       <c r="H6" t="n">
-        <v>192817.831263256</v>
+        <v>192729.8649524975</v>
       </c>
       <c r="I6" t="n">
-        <v>184206.1767647497</v>
+        <v>184130.7261355302</v>
       </c>
       <c r="J6" t="n">
-        <v>120563.1363921166</v>
+        <v>120475.1700813585</v>
       </c>
       <c r="K6" t="n">
-        <v>175788.6432641418</v>
+        <v>175700.6769533845</v>
       </c>
       <c r="L6" t="n">
-        <v>48273.80674234318</v>
+        <v>48273.80674234297</v>
       </c>
       <c r="M6" t="n">
-        <v>54598.814285256</v>
+        <v>54598.81428525598</v>
       </c>
       <c r="N6" t="n">
-        <v>174487.8480898313</v>
+        <v>174487.8480898312</v>
       </c>
       <c r="O6" t="n">
-        <v>181487.4350940874</v>
+        <v>181487.4350940869</v>
       </c>
       <c r="P6" t="n">
-        <v>181487.4350940874</v>
+        <v>181487.4350940872</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>8.749483755320126</v>
+        <v>8.749483755320256</v>
       </c>
       <c r="F2" t="n">
-        <v>8.749483755320126</v>
+        <v>8.749483755320171</v>
       </c>
       <c r="G2" t="n">
-        <v>8.749483755320123</v>
+        <v>8.749483755320171</v>
       </c>
       <c r="H2" t="n">
-        <v>8.749483755320123</v>
+        <v>8.74948375532008</v>
       </c>
       <c r="I2" t="n">
-        <v>17.49896751064019</v>
+        <v>17.49896751064028</v>
       </c>
       <c r="J2" t="n">
-        <v>8.749483755320064</v>
+        <v>8.749483755320027</v>
       </c>
       <c r="K2" t="n">
-        <v>8.749483755320064</v>
+        <v>8.749483755320117</v>
       </c>
       <c r="L2" t="n">
         <v>70.24512061735548</v>
       </c>
       <c r="M2" t="n">
-        <v>70.24512061735545</v>
+        <v>70.2451206173555</v>
       </c>
       <c r="N2" t="n">
         <v>70.24512061735545</v>
       </c>
       <c r="O2" t="n">
+        <v>70.24512061735547</v>
+      </c>
+      <c r="P2" t="n">
         <v>70.24512061735548</v>
-      </c>
-      <c r="P2" t="n">
-        <v>70.24512061735547</v>
       </c>
     </row>
     <row r="3">
@@ -26738,7 +26738,7 @@
         <v>35.02126071912529</v>
       </c>
       <c r="C3" t="n">
-        <v>91.97944748759144</v>
+        <v>91.97944748759089</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
@@ -26747,16 +26747,16 @@
         <v>804.472951409499</v>
       </c>
       <c r="F3" t="n">
-        <v>804.4729514094994</v>
+        <v>804.4729514094989</v>
       </c>
       <c r="G3" t="n">
         <v>804.4729514094994</v>
       </c>
       <c r="H3" t="n">
-        <v>804.4729514094994</v>
+        <v>804.4729514094993</v>
       </c>
       <c r="I3" t="n">
-        <v>804.4729514094994</v>
+        <v>804.4729514094993</v>
       </c>
       <c r="J3" t="n">
         <v>804.4729514094994</v>
@@ -26771,7 +26771,7 @@
         <v>804.4729514094994</v>
       </c>
       <c r="N3" t="n">
-        <v>804.4729514094995</v>
+        <v>804.4729514094994</v>
       </c>
       <c r="O3" t="n">
         <v>804.4729514094994</v>
@@ -26790,7 +26790,7 @@
         <v>276.1565137023554</v>
       </c>
       <c r="C4" t="n">
-        <v>342.3232010881752</v>
+        <v>342.3232010881746</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
@@ -26817,7 +26817,7 @@
         <v>1183.462971414415</v>
       </c>
       <c r="L4" t="n">
-        <v>1183.462971414416</v>
+        <v>1183.462971414415</v>
       </c>
       <c r="M4" t="n">
         <v>1183.462971414415</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>8.749483755320126</v>
+        <v>8.749483755320256</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26926,7 +26926,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>8.749483755320069</v>
+        <v>8.749483755320204</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26935,13 +26935,13 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>61.49563686203542</v>
+        <v>61.49563686203537</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>8.749483755320069</v>
+        <v>8.749483755320162</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26960,19 +26960,19 @@
         <v>35.02126071912529</v>
       </c>
       <c r="C3" t="n">
-        <v>56.95818676846615</v>
+        <v>56.95818676846559</v>
       </c>
       <c r="D3" t="n">
-        <v>285.7642167294952</v>
+        <v>285.7642167294957</v>
       </c>
       <c r="E3" t="n">
         <v>426.7292871924124</v>
       </c>
       <c r="F3" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27012,13 +27012,13 @@
         <v>276.1565137023554</v>
       </c>
       <c r="C4" t="n">
-        <v>66.16668738581978</v>
+        <v>66.16668738581916</v>
       </c>
       <c r="D4" t="n">
-        <v>331.9640716663804</v>
+        <v>331.964071666381</v>
       </c>
       <c r="E4" t="n">
-        <v>509.1756986598594</v>
+        <v>509.1756986598592</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27036,13 +27036,13 @@
         <v>276.1565137023556</v>
       </c>
       <c r="K4" t="n">
-        <v>66.16668738581956</v>
+        <v>66.16668738581893</v>
       </c>
       <c r="L4" t="n">
-        <v>331.9640716663808</v>
+        <v>331.9640716663812</v>
       </c>
       <c r="M4" t="n">
-        <v>509.175698659859</v>
+        <v>509.1756986598592</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>8.749483755320126</v>
+        <v>8.749483755320256</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27163,7 +27163,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>8.749483755320069</v>
+        <v>8.749483755320204</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27258,13 +27258,13 @@
         <v>276.1565137023554</v>
       </c>
       <c r="K4" t="n">
-        <v>66.16668738581978</v>
+        <v>66.16668738581916</v>
       </c>
       <c r="L4" t="n">
-        <v>331.9640716663804</v>
+        <v>331.964071666381</v>
       </c>
       <c r="M4" t="n">
-        <v>509.1756986598594</v>
+        <v>509.1756986598592</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,22 +27379,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>89.11637806865212</v>
       </c>
       <c r="D2" t="n">
-        <v>285.6172512146903</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>361.2948103291014</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>139.0054348249641</v>
       </c>
       <c r="H2" t="n">
-        <v>61.87643319194542</v>
+        <v>338.0329468943008</v>
       </c>
       <c r="I2" t="n">
         <v>205.0481221176458</v>
@@ -27427,13 +27427,13 @@
         <v>141.0252816852793</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>205.8118405263978</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3343897888113</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27445,7 +27445,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>110.0814249536982</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27455,19 +27455,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27509,22 +27509,22 @@
         <v>170.2839726213331</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>199.8611009721718</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9364262421938</v>
+        <v>47.84770001443465</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>242.5500043660178</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27549,7 +27549,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.9278262653587</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>161.6656840978772</v>
@@ -27558,10 +27558,10 @@
         <v>153.551289182031</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>88.89425643449839</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>7.728882963192878</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27597,7 +27597,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>215.2183114689236</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>40.41064057530537</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27625,16 +27625,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>94.09864845968673</v>
       </c>
       <c r="G5" t="n">
-        <v>72.60976980389415</v>
+        <v>72.60976980389478</v>
       </c>
       <c r="H5" t="n">
-        <v>335.6879296872956</v>
+        <v>335.6879296872957</v>
       </c>
       <c r="I5" t="n">
-        <v>196.2204618346657</v>
+        <v>196.2204618346658</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,22 +27661,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>126.6417653049993</v>
+        <v>126.6417653049994</v>
       </c>
       <c r="S5" t="n">
-        <v>127.4289790580441</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3160715779912</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>6.917767629237801</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27695,25 +27695,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>17.62273092156234</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.1456745780486</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>110.3247013745373</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>82.5849473535133</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,28 +27740,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>65.31563267524166</v>
+        <v>87.87423925986637</v>
       </c>
       <c r="S6" t="n">
-        <v>168.0083318575175</v>
+        <v>168.0083318575176</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>199.3672842397169</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9283661214247</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27774,10 +27774,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>148.2686645476742</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27792,10 +27792,10 @@
         <v>160.7524856280484</v>
       </c>
       <c r="I7" t="n">
-        <v>150.4624747258</v>
+        <v>150.4624747258001</v>
       </c>
       <c r="J7" t="n">
-        <v>81.63255449190231</v>
+        <v>81.63255449190238</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,7 +27816,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>72.27314668106808</v>
+        <v>72.27314668106816</v>
       </c>
       <c r="R7" t="n">
         <v>169.8355168317002</v>
@@ -27834,10 +27834,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>190.4506594148135</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>66.90748812322931</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27868,7 +27868,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>115.8312921104486</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27898,10 +27898,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -27910,10 +27910,10 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -28008,28 +28008,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>107.2064018690945</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>136.7057146380968</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
         <v>45.199959188537</v>
@@ -28059,7 +28059,7 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>8.749483755320126</v>
+        <v>8.749483755320256</v>
       </c>
       <c r="C11" t="n">
-        <v>8.749483755320126</v>
+        <v>8.749483755320256</v>
       </c>
       <c r="D11" t="n">
-        <v>8.749483755320126</v>
+        <v>8.749483755320256</v>
       </c>
       <c r="E11" t="n">
-        <v>8.749483755320126</v>
+        <v>8.749483755320256</v>
       </c>
       <c r="F11" t="n">
-        <v>8.749483755320126</v>
+        <v>8.749483755320256</v>
       </c>
       <c r="G11" t="n">
-        <v>8.749483755320126</v>
+        <v>8.749483755320256</v>
       </c>
       <c r="H11" t="n">
-        <v>8.749483755320126</v>
+        <v>8.749483755320256</v>
       </c>
       <c r="I11" t="n">
-        <v>8.749483755320126</v>
+        <v>8.749483755320256</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>8.749483755320126</v>
+        <v>8.749483755320256</v>
       </c>
       <c r="T11" t="n">
-        <v>8.749483755320126</v>
+        <v>8.749483755320256</v>
       </c>
       <c r="U11" t="n">
-        <v>8.749483755320126</v>
+        <v>8.749483755320256</v>
       </c>
       <c r="V11" t="n">
-        <v>8.749483755320126</v>
+        <v>8.749483755320256</v>
       </c>
       <c r="W11" t="n">
-        <v>8.749483755320126</v>
+        <v>8.749483755320256</v>
       </c>
       <c r="X11" t="n">
-        <v>8.749483755320126</v>
+        <v>8.749483755320256</v>
       </c>
       <c r="Y11" t="n">
-        <v>8.749483755320126</v>
+        <v>8.749483755320256</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>8.749483755320126</v>
+        <v>8.749483755320256</v>
       </c>
       <c r="C13" t="n">
-        <v>8.749483755320126</v>
+        <v>8.749483755320256</v>
       </c>
       <c r="D13" t="n">
-        <v>8.749483755320126</v>
+        <v>8.749483755320256</v>
       </c>
       <c r="E13" t="n">
-        <v>8.749483755320126</v>
+        <v>8.749483755320256</v>
       </c>
       <c r="F13" t="n">
-        <v>8.749483755320126</v>
+        <v>8.749483755320256</v>
       </c>
       <c r="G13" t="n">
-        <v>8.749483755320126</v>
+        <v>8.749483755320256</v>
       </c>
       <c r="H13" t="n">
-        <v>8.749483755320126</v>
+        <v>8.749483755320256</v>
       </c>
       <c r="I13" t="n">
-        <v>8.749483755320126</v>
+        <v>8.749483755320256</v>
       </c>
       <c r="J13" t="n">
-        <v>8.749483755320126</v>
+        <v>8.749483755320256</v>
       </c>
       <c r="K13" t="n">
-        <v>8.749483755320126</v>
+        <v>8.749483755320256</v>
       </c>
       <c r="L13" t="n">
-        <v>8.749483755320126</v>
+        <v>8.749483755320256</v>
       </c>
       <c r="M13" t="n">
-        <v>8.749483755320126</v>
+        <v>8.749483755320256</v>
       </c>
       <c r="N13" t="n">
-        <v>8.749483755320126</v>
+        <v>8.749483755320256</v>
       </c>
       <c r="O13" t="n">
-        <v>8.749483755320126</v>
+        <v>8.749483755320256</v>
       </c>
       <c r="P13" t="n">
-        <v>8.749483755320126</v>
+        <v>8.749483755320256</v>
       </c>
       <c r="Q13" t="n">
-        <v>8.749483755320126</v>
+        <v>8.749483755320256</v>
       </c>
       <c r="R13" t="n">
-        <v>8.749483755320126</v>
+        <v>8.749483755320256</v>
       </c>
       <c r="S13" t="n">
-        <v>8.749483755320126</v>
+        <v>8.749483755320256</v>
       </c>
       <c r="T13" t="n">
-        <v>8.749483755320126</v>
+        <v>8.749483755320256</v>
       </c>
       <c r="U13" t="n">
-        <v>8.749483755320126</v>
+        <v>8.749483755320256</v>
       </c>
       <c r="V13" t="n">
-        <v>8.749483755320126</v>
+        <v>8.749483755320256</v>
       </c>
       <c r="W13" t="n">
-        <v>8.749483755320126</v>
+        <v>8.749483755320256</v>
       </c>
       <c r="X13" t="n">
-        <v>8.749483755320126</v>
+        <v>8.749483755320256</v>
       </c>
       <c r="Y13" t="n">
-        <v>8.749483755320126</v>
+        <v>8.749483755320256</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>8.749483755320126</v>
+        <v>8.749483755320171</v>
       </c>
       <c r="C14" t="n">
-        <v>8.749483755320126</v>
+        <v>8.749483755320171</v>
       </c>
       <c r="D14" t="n">
-        <v>8.749483755320126</v>
+        <v>8.749483755320171</v>
       </c>
       <c r="E14" t="n">
-        <v>8.749483755320126</v>
+        <v>8.749483755320171</v>
       </c>
       <c r="F14" t="n">
-        <v>8.749483755320126</v>
+        <v>8.749483755320171</v>
       </c>
       <c r="G14" t="n">
-        <v>8.749483755320126</v>
+        <v>8.749483755320171</v>
       </c>
       <c r="H14" t="n">
-        <v>8.749483755320126</v>
+        <v>8.749483755320171</v>
       </c>
       <c r="I14" t="n">
-        <v>8.749483755320126</v>
+        <v>8.749483755320171</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>8.749483755318437</v>
+        <v>8.749483755320171</v>
       </c>
       <c r="T14" t="n">
-        <v>8.749483755320126</v>
+        <v>8.749483755320171</v>
       </c>
       <c r="U14" t="n">
-        <v>8.749483755320126</v>
+        <v>8.749483755320171</v>
       </c>
       <c r="V14" t="n">
-        <v>8.749483755320126</v>
+        <v>8.749483755320171</v>
       </c>
       <c r="W14" t="n">
-        <v>8.749483755320126</v>
+        <v>8.749483755320171</v>
       </c>
       <c r="X14" t="n">
-        <v>8.749483755320126</v>
+        <v>8.749483755320171</v>
       </c>
       <c r="Y14" t="n">
-        <v>8.749483755320126</v>
+        <v>8.749483755320171</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>8.749483755320126</v>
+        <v>8.749483755320171</v>
       </c>
       <c r="C16" t="n">
-        <v>8.749483755320126</v>
+        <v>8.749483755320171</v>
       </c>
       <c r="D16" t="n">
-        <v>8.749483755320126</v>
+        <v>8.749483755320171</v>
       </c>
       <c r="E16" t="n">
-        <v>8.749483755320126</v>
+        <v>8.749483755320171</v>
       </c>
       <c r="F16" t="n">
-        <v>8.749483755320126</v>
+        <v>8.749483755320171</v>
       </c>
       <c r="G16" t="n">
-        <v>8.749483755320126</v>
+        <v>8.749483755320171</v>
       </c>
       <c r="H16" t="n">
-        <v>8.749483755320126</v>
+        <v>8.749483755320171</v>
       </c>
       <c r="I16" t="n">
-        <v>8.749483755320126</v>
+        <v>8.749483755320171</v>
       </c>
       <c r="J16" t="n">
-        <v>8.749483755320126</v>
+        <v>8.749483755320171</v>
       </c>
       <c r="K16" t="n">
-        <v>8.749483755320126</v>
+        <v>8.749483755320171</v>
       </c>
       <c r="L16" t="n">
-        <v>8.749483755320126</v>
+        <v>8.749483755320171</v>
       </c>
       <c r="M16" t="n">
-        <v>8.749483755320126</v>
+        <v>8.749483755320171</v>
       </c>
       <c r="N16" t="n">
-        <v>8.749483755320126</v>
+        <v>8.749483755320171</v>
       </c>
       <c r="O16" t="n">
-        <v>8.749483755320126</v>
+        <v>8.749483755320171</v>
       </c>
       <c r="P16" t="n">
-        <v>8.749483755320126</v>
+        <v>8.749483755320171</v>
       </c>
       <c r="Q16" t="n">
-        <v>8.749483755320126</v>
+        <v>8.749483755320171</v>
       </c>
       <c r="R16" t="n">
-        <v>8.749483755320126</v>
+        <v>8.749483755320171</v>
       </c>
       <c r="S16" t="n">
-        <v>8.749483755320126</v>
+        <v>8.749483755320171</v>
       </c>
       <c r="T16" t="n">
-        <v>8.749483755320126</v>
+        <v>8.749483755320171</v>
       </c>
       <c r="U16" t="n">
-        <v>8.749483755320126</v>
+        <v>8.749483755320171</v>
       </c>
       <c r="V16" t="n">
-        <v>8.749483755320126</v>
+        <v>8.749483755320171</v>
       </c>
       <c r="W16" t="n">
-        <v>8.749483755320126</v>
+        <v>8.749483755320171</v>
       </c>
       <c r="X16" t="n">
-        <v>8.749483755320126</v>
+        <v>8.749483755320171</v>
       </c>
       <c r="Y16" t="n">
-        <v>8.749483755320126</v>
+        <v>8.749483755320171</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>8.749483755320123</v>
+        <v>8.749483755320171</v>
       </c>
       <c r="C17" t="n">
-        <v>8.749483755320123</v>
+        <v>8.749483755320171</v>
       </c>
       <c r="D17" t="n">
-        <v>8.749483755320123</v>
+        <v>8.749483755320171</v>
       </c>
       <c r="E17" t="n">
-        <v>8.749483755320123</v>
+        <v>8.749483755320171</v>
       </c>
       <c r="F17" t="n">
-        <v>8.749483755320123</v>
+        <v>8.749483755320171</v>
       </c>
       <c r="G17" t="n">
-        <v>8.749483755320123</v>
+        <v>8.749483755320171</v>
       </c>
       <c r="H17" t="n">
-        <v>8.749483755320123</v>
+        <v>8.749483755320171</v>
       </c>
       <c r="I17" t="n">
-        <v>8.749483755320123</v>
+        <v>8.749483755320171</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>8.749483755320123</v>
+        <v>8.749483755320171</v>
       </c>
       <c r="T17" t="n">
-        <v>8.749483755320123</v>
+        <v>8.749483755320171</v>
       </c>
       <c r="U17" t="n">
-        <v>8.749483755320123</v>
+        <v>8.749483755320171</v>
       </c>
       <c r="V17" t="n">
-        <v>8.749483755320123</v>
+        <v>8.74948375531784</v>
       </c>
       <c r="W17" t="n">
-        <v>8.749483755320123</v>
+        <v>8.749483755320171</v>
       </c>
       <c r="X17" t="n">
-        <v>8.749483755320123</v>
+        <v>8.749483755320171</v>
       </c>
       <c r="Y17" t="n">
-        <v>8.749483755320123</v>
+        <v>8.749483755320171</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>8.749483755320123</v>
+        <v>8.749483755320171</v>
       </c>
       <c r="C19" t="n">
-        <v>8.749483755320123</v>
+        <v>8.749483755320171</v>
       </c>
       <c r="D19" t="n">
-        <v>8.749483755320123</v>
+        <v>8.749483755320171</v>
       </c>
       <c r="E19" t="n">
-        <v>8.749483755320123</v>
+        <v>8.749483755320171</v>
       </c>
       <c r="F19" t="n">
-        <v>8.749483755320123</v>
+        <v>8.749483755320171</v>
       </c>
       <c r="G19" t="n">
-        <v>8.749483755320123</v>
+        <v>8.749483755320171</v>
       </c>
       <c r="H19" t="n">
-        <v>8.749483755320123</v>
+        <v>8.749483755320171</v>
       </c>
       <c r="I19" t="n">
-        <v>8.749483755320123</v>
+        <v>8.749483755320171</v>
       </c>
       <c r="J19" t="n">
-        <v>8.749483755320123</v>
+        <v>8.749483755320171</v>
       </c>
       <c r="K19" t="n">
-        <v>8.749483755320123</v>
+        <v>8.749483755320171</v>
       </c>
       <c r="L19" t="n">
-        <v>8.749483755320123</v>
+        <v>8.749483755320171</v>
       </c>
       <c r="M19" t="n">
-        <v>8.749483755320123</v>
+        <v>8.749483755320171</v>
       </c>
       <c r="N19" t="n">
-        <v>8.749483755320123</v>
+        <v>8.749483755320171</v>
       </c>
       <c r="O19" t="n">
-        <v>8.749483755320123</v>
+        <v>8.749483755320171</v>
       </c>
       <c r="P19" t="n">
-        <v>8.749483755320123</v>
+        <v>8.749483755320171</v>
       </c>
       <c r="Q19" t="n">
-        <v>8.749483755320123</v>
+        <v>8.749483755320171</v>
       </c>
       <c r="R19" t="n">
-        <v>8.749483755320123</v>
+        <v>8.749483755320171</v>
       </c>
       <c r="S19" t="n">
-        <v>8.749483755320123</v>
+        <v>8.749483755320171</v>
       </c>
       <c r="T19" t="n">
-        <v>8.749483755320123</v>
+        <v>8.749483755320171</v>
       </c>
       <c r="U19" t="n">
-        <v>8.749483755320123</v>
+        <v>8.749483755320171</v>
       </c>
       <c r="V19" t="n">
-        <v>8.749483755320123</v>
+        <v>8.749483755320171</v>
       </c>
       <c r="W19" t="n">
-        <v>8.749483755320123</v>
+        <v>8.749483755320171</v>
       </c>
       <c r="X19" t="n">
-        <v>8.749483755320123</v>
+        <v>8.749483755320171</v>
       </c>
       <c r="Y19" t="n">
-        <v>8.749483755320123</v>
+        <v>8.749483755320171</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>8.749483755320123</v>
+        <v>8.74948375532008</v>
       </c>
       <c r="C20" t="n">
-        <v>8.749483755320123</v>
+        <v>8.74948375532008</v>
       </c>
       <c r="D20" t="n">
-        <v>8.749483755320123</v>
+        <v>8.74948375532008</v>
       </c>
       <c r="E20" t="n">
-        <v>8.749483755320123</v>
+        <v>8.74948375532008</v>
       </c>
       <c r="F20" t="n">
-        <v>8.749483755320123</v>
+        <v>8.74948375532008</v>
       </c>
       <c r="G20" t="n">
-        <v>8.749483755320123</v>
+        <v>8.74948375532008</v>
       </c>
       <c r="H20" t="n">
-        <v>8.749483755320123</v>
+        <v>8.74948375532008</v>
       </c>
       <c r="I20" t="n">
-        <v>8.749483755320123</v>
+        <v>8.74948375532008</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>8.749483755320123</v>
+        <v>8.74948375532008</v>
       </c>
       <c r="T20" t="n">
-        <v>8.74948375531855</v>
+        <v>8.74948375532008</v>
       </c>
       <c r="U20" t="n">
-        <v>8.749483755320123</v>
+        <v>8.74948375532008</v>
       </c>
       <c r="V20" t="n">
-        <v>8.749483755320123</v>
+        <v>8.74948375532008</v>
       </c>
       <c r="W20" t="n">
-        <v>8.749483755320123</v>
+        <v>8.74948375532008</v>
       </c>
       <c r="X20" t="n">
-        <v>8.749483755320123</v>
+        <v>8.74948375532008</v>
       </c>
       <c r="Y20" t="n">
-        <v>8.749483755320123</v>
+        <v>8.74948375532008</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>8.749483755320123</v>
+        <v>8.74948375532008</v>
       </c>
       <c r="C22" t="n">
-        <v>8.749483755320123</v>
+        <v>8.74948375532008</v>
       </c>
       <c r="D22" t="n">
-        <v>8.749483755320123</v>
+        <v>8.74948375532008</v>
       </c>
       <c r="E22" t="n">
-        <v>8.749483755320123</v>
+        <v>8.74948375532008</v>
       </c>
       <c r="F22" t="n">
-        <v>8.749483755320123</v>
+        <v>8.74948375532008</v>
       </c>
       <c r="G22" t="n">
-        <v>8.749483755320123</v>
+        <v>8.74948375532008</v>
       </c>
       <c r="H22" t="n">
-        <v>8.749483755320123</v>
+        <v>8.74948375532008</v>
       </c>
       <c r="I22" t="n">
-        <v>8.749483755320123</v>
+        <v>8.74948375532008</v>
       </c>
       <c r="J22" t="n">
-        <v>8.749483755320123</v>
+        <v>8.74948375532008</v>
       </c>
       <c r="K22" t="n">
-        <v>8.749483755320123</v>
+        <v>8.74948375532008</v>
       </c>
       <c r="L22" t="n">
-        <v>8.749483755320123</v>
+        <v>8.74948375532008</v>
       </c>
       <c r="M22" t="n">
-        <v>8.749483755320123</v>
+        <v>8.74948375532008</v>
       </c>
       <c r="N22" t="n">
-        <v>8.749483755320123</v>
+        <v>8.74948375532008</v>
       </c>
       <c r="O22" t="n">
-        <v>8.749483755320123</v>
+        <v>8.74948375532008</v>
       </c>
       <c r="P22" t="n">
-        <v>8.749483755320123</v>
+        <v>8.74948375532008</v>
       </c>
       <c r="Q22" t="n">
-        <v>8.749483755320123</v>
+        <v>8.74948375532008</v>
       </c>
       <c r="R22" t="n">
-        <v>8.749483755320123</v>
+        <v>8.74948375532008</v>
       </c>
       <c r="S22" t="n">
-        <v>8.749483755320123</v>
+        <v>8.74948375532008</v>
       </c>
       <c r="T22" t="n">
-        <v>8.749483755320123</v>
+        <v>8.74948375532008</v>
       </c>
       <c r="U22" t="n">
-        <v>8.749483755320123</v>
+        <v>8.74948375532008</v>
       </c>
       <c r="V22" t="n">
-        <v>8.749483755320123</v>
+        <v>8.74948375532008</v>
       </c>
       <c r="W22" t="n">
-        <v>8.749483755320123</v>
+        <v>8.74948375532008</v>
       </c>
       <c r="X22" t="n">
-        <v>8.749483755320123</v>
+        <v>8.74948375532008</v>
       </c>
       <c r="Y22" t="n">
-        <v>8.749483755320123</v>
+        <v>8.74948375532008</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>17.49896751064019</v>
+        <v>17.49896751064028</v>
       </c>
       <c r="C23" t="n">
-        <v>17.49896751064019</v>
+        <v>17.49896751064028</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>17.49896751064028</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>8.74948375531892</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>17.49896751064028</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>17.49896751064019</v>
+        <v>8.74948375531828</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>17.49896751064019</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>17.49896751064019</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>17.49896751064019</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>17.49896751064028</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>17.49896751064028</v>
       </c>
       <c r="Y23" t="n">
-        <v>17.49896751064019</v>
+        <v>17.49896751064028</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>17.49896751064019</v>
+        <v>17.49896751064028</v>
       </c>
       <c r="C25" t="n">
-        <v>17.49896751064019</v>
+        <v>17.49896751064028</v>
       </c>
       <c r="D25" t="n">
-        <v>17.49896751064019</v>
+        <v>17.49896751064028</v>
       </c>
       <c r="E25" t="n">
-        <v>17.49896751064019</v>
+        <v>17.49896751064028</v>
       </c>
       <c r="F25" t="n">
-        <v>17.49896751064019</v>
+        <v>17.49896751064028</v>
       </c>
       <c r="G25" t="n">
-        <v>17.49896751064019</v>
+        <v>17.49896751064028</v>
       </c>
       <c r="H25" t="n">
-        <v>17.49896751064019</v>
+        <v>17.49896751064028</v>
       </c>
       <c r="I25" t="n">
-        <v>17.49896751064019</v>
+        <v>17.49896751064028</v>
       </c>
       <c r="J25" t="n">
-        <v>17.49896751064019</v>
+        <v>17.49896751064028</v>
       </c>
       <c r="K25" t="n">
-        <v>17.49896751064019</v>
+        <v>17.49896751064028</v>
       </c>
       <c r="L25" t="n">
-        <v>17.49896751064019</v>
+        <v>17.49896751064028</v>
       </c>
       <c r="M25" t="n">
-        <v>17.49896751064019</v>
+        <v>17.49896751064028</v>
       </c>
       <c r="N25" t="n">
-        <v>17.49896751064019</v>
+        <v>17.49896751064028</v>
       </c>
       <c r="O25" t="n">
-        <v>17.49896751064019</v>
+        <v>17.49896751064028</v>
       </c>
       <c r="P25" t="n">
-        <v>17.49896751064019</v>
+        <v>17.49896751064028</v>
       </c>
       <c r="Q25" t="n">
-        <v>17.49896751064019</v>
+        <v>17.49896751064028</v>
       </c>
       <c r="R25" t="n">
-        <v>17.49896751064019</v>
+        <v>17.49896751064028</v>
       </c>
       <c r="S25" t="n">
-        <v>17.49896751064019</v>
+        <v>17.49896751064028</v>
       </c>
       <c r="T25" t="n">
-        <v>17.49896751064019</v>
+        <v>17.49896751064028</v>
       </c>
       <c r="U25" t="n">
-        <v>17.49896751064019</v>
+        <v>17.49896751064028</v>
       </c>
       <c r="V25" t="n">
-        <v>17.49896751064019</v>
+        <v>17.49896751064028</v>
       </c>
       <c r="W25" t="n">
-        <v>17.49896751064019</v>
+        <v>17.49896751064028</v>
       </c>
       <c r="X25" t="n">
-        <v>17.49896751064019</v>
+        <v>17.49896751064028</v>
       </c>
       <c r="Y25" t="n">
-        <v>17.49896751064019</v>
+        <v>17.49896751064028</v>
       </c>
     </row>
     <row r="26">
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>8.749483755320064</v>
+        <v>8.749483755320027</v>
       </c>
       <c r="C26" t="n">
-        <v>8.749483755320064</v>
+        <v>8.749483755320027</v>
       </c>
       <c r="D26" t="n">
-        <v>8.749483755320064</v>
+        <v>8.749483755320027</v>
       </c>
       <c r="E26" t="n">
-        <v>8.749483755320064</v>
+        <v>8.749483755320027</v>
       </c>
       <c r="F26" t="n">
-        <v>8.749483755320064</v>
+        <v>8.749483755320027</v>
       </c>
       <c r="G26" t="n">
-        <v>8.749483755320064</v>
+        <v>8.749483755320027</v>
       </c>
       <c r="H26" t="n">
-        <v>8.749483755320064</v>
+        <v>8.749483755320027</v>
       </c>
       <c r="I26" t="n">
-        <v>8.749483755320064</v>
+        <v>8.749483755320027</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>8.749483755320064</v>
+        <v>8.749483755320027</v>
       </c>
       <c r="T26" t="n">
-        <v>8.749483755320064</v>
+        <v>8.749483755320027</v>
       </c>
       <c r="U26" t="n">
-        <v>8.749483755320064</v>
+        <v>8.749483755320027</v>
       </c>
       <c r="V26" t="n">
-        <v>8.749483755320064</v>
+        <v>8.749483755320027</v>
       </c>
       <c r="W26" t="n">
-        <v>8.749483755320064</v>
+        <v>8.749483755320027</v>
       </c>
       <c r="X26" t="n">
-        <v>8.749483755320064</v>
+        <v>8.749483755320027</v>
       </c>
       <c r="Y26" t="n">
-        <v>8.749483755320064</v>
+        <v>8.749483755320027</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>8.749483755320064</v>
+        <v>8.749483755320027</v>
       </c>
       <c r="C28" t="n">
-        <v>8.749483755320064</v>
+        <v>8.749483755320027</v>
       </c>
       <c r="D28" t="n">
-        <v>8.749483755320064</v>
+        <v>8.749483755320027</v>
       </c>
       <c r="E28" t="n">
-        <v>8.749483755320064</v>
+        <v>8.749483755320027</v>
       </c>
       <c r="F28" t="n">
-        <v>8.749483755320064</v>
+        <v>8.749483755320027</v>
       </c>
       <c r="G28" t="n">
-        <v>8.749483755320064</v>
+        <v>8.749483755320027</v>
       </c>
       <c r="H28" t="n">
-        <v>8.749483755320064</v>
+        <v>8.749483755320027</v>
       </c>
       <c r="I28" t="n">
-        <v>8.749483755320064</v>
+        <v>8.749483755320027</v>
       </c>
       <c r="J28" t="n">
-        <v>8.749483755320064</v>
+        <v>8.749483755320027</v>
       </c>
       <c r="K28" t="n">
-        <v>8.749483755320064</v>
+        <v>8.749483755320027</v>
       </c>
       <c r="L28" t="n">
-        <v>8.749483755320064</v>
+        <v>8.749483755320027</v>
       </c>
       <c r="M28" t="n">
-        <v>8.749483755320064</v>
+        <v>8.749483755320027</v>
       </c>
       <c r="N28" t="n">
-        <v>8.749483755320064</v>
+        <v>8.749483755320027</v>
       </c>
       <c r="O28" t="n">
-        <v>8.749483755320064</v>
+        <v>8.749483755320027</v>
       </c>
       <c r="P28" t="n">
-        <v>8.749483755320064</v>
+        <v>8.749483755320027</v>
       </c>
       <c r="Q28" t="n">
-        <v>8.749483755320064</v>
+        <v>8.749483755320027</v>
       </c>
       <c r="R28" t="n">
-        <v>8.749483755320064</v>
+        <v>8.749483755320027</v>
       </c>
       <c r="S28" t="n">
-        <v>8.749483755320064</v>
+        <v>8.749483755320027</v>
       </c>
       <c r="T28" t="n">
-        <v>8.749483755320064</v>
+        <v>8.749483755320027</v>
       </c>
       <c r="U28" t="n">
-        <v>8.749483755320064</v>
+        <v>8.749483755320027</v>
       </c>
       <c r="V28" t="n">
-        <v>8.749483755320064</v>
+        <v>8.749483755320027</v>
       </c>
       <c r="W28" t="n">
-        <v>8.749483755320064</v>
+        <v>8.749483755320027</v>
       </c>
       <c r="X28" t="n">
-        <v>8.749483755320064</v>
+        <v>8.749483755320027</v>
       </c>
       <c r="Y28" t="n">
-        <v>8.749483755320064</v>
+        <v>8.749483755320027</v>
       </c>
     </row>
     <row r="29">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>8.749483755320064</v>
+        <v>8.749483755320117</v>
       </c>
       <c r="C29" t="n">
-        <v>8.749483755320064</v>
+        <v>8.749483755320117</v>
       </c>
       <c r="D29" t="n">
-        <v>8.749483755320064</v>
+        <v>8.749483755320117</v>
       </c>
       <c r="E29" t="n">
-        <v>8.749483755320064</v>
+        <v>8.749483755320117</v>
       </c>
       <c r="F29" t="n">
-        <v>8.749483755320064</v>
+        <v>8.749483755320117</v>
       </c>
       <c r="G29" t="n">
-        <v>8.749483755320064</v>
+        <v>8.749483755320117</v>
       </c>
       <c r="H29" t="n">
-        <v>8.749483755320064</v>
+        <v>8.749483755320117</v>
       </c>
       <c r="I29" t="n">
-        <v>8.749483755318863</v>
+        <v>8.749483755320117</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>8.749483755320064</v>
+        <v>8.749483755320117</v>
       </c>
       <c r="T29" t="n">
-        <v>8.749483755320064</v>
+        <v>8.749483755320117</v>
       </c>
       <c r="U29" t="n">
-        <v>8.749483755320064</v>
+        <v>8.749483755320117</v>
       </c>
       <c r="V29" t="n">
-        <v>8.749483755320064</v>
+        <v>8.749483755320117</v>
       </c>
       <c r="W29" t="n">
-        <v>8.749483755320064</v>
+        <v>8.749483755320117</v>
       </c>
       <c r="X29" t="n">
-        <v>8.749483755320064</v>
+        <v>8.749483755318465</v>
       </c>
       <c r="Y29" t="n">
-        <v>8.749483755320064</v>
+        <v>8.749483755320117</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>8.749483755320064</v>
+        <v>8.749483755320117</v>
       </c>
       <c r="C31" t="n">
-        <v>8.749483755320064</v>
+        <v>8.749483755320117</v>
       </c>
       <c r="D31" t="n">
-        <v>8.749483755320064</v>
+        <v>8.749483755320117</v>
       </c>
       <c r="E31" t="n">
-        <v>8.749483755320064</v>
+        <v>8.749483755320117</v>
       </c>
       <c r="F31" t="n">
-        <v>8.749483755320064</v>
+        <v>8.749483755320117</v>
       </c>
       <c r="G31" t="n">
-        <v>8.749483755320064</v>
+        <v>8.749483755320117</v>
       </c>
       <c r="H31" t="n">
-        <v>8.749483755320064</v>
+        <v>8.749483755320117</v>
       </c>
       <c r="I31" t="n">
-        <v>8.749483755320064</v>
+        <v>8.749483755320117</v>
       </c>
       <c r="J31" t="n">
-        <v>8.749483755320064</v>
+        <v>8.749483755320117</v>
       </c>
       <c r="K31" t="n">
-        <v>8.749483755320064</v>
+        <v>8.749483755320117</v>
       </c>
       <c r="L31" t="n">
-        <v>8.749483755320064</v>
+        <v>8.749483755320117</v>
       </c>
       <c r="M31" t="n">
-        <v>8.749483755320064</v>
+        <v>8.749483755320117</v>
       </c>
       <c r="N31" t="n">
-        <v>8.749483755320064</v>
+        <v>8.749483755320117</v>
       </c>
       <c r="O31" t="n">
-        <v>8.749483755320064</v>
+        <v>8.749483755320117</v>
       </c>
       <c r="P31" t="n">
-        <v>8.749483755320064</v>
+        <v>8.749483755320117</v>
       </c>
       <c r="Q31" t="n">
-        <v>8.749483755320064</v>
+        <v>8.749483755320117</v>
       </c>
       <c r="R31" t="n">
-        <v>8.749483755320064</v>
+        <v>8.749483755320117</v>
       </c>
       <c r="S31" t="n">
-        <v>8.749483755320064</v>
+        <v>8.749483755320117</v>
       </c>
       <c r="T31" t="n">
-        <v>8.749483755320064</v>
+        <v>8.749483755320117</v>
       </c>
       <c r="U31" t="n">
-        <v>8.749483755320064</v>
+        <v>8.749483755320117</v>
       </c>
       <c r="V31" t="n">
-        <v>8.749483755320064</v>
+        <v>8.749483755320117</v>
       </c>
       <c r="W31" t="n">
-        <v>8.749483755320064</v>
+        <v>8.749483755320117</v>
       </c>
       <c r="X31" t="n">
-        <v>8.749483755320064</v>
+        <v>8.749483755320117</v>
       </c>
       <c r="Y31" t="n">
-        <v>8.749483755320064</v>
+        <v>8.749483755320117</v>
       </c>
     </row>
     <row r="32">
@@ -29797,13 +29797,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>60.99713571244379</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>60.99713571244476</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -29983,10 +29983,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>70.24512061735545</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>70.2451206173555</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -29995,7 +29995,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>60.99713571244484</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -30043,7 +30043,7 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>60.99713571244547</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>70.24512061735545</v>
+        <v>70.2451206173555</v>
       </c>
       <c r="C37" t="n">
-        <v>70.24512061735545</v>
+        <v>70.2451206173555</v>
       </c>
       <c r="D37" t="n">
-        <v>70.24512061735545</v>
+        <v>70.2451206173555</v>
       </c>
       <c r="E37" t="n">
-        <v>70.24512061735545</v>
+        <v>70.2451206173555</v>
       </c>
       <c r="F37" t="n">
-        <v>70.24512061735545</v>
+        <v>70.2451206173555</v>
       </c>
       <c r="G37" t="n">
-        <v>70.24512061735545</v>
+        <v>70.2451206173555</v>
       </c>
       <c r="H37" t="n">
-        <v>70.24512061735545</v>
+        <v>70.2451206173555</v>
       </c>
       <c r="I37" t="n">
-        <v>70.24512061735545</v>
+        <v>70.2451206173555</v>
       </c>
       <c r="J37" t="n">
-        <v>70.24512061735545</v>
+        <v>70.2451206173555</v>
       </c>
       <c r="K37" t="n">
-        <v>70.24512061735545</v>
+        <v>70.2451206173555</v>
       </c>
       <c r="L37" t="n">
-        <v>70.24512061735545</v>
+        <v>70.2451206173555</v>
       </c>
       <c r="M37" t="n">
-        <v>70.24512061735545</v>
+        <v>70.2451206173555</v>
       </c>
       <c r="N37" t="n">
-        <v>70.24512061735545</v>
+        <v>70.2451206173555</v>
       </c>
       <c r="O37" t="n">
-        <v>70.24512061735545</v>
+        <v>70.2451206173555</v>
       </c>
       <c r="P37" t="n">
-        <v>70.24512061735545</v>
+        <v>70.2451206173555</v>
       </c>
       <c r="Q37" t="n">
-        <v>70.24512061735545</v>
+        <v>70.2451206173555</v>
       </c>
       <c r="R37" t="n">
-        <v>70.24512061735545</v>
+        <v>70.2451206173555</v>
       </c>
       <c r="S37" t="n">
-        <v>70.24512061735545</v>
+        <v>70.2451206173555</v>
       </c>
       <c r="T37" t="n">
-        <v>70.24512061735545</v>
+        <v>70.2451206173555</v>
       </c>
       <c r="U37" t="n">
-        <v>70.24512061735545</v>
+        <v>70.2451206173555</v>
       </c>
       <c r="V37" t="n">
-        <v>70.24512061735545</v>
+        <v>70.2451206173555</v>
       </c>
       <c r="W37" t="n">
-        <v>70.24512061735545</v>
+        <v>70.2451206173555</v>
       </c>
       <c r="X37" t="n">
-        <v>70.24512061735545</v>
+        <v>70.2451206173555</v>
       </c>
       <c r="Y37" t="n">
-        <v>70.24512061735545</v>
+        <v>70.2451206173555</v>
       </c>
     </row>
     <row r="38">
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>60.99713571244547</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30238,40 +30238,40 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>60.99713571244568</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0</v>
+      </c>
+      <c r="S38" t="n">
         <v>70.24512061735545</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>0</v>
-      </c>
-      <c r="R38" t="n">
-        <v>0</v>
-      </c>
-      <c r="S38" t="n">
-        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -30457,64 +30457,64 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>70.24512061735548</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>70.24512061735547</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0</v>
+      </c>
+      <c r="U41" t="n">
         <v>60.99713571244564</v>
-      </c>
-      <c r="D41" t="n">
-        <v>0</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>0</v>
-      </c>
-      <c r="R41" t="n">
-        <v>0</v>
-      </c>
-      <c r="S41" t="n">
-        <v>0</v>
-      </c>
-      <c r="T41" t="n">
-        <v>0</v>
-      </c>
-      <c r="U41" t="n">
-        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>70.24512061735548</v>
+        <v>70.24512061735547</v>
       </c>
       <c r="C43" t="n">
-        <v>70.24512061735548</v>
+        <v>70.24512061735547</v>
       </c>
       <c r="D43" t="n">
-        <v>70.24512061735548</v>
+        <v>70.24512061735547</v>
       </c>
       <c r="E43" t="n">
-        <v>70.24512061735548</v>
+        <v>70.24512061735547</v>
       </c>
       <c r="F43" t="n">
-        <v>70.24512061735548</v>
+        <v>70.24512061735547</v>
       </c>
       <c r="G43" t="n">
-        <v>70.24512061735548</v>
+        <v>70.24512061735547</v>
       </c>
       <c r="H43" t="n">
-        <v>70.24512061735548</v>
+        <v>70.24512061735547</v>
       </c>
       <c r="I43" t="n">
-        <v>70.24512061735548</v>
+        <v>70.24512061735547</v>
       </c>
       <c r="J43" t="n">
-        <v>70.24512061735548</v>
+        <v>70.24512061735547</v>
       </c>
       <c r="K43" t="n">
-        <v>70.24512061735548</v>
+        <v>70.24512061735547</v>
       </c>
       <c r="L43" t="n">
-        <v>70.24512061735548</v>
+        <v>70.24512061735547</v>
       </c>
       <c r="M43" t="n">
-        <v>70.24512061735548</v>
+        <v>70.24512061735547</v>
       </c>
       <c r="N43" t="n">
-        <v>70.24512061735548</v>
+        <v>70.24512061735547</v>
       </c>
       <c r="O43" t="n">
-        <v>70.24512061735548</v>
+        <v>70.24512061735547</v>
       </c>
       <c r="P43" t="n">
-        <v>70.24512061735548</v>
+        <v>70.24512061735547</v>
       </c>
       <c r="Q43" t="n">
-        <v>70.24512061735548</v>
+        <v>70.24512061735547</v>
       </c>
       <c r="R43" t="n">
-        <v>70.24512061735548</v>
+        <v>70.24512061735547</v>
       </c>
       <c r="S43" t="n">
-        <v>70.24512061735548</v>
+        <v>70.24512061735547</v>
       </c>
       <c r="T43" t="n">
-        <v>70.24512061735548</v>
+        <v>70.24512061735547</v>
       </c>
       <c r="U43" t="n">
-        <v>70.24512061735548</v>
+        <v>70.24512061735547</v>
       </c>
       <c r="V43" t="n">
-        <v>70.24512061735548</v>
+        <v>70.24512061735547</v>
       </c>
       <c r="W43" t="n">
-        <v>70.24512061735548</v>
+        <v>70.24512061735547</v>
       </c>
       <c r="X43" t="n">
-        <v>70.24512061735548</v>
+        <v>70.24512061735547</v>
       </c>
       <c r="Y43" t="n">
-        <v>70.24512061735548</v>
+        <v>70.24512061735547</v>
       </c>
     </row>
     <row r="44">
@@ -30694,7 +30694,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>60.99713571244547</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -30703,7 +30703,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>70.24512061735547</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -30715,7 +30715,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>70.24512061735548</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,7 +30745,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>60.99713571244558</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>70.24512061735547</v>
+        <v>70.24512061735548</v>
       </c>
       <c r="C46" t="n">
-        <v>70.24512061735547</v>
+        <v>70.24512061735548</v>
       </c>
       <c r="D46" t="n">
-        <v>70.24512061735547</v>
+        <v>70.24512061735548</v>
       </c>
       <c r="E46" t="n">
-        <v>70.24512061735547</v>
+        <v>70.24512061735548</v>
       </c>
       <c r="F46" t="n">
-        <v>70.24512061735547</v>
+        <v>70.24512061735548</v>
       </c>
       <c r="G46" t="n">
-        <v>70.24512061735547</v>
+        <v>70.24512061735548</v>
       </c>
       <c r="H46" t="n">
-        <v>70.24512061735547</v>
+        <v>70.24512061735548</v>
       </c>
       <c r="I46" t="n">
-        <v>70.24512061735547</v>
+        <v>70.24512061735548</v>
       </c>
       <c r="J46" t="n">
-        <v>70.24512061735547</v>
+        <v>70.24512061735548</v>
       </c>
       <c r="K46" t="n">
-        <v>70.24512061735547</v>
+        <v>70.24512061735548</v>
       </c>
       <c r="L46" t="n">
-        <v>70.24512061735547</v>
+        <v>70.24512061735548</v>
       </c>
       <c r="M46" t="n">
-        <v>70.24512061735547</v>
+        <v>70.24512061735548</v>
       </c>
       <c r="N46" t="n">
-        <v>70.24512061735547</v>
+        <v>70.24512061735548</v>
       </c>
       <c r="O46" t="n">
-        <v>70.24512061735547</v>
+        <v>70.24512061735548</v>
       </c>
       <c r="P46" t="n">
-        <v>70.24512061735547</v>
+        <v>70.24512061735548</v>
       </c>
       <c r="Q46" t="n">
-        <v>70.24512061735547</v>
+        <v>70.24512061735548</v>
       </c>
       <c r="R46" t="n">
-        <v>70.24512061735547</v>
+        <v>70.24512061735548</v>
       </c>
       <c r="S46" t="n">
-        <v>70.24512061735547</v>
+        <v>70.24512061735548</v>
       </c>
       <c r="T46" t="n">
-        <v>70.24512061735547</v>
+        <v>70.24512061735548</v>
       </c>
       <c r="U46" t="n">
-        <v>70.24512061735547</v>
+        <v>70.24512061735548</v>
       </c>
       <c r="V46" t="n">
-        <v>70.24512061735547</v>
+        <v>70.24512061735548</v>
       </c>
       <c r="W46" t="n">
-        <v>70.24512061735547</v>
+        <v>70.24512061735548</v>
       </c>
       <c r="X46" t="n">
-        <v>70.24512061735547</v>
+        <v>70.24512061735548</v>
       </c>
       <c r="Y46" t="n">
-        <v>70.24512061735547</v>
+        <v>70.24512061735548</v>
       </c>
     </row>
   </sheetData>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.369766623065694</v>
+        <v>0.3697666230656917</v>
       </c>
       <c r="H5" t="n">
-        <v>3.786872428471539</v>
+        <v>3.786872428471516</v>
       </c>
       <c r="I5" t="n">
-        <v>14.25542773574018</v>
+        <v>14.25542773574009</v>
       </c>
       <c r="J5" t="n">
-        <v>31.38347992442197</v>
+        <v>31.38347992442178</v>
       </c>
       <c r="K5" t="n">
-        <v>47.0357010787928</v>
+        <v>47.03570107879252</v>
       </c>
       <c r="L5" t="n">
-        <v>58.35194636943955</v>
+        <v>58.3519463694392</v>
       </c>
       <c r="M5" t="n">
-        <v>64.92778355238408</v>
+        <v>64.92778355238369</v>
       </c>
       <c r="N5" t="n">
-        <v>65.97838297016949</v>
+        <v>65.97838297016909</v>
       </c>
       <c r="O5" t="n">
-        <v>62.30151611205999</v>
+        <v>62.30151611205962</v>
       </c>
       <c r="P5" t="n">
-        <v>53.17290260512566</v>
+        <v>53.17290260512534</v>
       </c>
       <c r="Q5" t="n">
-        <v>39.93063541658549</v>
+        <v>39.93063541658525</v>
       </c>
       <c r="R5" t="n">
-        <v>23.22735263615042</v>
+        <v>23.22735263615028</v>
       </c>
       <c r="S5" t="n">
-        <v>8.42605692310951</v>
+        <v>8.426056923109458</v>
       </c>
       <c r="T5" t="n">
-        <v>1.618653392470076</v>
+        <v>1.618653392470066</v>
       </c>
       <c r="U5" t="n">
-        <v>0.02958132984525551</v>
+        <v>0.02958132984525533</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1978425851619892</v>
+        <v>0.197842585161988</v>
       </c>
       <c r="H6" t="n">
-        <v>1.910742861959211</v>
+        <v>1.9107428619592</v>
       </c>
       <c r="I6" t="n">
-        <v>6.81168549790182</v>
+        <v>6.811685497901779</v>
       </c>
       <c r="J6" t="n">
-        <v>18.6917856446246</v>
+        <v>18.69178564462449</v>
       </c>
       <c r="K6" t="n">
-        <v>31.94723885047787</v>
+        <v>31.94723885047768</v>
       </c>
       <c r="L6" t="n">
-        <v>42.95700516861523</v>
+        <v>42.95700516861498</v>
       </c>
       <c r="M6" t="n">
-        <v>50.12879888073733</v>
+        <v>50.12879888073703</v>
       </c>
       <c r="N6" t="n">
-        <v>51.45555902421401</v>
+        <v>51.45555902421371</v>
       </c>
       <c r="O6" t="n">
-        <v>47.07178384772993</v>
+        <v>47.07178384772965</v>
       </c>
       <c r="P6" t="n">
-        <v>37.77925645957318</v>
+        <v>37.77925645957295</v>
       </c>
       <c r="Q6" t="n">
-        <v>25.25443244980058</v>
+        <v>25.25443244980043</v>
       </c>
       <c r="R6" t="n">
-        <v>12.28359489277684</v>
+        <v>12.28359489277677</v>
       </c>
       <c r="S6" t="n">
-        <v>3.674839246320278</v>
+        <v>3.674839246320256</v>
       </c>
       <c r="T6" t="n">
-        <v>0.797444455104684</v>
+        <v>0.7974444551046792</v>
       </c>
       <c r="U6" t="n">
-        <v>0.01301595955013087</v>
+        <v>0.01301595955013079</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1658645774366403</v>
+        <v>0.1658645774366393</v>
       </c>
       <c r="H7" t="n">
-        <v>1.474686879391221</v>
+        <v>1.474686879391212</v>
       </c>
       <c r="I7" t="n">
-        <v>4.988000201458239</v>
+        <v>4.988000201458209</v>
       </c>
       <c r="J7" t="n">
-        <v>11.72662562477047</v>
+        <v>11.7266256247704</v>
       </c>
       <c r="K7" t="n">
-        <v>19.27044817854784</v>
+        <v>19.27044817854772</v>
       </c>
       <c r="L7" t="n">
-        <v>24.65953908544378</v>
+        <v>24.65953908544363</v>
       </c>
       <c r="M7" t="n">
-        <v>26.0000264430908</v>
+        <v>26.00002644309064</v>
       </c>
       <c r="N7" t="n">
-        <v>25.38180392719062</v>
+        <v>25.38180392719046</v>
       </c>
       <c r="O7" t="n">
-        <v>23.44420409077167</v>
+        <v>23.44420409077153</v>
       </c>
       <c r="P7" t="n">
-        <v>20.0605667110642</v>
+        <v>20.06056671106407</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.88889657062631</v>
+        <v>13.88889657062622</v>
       </c>
       <c r="R7" t="n">
-        <v>7.457874545469297</v>
+        <v>7.457874545469252</v>
       </c>
       <c r="S7" t="n">
-        <v>2.890567226782176</v>
+        <v>2.890567226782158</v>
       </c>
       <c r="T7" t="n">
-        <v>0.7086941035929174</v>
+        <v>0.7086941035929132</v>
       </c>
       <c r="U7" t="n">
-        <v>0.009047158769271299</v>
+        <v>0.009047158769271245</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.234062116219091</v>
+        <v>3.234062116219089</v>
       </c>
       <c r="H14" t="n">
-        <v>33.12083864772877</v>
+        <v>33.12083864772875</v>
       </c>
       <c r="I14" t="n">
-        <v>124.6811797355366</v>
+        <v>124.6811797355365</v>
       </c>
       <c r="J14" t="n">
-        <v>274.4869795364503</v>
+        <v>274.4869795364501</v>
       </c>
       <c r="K14" t="n">
-        <v>411.3848289160045</v>
+        <v>411.3848289160042</v>
       </c>
       <c r="L14" t="n">
-        <v>510.3592574052446</v>
+        <v>510.3592574052443</v>
       </c>
       <c r="M14" t="n">
-        <v>567.8730095645558</v>
+        <v>567.8730095645554</v>
       </c>
       <c r="N14" t="n">
-        <v>577.0617885522634</v>
+        <v>577.061788552263</v>
       </c>
       <c r="O14" t="n">
-        <v>544.9030833841097</v>
+        <v>544.9030833841094</v>
       </c>
       <c r="P14" t="n">
-        <v>465.0621748899508</v>
+        <v>465.0621748899506</v>
       </c>
       <c r="Q14" t="n">
-        <v>349.2423253528546</v>
+        <v>349.2423253528544</v>
       </c>
       <c r="R14" t="n">
-        <v>203.1516544079476</v>
+        <v>203.1516544079475</v>
       </c>
       <c r="S14" t="n">
-        <v>73.6961904733426</v>
+        <v>73.69619047334255</v>
       </c>
       <c r="T14" t="n">
-        <v>14.15710691374908</v>
+        <v>14.15710691374907</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2587249692975272</v>
+        <v>0.258724969297527</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32069,43 +32069,43 @@
         <v>1.730375782277036</v>
       </c>
       <c r="H15" t="n">
-        <v>16.71178716041243</v>
+        <v>16.71178716041242</v>
       </c>
       <c r="I15" t="n">
-        <v>59.57653460909973</v>
+        <v>59.5765346090997</v>
       </c>
       <c r="J15" t="n">
         <v>163.4825645878493</v>
       </c>
       <c r="K15" t="n">
-        <v>279.4177420004108</v>
+        <v>279.4177420004106</v>
       </c>
       <c r="L15" t="n">
-        <v>375.7116364106346</v>
+        <v>375.7116364106344</v>
       </c>
       <c r="M15" t="n">
-        <v>438.4377585181771</v>
+        <v>438.4377585181768</v>
       </c>
       <c r="N15" t="n">
-        <v>450.0419013738859</v>
+        <v>450.0419013738857</v>
       </c>
       <c r="O15" t="n">
-        <v>411.7004169350105</v>
+        <v>411.7004169350103</v>
       </c>
       <c r="P15" t="n">
-        <v>330.4258807402527</v>
+        <v>330.4258807402525</v>
       </c>
       <c r="Q15" t="n">
-        <v>220.8809507341705</v>
+        <v>220.8809507341704</v>
       </c>
       <c r="R15" t="n">
-        <v>107.4350858504989</v>
+        <v>107.4350858504988</v>
       </c>
       <c r="S15" t="n">
-        <v>32.14097121904932</v>
+        <v>32.1409712190493</v>
       </c>
       <c r="T15" t="n">
-        <v>6.974628701371035</v>
+        <v>6.974628701371031</v>
       </c>
       <c r="U15" t="n">
         <v>0.1138405119919103</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.450688928771228</v>
+        <v>1.450688928771227</v>
       </c>
       <c r="H16" t="n">
         <v>12.89794338489329</v>
       </c>
       <c r="I16" t="n">
-        <v>43.62617251250204</v>
+        <v>43.62617251250202</v>
       </c>
       <c r="J16" t="n">
         <v>102.5637072641258</v>
       </c>
       <c r="K16" t="n">
-        <v>168.5436773608754</v>
+        <v>168.5436773608753</v>
       </c>
       <c r="L16" t="n">
-        <v>215.6778794647697</v>
+        <v>215.6778794647696</v>
       </c>
       <c r="M16" t="n">
-        <v>227.4020836254753</v>
+        <v>227.4020836254752</v>
       </c>
       <c r="N16" t="n">
-        <v>221.99497034551</v>
+        <v>221.9949703455099</v>
       </c>
       <c r="O16" t="n">
-        <v>205.0482860412279</v>
+        <v>205.0482860412278</v>
       </c>
       <c r="P16" t="n">
-        <v>175.4542318942947</v>
+        <v>175.4542318942946</v>
       </c>
       <c r="Q16" t="n">
-        <v>121.4754156628344</v>
+        <v>121.4754156628343</v>
       </c>
       <c r="R16" t="n">
-        <v>65.22824947002266</v>
+        <v>65.22824947002263</v>
       </c>
       <c r="S16" t="n">
-        <v>25.28155160413131</v>
+        <v>25.28155160413129</v>
       </c>
       <c r="T16" t="n">
-        <v>6.198398150204337</v>
+        <v>6.198398150204333</v>
       </c>
       <c r="U16" t="n">
-        <v>0.07912848702388527</v>
+        <v>0.07912848702388522</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.234062116219091</v>
+        <v>3.23406211621909</v>
       </c>
       <c r="H20" t="n">
         <v>33.12083864772877</v>
@@ -32470,19 +32470,19 @@
         <v>124.6811797355366</v>
       </c>
       <c r="J20" t="n">
-        <v>274.4869795364503</v>
+        <v>274.4869795364502</v>
       </c>
       <c r="K20" t="n">
-        <v>411.3848289160045</v>
+        <v>411.3848289160044</v>
       </c>
       <c r="L20" t="n">
-        <v>510.3592574052446</v>
+        <v>510.3592574052445</v>
       </c>
       <c r="M20" t="n">
-        <v>567.8730095645558</v>
+        <v>567.8730095645557</v>
       </c>
       <c r="N20" t="n">
-        <v>577.0617885522634</v>
+        <v>577.0617885522632</v>
       </c>
       <c r="O20" t="n">
         <v>544.9030833841097</v>
@@ -32491,7 +32491,7 @@
         <v>465.0621748899508</v>
       </c>
       <c r="Q20" t="n">
-        <v>349.2423253528546</v>
+        <v>349.2423253528545</v>
       </c>
       <c r="R20" t="n">
         <v>203.1516544079476</v>
@@ -32500,10 +32500,10 @@
         <v>73.6961904733426</v>
       </c>
       <c r="T20" t="n">
-        <v>14.15710691374908</v>
+        <v>14.15710691374907</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2587249692975272</v>
+        <v>0.2587249692975271</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32546,25 +32546,25 @@
         <v>16.71178716041243</v>
       </c>
       <c r="I21" t="n">
-        <v>59.57653460909973</v>
+        <v>59.57653460909972</v>
       </c>
       <c r="J21" t="n">
         <v>163.4825645878493</v>
       </c>
       <c r="K21" t="n">
-        <v>279.4177420004108</v>
+        <v>279.4177420004107</v>
       </c>
       <c r="L21" t="n">
         <v>375.7116364106346</v>
       </c>
       <c r="M21" t="n">
-        <v>438.4377585181771</v>
+        <v>438.437758518177</v>
       </c>
       <c r="N21" t="n">
         <v>450.0419013738859</v>
       </c>
       <c r="O21" t="n">
-        <v>411.7004169350105</v>
+        <v>411.7004169350104</v>
       </c>
       <c r="P21" t="n">
         <v>330.4258807402527</v>
@@ -32573,13 +32573,13 @@
         <v>220.8809507341705</v>
       </c>
       <c r="R21" t="n">
-        <v>107.4350858504989</v>
+        <v>107.4350858504988</v>
       </c>
       <c r="S21" t="n">
-        <v>32.14097121904932</v>
+        <v>32.14097121904931</v>
       </c>
       <c r="T21" t="n">
-        <v>6.974628701371035</v>
+        <v>6.974628701371033</v>
       </c>
       <c r="U21" t="n">
         <v>0.1138405119919103</v>
@@ -32643,7 +32643,7 @@
         <v>221.99497034551</v>
       </c>
       <c r="O22" t="n">
-        <v>205.0482860412279</v>
+        <v>205.0482860412278</v>
       </c>
       <c r="P22" t="n">
         <v>175.4542318942947</v>
@@ -32655,13 +32655,13 @@
         <v>65.22824947002266</v>
       </c>
       <c r="S22" t="n">
-        <v>25.28155160413131</v>
+        <v>25.2815516041313</v>
       </c>
       <c r="T22" t="n">
-        <v>6.198398150204337</v>
+        <v>6.198398150204336</v>
       </c>
       <c r="U22" t="n">
-        <v>0.07912848702388527</v>
+        <v>0.07912848702388525</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.234062116219091</v>
+        <v>3.23406211621909</v>
       </c>
       <c r="H23" t="n">
         <v>33.12083864772877</v>
@@ -32707,19 +32707,19 @@
         <v>124.6811797355366</v>
       </c>
       <c r="J23" t="n">
-        <v>274.4869795364503</v>
+        <v>274.4869795364502</v>
       </c>
       <c r="K23" t="n">
-        <v>411.3848289160045</v>
+        <v>411.3848289160044</v>
       </c>
       <c r="L23" t="n">
-        <v>510.3592574052446</v>
+        <v>510.3592574052445</v>
       </c>
       <c r="M23" t="n">
-        <v>567.8730095645558</v>
+        <v>567.8730095645557</v>
       </c>
       <c r="N23" t="n">
-        <v>577.0617885522634</v>
+        <v>577.0617885522632</v>
       </c>
       <c r="O23" t="n">
         <v>544.9030833841097</v>
@@ -32728,7 +32728,7 @@
         <v>465.0621748899508</v>
       </c>
       <c r="Q23" t="n">
-        <v>349.2423253528546</v>
+        <v>349.2423253528545</v>
       </c>
       <c r="R23" t="n">
         <v>203.1516544079476</v>
@@ -32737,10 +32737,10 @@
         <v>73.6961904733426</v>
       </c>
       <c r="T23" t="n">
-        <v>14.15710691374908</v>
+        <v>14.15710691374907</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2587249692975272</v>
+        <v>0.2587249692975271</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32783,25 +32783,25 @@
         <v>16.71178716041243</v>
       </c>
       <c r="I24" t="n">
-        <v>59.57653460909973</v>
+        <v>59.57653460909972</v>
       </c>
       <c r="J24" t="n">
         <v>163.4825645878493</v>
       </c>
       <c r="K24" t="n">
-        <v>279.4177420004108</v>
+        <v>279.4177420004107</v>
       </c>
       <c r="L24" t="n">
         <v>375.7116364106346</v>
       </c>
       <c r="M24" t="n">
-        <v>438.4377585181771</v>
+        <v>438.437758518177</v>
       </c>
       <c r="N24" t="n">
         <v>450.0419013738859</v>
       </c>
       <c r="O24" t="n">
-        <v>411.7004169350105</v>
+        <v>411.7004169350104</v>
       </c>
       <c r="P24" t="n">
         <v>330.4258807402527</v>
@@ -32810,13 +32810,13 @@
         <v>220.8809507341705</v>
       </c>
       <c r="R24" t="n">
-        <v>107.4350858504989</v>
+        <v>107.4350858504988</v>
       </c>
       <c r="S24" t="n">
-        <v>32.14097121904932</v>
+        <v>32.14097121904931</v>
       </c>
       <c r="T24" t="n">
-        <v>6.974628701371035</v>
+        <v>6.974628701371033</v>
       </c>
       <c r="U24" t="n">
         <v>0.1138405119919103</v>
@@ -32880,7 +32880,7 @@
         <v>221.99497034551</v>
       </c>
       <c r="O25" t="n">
-        <v>205.0482860412279</v>
+        <v>205.0482860412278</v>
       </c>
       <c r="P25" t="n">
         <v>175.4542318942947</v>
@@ -32892,13 +32892,13 @@
         <v>65.22824947002266</v>
       </c>
       <c r="S25" t="n">
-        <v>25.28155160413131</v>
+        <v>25.2815516041313</v>
       </c>
       <c r="T25" t="n">
-        <v>6.198398150204337</v>
+        <v>6.198398150204336</v>
       </c>
       <c r="U25" t="n">
-        <v>0.07912848702388527</v>
+        <v>0.07912848702388525</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33895,37 +33895,37 @@
         <v>274.4869795364503</v>
       </c>
       <c r="K38" t="n">
-        <v>411.3848289160046</v>
+        <v>411.3848289160045</v>
       </c>
       <c r="L38" t="n">
         <v>510.3592574052446</v>
       </c>
       <c r="M38" t="n">
-        <v>567.8730095645559</v>
+        <v>567.8730095645558</v>
       </c>
       <c r="N38" t="n">
-        <v>577.0617885522635</v>
+        <v>577.0617885522634</v>
       </c>
       <c r="O38" t="n">
-        <v>544.9030833841098</v>
+        <v>544.9030833841097</v>
       </c>
       <c r="P38" t="n">
-        <v>465.0621748899509</v>
+        <v>465.0621748899508</v>
       </c>
       <c r="Q38" t="n">
         <v>349.2423253528546</v>
       </c>
       <c r="R38" t="n">
-        <v>203.1516544079477</v>
+        <v>203.1516544079476</v>
       </c>
       <c r="S38" t="n">
-        <v>73.69619047334261</v>
+        <v>73.6961904733426</v>
       </c>
       <c r="T38" t="n">
         <v>14.15710691374908</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2587249692975273</v>
+        <v>0.2587249692975272</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,34 +33962,34 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.730375782277037</v>
+        <v>1.730375782277036</v>
       </c>
       <c r="H39" t="n">
         <v>16.71178716041243</v>
       </c>
       <c r="I39" t="n">
-        <v>59.57653460909974</v>
+        <v>59.57653460909973</v>
       </c>
       <c r="J39" t="n">
-        <v>163.4825645878494</v>
+        <v>163.4825645878493</v>
       </c>
       <c r="K39" t="n">
         <v>279.4177420004108</v>
       </c>
       <c r="L39" t="n">
-        <v>375.7116364106347</v>
+        <v>375.7116364106346</v>
       </c>
       <c r="M39" t="n">
-        <v>438.4377585181772</v>
+        <v>438.4377585181771</v>
       </c>
       <c r="N39" t="n">
-        <v>450.041901373886</v>
+        <v>450.0419013738859</v>
       </c>
       <c r="O39" t="n">
         <v>411.7004169350105</v>
       </c>
       <c r="P39" t="n">
-        <v>330.4258807402528</v>
+        <v>330.4258807402527</v>
       </c>
       <c r="Q39" t="n">
         <v>220.8809507341705</v>
@@ -34001,10 +34001,10 @@
         <v>32.14097121904932</v>
       </c>
       <c r="T39" t="n">
-        <v>6.974628701371036</v>
+        <v>6.974628701371035</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1138405119919104</v>
+        <v>0.1138405119919103</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,19 +34044,19 @@
         <v>1.450688928771228</v>
       </c>
       <c r="H40" t="n">
-        <v>12.8979433848933</v>
+        <v>12.89794338489329</v>
       </c>
       <c r="I40" t="n">
         <v>43.62617251250204</v>
       </c>
       <c r="J40" t="n">
-        <v>102.5637072641259</v>
+        <v>102.5637072641258</v>
       </c>
       <c r="K40" t="n">
         <v>168.5436773608754</v>
       </c>
       <c r="L40" t="n">
-        <v>215.6778794647698</v>
+        <v>215.6778794647697</v>
       </c>
       <c r="M40" t="n">
         <v>227.4020836254753</v>
@@ -34074,16 +34074,16 @@
         <v>121.4754156628344</v>
       </c>
       <c r="R40" t="n">
-        <v>65.22824947002267</v>
+        <v>65.22824947002266</v>
       </c>
       <c r="S40" t="n">
         <v>25.28155160413131</v>
       </c>
       <c r="T40" t="n">
-        <v>6.198398150204338</v>
+        <v>6.198398150204337</v>
       </c>
       <c r="U40" t="n">
-        <v>0.07912848702388528</v>
+        <v>0.07912848702388527</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34781,13 +34781,13 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>73.09363939595693</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>276.1565137023554</v>
       </c>
       <c r="N3" t="n">
-        <v>276.1565137023554</v>
+        <v>269.5389906563205</v>
       </c>
       <c r="O3" t="n">
         <v>269.1887005891755</v>
@@ -34796,7 +34796,7 @@
         <v>198.8728484821095</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>79.71116244199195</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>19.43419056980946</v>
+        <v>19.43419056980926</v>
       </c>
       <c r="K5" t="n">
-        <v>151.091262604977</v>
+        <v>151.0912626049767</v>
       </c>
       <c r="L5" t="n">
-        <v>240.2467459499028</v>
+        <v>240.2467459499024</v>
       </c>
       <c r="M5" t="n">
-        <v>284.0950838179439</v>
+        <v>284.0950838179434</v>
       </c>
       <c r="N5" t="n">
-        <v>273.9122437855627</v>
+        <v>273.9122437855623</v>
       </c>
       <c r="O5" t="n">
-        <v>213.0034859531186</v>
+        <v>213.0034859531182</v>
       </c>
       <c r="P5" t="n">
-        <v>143.7386150213388</v>
+        <v>143.7386150213384</v>
       </c>
       <c r="Q5" t="n">
-        <v>29.93993620204068</v>
+        <v>29.93993620204044</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>17.94519431836675</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>158.5710368886975</v>
+        <v>158.5710368886973</v>
       </c>
       <c r="L6" t="n">
-        <v>275.2429706922002</v>
+        <v>275.2429706921999</v>
       </c>
       <c r="M6" t="n">
-        <v>342.3232010881752</v>
+        <v>342.3232010881746</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>280.9864965556048</v>
       </c>
       <c r="O6" t="n">
-        <v>298.337858680015</v>
+        <v>298.3378586800147</v>
       </c>
       <c r="P6" t="n">
-        <v>167.6913561376107</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>95.34994609962817</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35097,19 +35097,19 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>52.24956434575992</v>
+        <v>52.24956434575977</v>
       </c>
       <c r="M7" t="n">
-        <v>65.58390340493139</v>
+        <v>65.58390340493123</v>
       </c>
       <c r="N7" t="n">
-        <v>69.51397630641921</v>
+        <v>69.51397630641905</v>
       </c>
       <c r="O7" t="n">
-        <v>48.02933200481135</v>
+        <v>48.02933200481121</v>
       </c>
       <c r="P7" t="n">
-        <v>17.33912597595769</v>
+        <v>17.33912597595756</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35264,13 +35264,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>325.145920326212</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35501,13 +35501,13 @@
         <v>318.7001892905524</v>
       </c>
       <c r="O12" t="n">
-        <v>612.6893742936383</v>
+        <v>269.1041724905659</v>
       </c>
       <c r="P12" t="n">
-        <v>196.4514733259223</v>
+        <v>514.9142419658594</v>
       </c>
       <c r="Q12" t="n">
-        <v>80.89917664814888</v>
+        <v>106.0216098112841</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>17.95401090277313</v>
+        <v>17.95401090277326</v>
       </c>
       <c r="K13" t="n">
-        <v>155.0236692903126</v>
+        <v>155.0236692903127</v>
       </c>
       <c r="L13" t="n">
-        <v>252.0173884804059</v>
+        <v>252.017388480406</v>
       </c>
       <c r="M13" t="n">
-        <v>275.735444342636</v>
+        <v>275.7354443426361</v>
       </c>
       <c r="N13" t="n">
-        <v>274.8766264800586</v>
+        <v>274.8766264800588</v>
       </c>
       <c r="O13" t="n">
-        <v>238.3828977105876</v>
+        <v>238.3828977105877</v>
       </c>
       <c r="P13" t="n">
-        <v>181.4822749145082</v>
+        <v>181.4822749145083</v>
       </c>
       <c r="Q13" t="n">
-        <v>44.06285616646009</v>
+        <v>44.06285616646022</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>262.5376901818378</v>
+        <v>262.5376901818376</v>
       </c>
       <c r="K14" t="n">
-        <v>515.4403904421887</v>
+        <v>515.4403904421883</v>
       </c>
       <c r="L14" t="n">
-        <v>692.2540569857078</v>
+        <v>692.2540569857075</v>
       </c>
       <c r="M14" t="n">
-        <v>787.0403098301156</v>
+        <v>787.0403098301152</v>
       </c>
       <c r="N14" t="n">
-        <v>784.9956493676566</v>
+        <v>784.9956493676563</v>
       </c>
       <c r="O14" t="n">
-        <v>695.6050532251683</v>
+        <v>695.605053225168</v>
       </c>
       <c r="P14" t="n">
-        <v>555.627887306164</v>
+        <v>555.6278873061638</v>
       </c>
       <c r="Q14" t="n">
-        <v>339.2516261383097</v>
+        <v>339.2516261383096</v>
       </c>
       <c r="R14" t="n">
-        <v>53.28253646679795</v>
+        <v>53.28253646679784</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>36.64493792118265</v>
+        <v>36.64493792118256</v>
       </c>
       <c r="K15" t="n">
-        <v>141.5763030260518</v>
+        <v>406.0415400386302</v>
       </c>
       <c r="L15" t="n">
-        <v>607.9976019342196</v>
+        <v>607.9976019342193</v>
       </c>
       <c r="M15" t="n">
-        <v>296.3037245961588</v>
+        <v>296.3037245961585</v>
       </c>
       <c r="N15" t="n">
-        <v>798.0425636341062</v>
+        <v>318.7001892905523</v>
       </c>
       <c r="O15" t="n">
-        <v>397.8122369626624</v>
+        <v>269.1041724905658</v>
       </c>
       <c r="P15" t="n">
-        <v>196.4514733259224</v>
+        <v>514.9142419658594</v>
       </c>
       <c r="Q15" t="n">
-        <v>80.89917664814899</v>
+        <v>106.0216098112845</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,13 +35802,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>17.95401090277318</v>
+        <v>17.95401090277316</v>
       </c>
       <c r="K16" t="n">
-        <v>155.0236692903127</v>
+        <v>155.0236692903126</v>
       </c>
       <c r="L16" t="n">
-        <v>252.017388480406</v>
+        <v>252.0173884804059</v>
       </c>
       <c r="M16" t="n">
         <v>275.735444342636</v>
@@ -35817,13 +35817,13 @@
         <v>274.8766264800587</v>
       </c>
       <c r="O16" t="n">
-        <v>238.3828977105877</v>
+        <v>238.3828977105876</v>
       </c>
       <c r="P16" t="n">
-        <v>181.4822749145083</v>
+        <v>181.4822749145082</v>
       </c>
       <c r="Q16" t="n">
-        <v>44.06285616646015</v>
+        <v>44.06285616646012</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35899,7 +35899,7 @@
         <v>695.6050532251683</v>
       </c>
       <c r="P17" t="n">
-        <v>555.6278873061641</v>
+        <v>555.627887306164</v>
       </c>
       <c r="Q17" t="n">
         <v>339.2516261383097</v>
@@ -35960,13 +35960,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>162.7359732615915</v>
+        <v>38.74539711104624</v>
       </c>
       <c r="K18" t="n">
-        <v>229.6733872245632</v>
+        <v>406.0415400386304</v>
       </c>
       <c r="L18" t="n">
-        <v>607.9976019342196</v>
+        <v>237.1572566307605</v>
       </c>
       <c r="M18" t="n">
         <v>296.3037245961588</v>
@@ -35978,7 +35978,7 @@
         <v>662.9664917672956</v>
       </c>
       <c r="P18" t="n">
-        <v>196.4514733259224</v>
+        <v>514.9142419658597</v>
       </c>
       <c r="Q18" t="n">
         <v>80.89917664814899</v>
@@ -36039,19 +36039,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>17.95401090277317</v>
+        <v>17.95401090277322</v>
       </c>
       <c r="K19" t="n">
         <v>155.0236692903127</v>
       </c>
       <c r="L19" t="n">
-        <v>252.017388480406</v>
+        <v>252.0173884804061</v>
       </c>
       <c r="M19" t="n">
-        <v>275.735444342636</v>
+        <v>275.7354443426361</v>
       </c>
       <c r="N19" t="n">
-        <v>274.8766264800587</v>
+        <v>274.8766264800588</v>
       </c>
       <c r="O19" t="n">
         <v>238.3828977105877</v>
@@ -36060,7 +36060,7 @@
         <v>181.4822749145083</v>
       </c>
       <c r="Q19" t="n">
-        <v>44.06285616646014</v>
+        <v>44.06285616646019</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>262.5376901818378</v>
+        <v>262.5376901818377</v>
       </c>
       <c r="K20" t="n">
-        <v>515.4403904421887</v>
+        <v>515.4403904421886</v>
       </c>
       <c r="L20" t="n">
-        <v>692.2540569857078</v>
+        <v>692.2540569857076</v>
       </c>
       <c r="M20" t="n">
-        <v>787.0403098301156</v>
+        <v>787.0403098301155</v>
       </c>
       <c r="N20" t="n">
-        <v>784.9956493676566</v>
+        <v>784.9956493676565</v>
       </c>
       <c r="O20" t="n">
         <v>695.6050532251683</v>
       </c>
       <c r="P20" t="n">
-        <v>555.627887306164</v>
+        <v>555.6278873061639</v>
       </c>
       <c r="Q20" t="n">
         <v>339.2516261383097</v>
       </c>
       <c r="R20" t="n">
-        <v>53.28253646679795</v>
+        <v>53.28253646679792</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>36.64493792118265</v>
+        <v>36.64493792118262</v>
       </c>
       <c r="K21" t="n">
-        <v>406.0415400386304</v>
+        <v>406.0415400386303</v>
       </c>
       <c r="L21" t="n">
-        <v>239.2577158206241</v>
+        <v>607.9976019342196</v>
       </c>
       <c r="M21" t="n">
-        <v>296.3037245961588</v>
+        <v>296.3037245961587</v>
       </c>
       <c r="N21" t="n">
-        <v>318.7001892905527</v>
+        <v>318.7001892905525</v>
       </c>
       <c r="O21" t="n">
-        <v>662.9664917672956</v>
+        <v>269.104172490566</v>
       </c>
       <c r="P21" t="n">
         <v>514.9142419658597</v>
       </c>
       <c r="Q21" t="n">
-        <v>80.89917664814899</v>
+        <v>106.0216098112831</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>17.95401090277317</v>
+        <v>17.95401090277311</v>
       </c>
       <c r="K22" t="n">
-        <v>155.0236692903127</v>
+        <v>155.0236692903126</v>
       </c>
       <c r="L22" t="n">
-        <v>252.017388480406</v>
+        <v>252.0173884804059</v>
       </c>
       <c r="M22" t="n">
-        <v>275.735444342636</v>
+        <v>275.7354443426359</v>
       </c>
       <c r="N22" t="n">
-        <v>274.8766264800587</v>
+        <v>274.8766264800586</v>
       </c>
       <c r="O22" t="n">
-        <v>238.3828977105877</v>
+        <v>238.3828977105876</v>
       </c>
       <c r="P22" t="n">
-        <v>181.4822749145083</v>
+        <v>181.4822749145082</v>
       </c>
       <c r="Q22" t="n">
-        <v>44.06285616646014</v>
+        <v>44.06285616646009</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>262.5376901818378</v>
+        <v>262.5376901818377</v>
       </c>
       <c r="K23" t="n">
-        <v>515.4403904421887</v>
+        <v>515.4403904421886</v>
       </c>
       <c r="L23" t="n">
-        <v>692.2540569857078</v>
+        <v>692.2540569857076</v>
       </c>
       <c r="M23" t="n">
-        <v>787.0403098301156</v>
+        <v>787.0403098301155</v>
       </c>
       <c r="N23" t="n">
-        <v>784.9956493676566</v>
+        <v>784.9956493676565</v>
       </c>
       <c r="O23" t="n">
         <v>695.6050532251683</v>
       </c>
       <c r="P23" t="n">
-        <v>555.627887306164</v>
+        <v>555.6278873061639</v>
       </c>
       <c r="Q23" t="n">
         <v>339.2516261383097</v>
       </c>
       <c r="R23" t="n">
-        <v>53.28253646679795</v>
+        <v>53.28253646679792</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,19 +36434,19 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>162.7359732615915</v>
+        <v>36.64493792118262</v>
       </c>
       <c r="K24" t="n">
-        <v>406.0415400386304</v>
+        <v>406.0415400386303</v>
       </c>
       <c r="L24" t="n">
-        <v>296.9517120210955</v>
+        <v>607.9976019342196</v>
       </c>
       <c r="M24" t="n">
-        <v>296.3037245961588</v>
+        <v>296.3037245961587</v>
       </c>
       <c r="N24" t="n">
-        <v>318.7001892905527</v>
+        <v>318.7001892905525</v>
       </c>
       <c r="O24" t="n">
         <v>269.104172490566</v>
@@ -36455,7 +36455,7 @@
         <v>514.9142419658597</v>
       </c>
       <c r="Q24" t="n">
-        <v>290.9764643839981</v>
+        <v>106.0216098112831</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>26.70349465809325</v>
+        <v>26.70349465809332</v>
       </c>
       <c r="K25" t="n">
-        <v>163.7731530456327</v>
+        <v>163.7731530456328</v>
       </c>
       <c r="L25" t="n">
-        <v>260.7668722357261</v>
+        <v>260.7668722357262</v>
       </c>
       <c r="M25" t="n">
         <v>284.4849280979561</v>
       </c>
       <c r="N25" t="n">
-        <v>283.6261102353788</v>
+        <v>283.6261102353789</v>
       </c>
       <c r="O25" t="n">
-        <v>247.1323814659077</v>
+        <v>247.1323814659078</v>
       </c>
       <c r="P25" t="n">
-        <v>190.2317586698283</v>
+        <v>190.2317586698284</v>
       </c>
       <c r="Q25" t="n">
-        <v>52.81233992178021</v>
+        <v>52.81233992178029</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>162.7359732615915</v>
+        <v>70.48828394673814</v>
       </c>
       <c r="K27" t="n">
-        <v>406.0415400386304</v>
+        <v>141.5763030260518</v>
       </c>
       <c r="L27" t="n">
         <v>237.1572566307605</v>
       </c>
       <c r="M27" t="n">
-        <v>296.3037245961588</v>
+        <v>762.0087883461588</v>
       </c>
       <c r="N27" t="n">
-        <v>318.7001892905527</v>
+        <v>798.0425636341062</v>
       </c>
       <c r="O27" t="n">
-        <v>328.8986278809011</v>
+        <v>269.104172490566</v>
       </c>
       <c r="P27" t="n">
-        <v>514.9142419658597</v>
+        <v>196.4514733259224</v>
       </c>
       <c r="Q27" t="n">
-        <v>290.9764643839981</v>
+        <v>80.89917664814899</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>17.95401090277311</v>
+        <v>17.95401090277308</v>
       </c>
       <c r="K28" t="n">
         <v>155.0236692903126</v>
@@ -36759,10 +36759,10 @@
         <v>252.0173884804059</v>
       </c>
       <c r="M28" t="n">
-        <v>275.735444342636</v>
+        <v>275.7354443426359</v>
       </c>
       <c r="N28" t="n">
-        <v>274.8766264800587</v>
+        <v>274.8766264800586</v>
       </c>
       <c r="O28" t="n">
         <v>238.3828977105876</v>
@@ -36771,7 +36771,7 @@
         <v>181.4822749145082</v>
       </c>
       <c r="Q28" t="n">
-        <v>44.06285616646009</v>
+        <v>44.06285616646005</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36908,13 +36908,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>162.7359732615915</v>
+        <v>36.64493792118265</v>
       </c>
       <c r="K30" t="n">
         <v>406.0415400386304</v>
       </c>
       <c r="L30" t="n">
-        <v>237.1572566307605</v>
+        <v>607.9976019342196</v>
       </c>
       <c r="M30" t="n">
         <v>296.3037245961588</v>
@@ -36923,13 +36923,13 @@
         <v>318.7001892905527</v>
       </c>
       <c r="O30" t="n">
-        <v>328.8986278809011</v>
+        <v>269.104172490566</v>
       </c>
       <c r="P30" t="n">
         <v>514.9142419658597</v>
       </c>
       <c r="Q30" t="n">
-        <v>290.9764643839981</v>
+        <v>106.0216098112831</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,13 +36987,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>17.95401090277311</v>
+        <v>17.95401090277316</v>
       </c>
       <c r="K31" t="n">
-        <v>155.0236692903126</v>
+        <v>155.0236692903127</v>
       </c>
       <c r="L31" t="n">
-        <v>252.0173884804059</v>
+        <v>252.017388480406</v>
       </c>
       <c r="M31" t="n">
         <v>275.735444342636</v>
@@ -37002,13 +37002,13 @@
         <v>274.8766264800587</v>
       </c>
       <c r="O31" t="n">
-        <v>238.3828977105876</v>
+        <v>238.3828977105877</v>
       </c>
       <c r="P31" t="n">
-        <v>181.4822749145082</v>
+        <v>181.4822749145083</v>
       </c>
       <c r="Q31" t="n">
-        <v>44.06285616646009</v>
+        <v>44.06285616646014</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37145,25 +37145,25 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>162.7359732615915</v>
+        <v>36.64493792118265</v>
       </c>
       <c r="K33" t="n">
-        <v>406.0415400386304</v>
+        <v>141.5763030260518</v>
       </c>
       <c r="L33" t="n">
-        <v>237.1572566307605</v>
+        <v>540.2656892640206</v>
       </c>
       <c r="M33" t="n">
-        <v>296.3037245961588</v>
+        <v>762.0087883461588</v>
       </c>
       <c r="N33" t="n">
         <v>318.7001892905527</v>
       </c>
       <c r="O33" t="n">
-        <v>328.8986278809011</v>
+        <v>269.104172490566</v>
       </c>
       <c r="P33" t="n">
-        <v>514.9142419658597</v>
+        <v>196.4514733259224</v>
       </c>
       <c r="Q33" t="n">
         <v>290.9764643839981</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>162.7359732615915</v>
+        <v>70.48828394673814</v>
       </c>
       <c r="K36" t="n">
-        <v>406.0415400386304</v>
+        <v>141.5763030260518</v>
       </c>
       <c r="L36" t="n">
-        <v>296.9517120210955</v>
+        <v>237.1572566307605</v>
       </c>
       <c r="M36" t="n">
-        <v>296.3037245961588</v>
+        <v>762.0087883461588</v>
       </c>
       <c r="N36" t="n">
-        <v>318.7001892905527</v>
+        <v>798.0425636341062</v>
       </c>
       <c r="O36" t="n">
         <v>269.104172490566</v>
       </c>
       <c r="P36" t="n">
-        <v>514.9142419658597</v>
+        <v>196.4514733259224</v>
       </c>
       <c r="Q36" t="n">
-        <v>290.9764643839981</v>
+        <v>80.89917664814899</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,16 +37461,16 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>79.4496477648085</v>
+        <v>79.44964776480855</v>
       </c>
       <c r="K37" t="n">
         <v>216.519306152348</v>
       </c>
       <c r="L37" t="n">
-        <v>313.5130253424413</v>
+        <v>313.5130253424414</v>
       </c>
       <c r="M37" t="n">
-        <v>337.2310812046713</v>
+        <v>337.2310812046714</v>
       </c>
       <c r="N37" t="n">
         <v>336.3722633420941</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>262.5376901818371</v>
+        <v>262.5376901818378</v>
       </c>
       <c r="K38" t="n">
-        <v>515.4403904421888</v>
+        <v>515.4403904421887</v>
       </c>
       <c r="L38" t="n">
         <v>692.2540569857078</v>
       </c>
       <c r="M38" t="n">
-        <v>787.0403098301157</v>
+        <v>787.0403098301156</v>
       </c>
       <c r="N38" t="n">
-        <v>784.9956493676567</v>
+        <v>784.9956493676566</v>
       </c>
       <c r="O38" t="n">
-        <v>695.6050532251684</v>
+        <v>695.6050532251683</v>
       </c>
       <c r="P38" t="n">
         <v>555.627887306164</v>
       </c>
       <c r="Q38" t="n">
-        <v>339.2516261383098</v>
+        <v>339.2516261383097</v>
       </c>
       <c r="R38" t="n">
-        <v>53.28253646679798</v>
+        <v>53.28253646679795</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>162.7359732615915</v>
+        <v>61.76737108431658</v>
       </c>
       <c r="K39" t="n">
         <v>406.0415400386304</v>
       </c>
       <c r="L39" t="n">
-        <v>289.6744603232397</v>
+        <v>607.9976019342196</v>
       </c>
       <c r="M39" t="n">
-        <v>296.3037245961589</v>
+        <v>296.3037245961588</v>
       </c>
       <c r="N39" t="n">
         <v>318.7001892905527</v>
       </c>
       <c r="O39" t="n">
-        <v>269.1041724905661</v>
+        <v>269.104172490566</v>
       </c>
       <c r="P39" t="n">
         <v>514.9142419658597</v>
       </c>
       <c r="Q39" t="n">
-        <v>290.9764643839981</v>
+        <v>80.89917664814899</v>
       </c>
       <c r="R39" t="n">
-        <v>7.277251697855732</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,16 +37698,16 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>79.44964776480853</v>
+        <v>79.4496477648085</v>
       </c>
       <c r="K40" t="n">
         <v>216.519306152348</v>
       </c>
       <c r="L40" t="n">
-        <v>313.5130253424414</v>
+        <v>313.5130253424413</v>
       </c>
       <c r="M40" t="n">
-        <v>337.2310812046714</v>
+        <v>337.2310812046713</v>
       </c>
       <c r="N40" t="n">
         <v>336.3722633420941</v>
@@ -37801,7 +37801,7 @@
         <v>339.2516261383097</v>
       </c>
       <c r="R41" t="n">
-        <v>53.28253646679795</v>
+        <v>53.28253646679826</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,19 +37856,19 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>162.7359732615915</v>
+        <v>36.64493792118265</v>
       </c>
       <c r="K42" t="n">
         <v>406.0415400386304</v>
       </c>
       <c r="L42" t="n">
-        <v>237.1572566307605</v>
+        <v>607.9976019342196</v>
       </c>
       <c r="M42" t="n">
         <v>296.3037245961588</v>
       </c>
       <c r="N42" t="n">
-        <v>378.4946446808877</v>
+        <v>318.7001892905527</v>
       </c>
       <c r="O42" t="n">
         <v>269.104172490566</v>
@@ -37877,7 +37877,7 @@
         <v>514.9142419658597</v>
       </c>
       <c r="Q42" t="n">
-        <v>290.9764643839981</v>
+        <v>106.0216098112831</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,16 +37935,16 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>79.44964776480853</v>
+        <v>79.44964776480852</v>
       </c>
       <c r="K43" t="n">
         <v>216.519306152348</v>
       </c>
       <c r="L43" t="n">
-        <v>313.5130253424414</v>
+        <v>313.5130253424413</v>
       </c>
       <c r="M43" t="n">
-        <v>337.2310812046714</v>
+        <v>337.2310812046713</v>
       </c>
       <c r="N43" t="n">
         <v>336.3722633420941</v>
@@ -38023,7 +38023,7 @@
         <v>692.2540569857078</v>
       </c>
       <c r="M44" t="n">
-        <v>787.0403098301156</v>
+        <v>787.0403098301152</v>
       </c>
       <c r="N44" t="n">
         <v>784.9956493676566</v>
@@ -38093,13 +38093,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>162.7359732615915</v>
+        <v>36.64493792118265</v>
       </c>
       <c r="K45" t="n">
         <v>406.0415400386304</v>
       </c>
       <c r="L45" t="n">
-        <v>296.9517120210955</v>
+        <v>607.9976019342196</v>
       </c>
       <c r="M45" t="n">
         <v>296.3037245961588</v>
@@ -38114,7 +38114,7 @@
         <v>514.9142419658597</v>
       </c>
       <c r="Q45" t="n">
-        <v>290.9764643839981</v>
+        <v>106.0216098112831</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,16 +38172,16 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>79.44964776480852</v>
+        <v>79.44964776480853</v>
       </c>
       <c r="K46" t="n">
         <v>216.519306152348</v>
       </c>
       <c r="L46" t="n">
-        <v>313.5130253424413</v>
+        <v>313.5130253424414</v>
       </c>
       <c r="M46" t="n">
-        <v>337.2310812046713</v>
+        <v>337.2310812046714</v>
       </c>
       <c r="N46" t="n">
         <v>336.3722633420941</v>
